--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2168 +418,2410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.542085001798776</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>11.76484415746223</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.0108038734370296</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.01154562499054383</v>
+      </c>
+      <c r="E2">
         <v>1.098194579221288</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2.73262217465538</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>4.935992788799798</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.3280228921137489</v>
+      </c>
+      <c r="I2">
+        <v>2.43117950221445</v>
+      </c>
+      <c r="J2">
         <v>2.618205394012687</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>3.467631391347135</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>6.619047867652748</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>4.165053678075622</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.08324416637848531</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.345967664195518</v>
       </c>
-      <c r="N2" t="n">
-        <v>39.3836927370367</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>42.14363688291841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.453236395734872</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>11.08700214309188</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01376964261582204</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.01471501224284997</v>
+      </c>
+      <c r="E3">
         <v>1.399659757831053</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>3.357221528862325</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>6.064219711954037</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.125420517572904</v>
+      </c>
+      <c r="I3">
+        <v>0.9295686331996423</v>
+      </c>
+      <c r="J3">
         <v>2.884463569674993</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>3.820271871823114</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>5.869721693956208</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>3.693538167350079</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.2127350918561292</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.8841395862774349</v>
       </c>
-      <c r="N3" t="n">
-        <v>40.73997916102795</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>41.79591368142752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.358260299597597</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10.36241240359256</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0108038734370296</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.01154562499054383</v>
+      </c>
+      <c r="E4">
         <v>1.098194579221288</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.678610764431163</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3.032109855977018</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1157727854519113</v>
+      </c>
+      <c r="I4">
+        <v>0.8580633537227469</v>
+      </c>
+      <c r="J4">
         <v>2.292778734869866</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>3.036626359654271</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>5.619946302724028</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>3.536366330441566</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.1849870363966341</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.7688170315455957</v>
       </c>
-      <c r="N4" t="n">
-        <v>32.97991357188861</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>33.95449146261679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.575786197202326</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>12.02195664567166</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.01165123605954173</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.01245116420548844</v>
+      </c>
+      <c r="E5">
         <v>1.184327487395507</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2.264172659000172</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4.089822596434118</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.2026023745408449</v>
+      </c>
+      <c r="I5">
+        <v>1.501610869014807</v>
+      </c>
+      <c r="J5">
         <v>2.766126602713967</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>3.663542769389346</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>4.620844737795315</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>2.90767898280751</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.157238980937139</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.6534944768137562</v>
       </c>
-      <c r="N5" t="n">
-        <v>35.91664337222036</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>37.62165654392196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.465491375881618</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>11.18049759334986</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.01207491737079779</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.01290393381296075</v>
+      </c>
+      <c r="E6">
         <v>1.227393941482616</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.771659634293314</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>5.006506971496937</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I6">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J6">
         <v>2.958424174025634</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>3.91822756084422</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>4.745732433411405</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>2.986264901261766</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.1387402772974756</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.5766127736591966</v>
       </c>
-      <c r="N6" t="n">
-        <v>36.98762655437485</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>38.449209779579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.571701203820076</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>11.99079149558567</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.01249859868205386</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.01335670342043305</v>
+      </c>
+      <c r="E7">
         <v>1.270460395569725</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3.201071690310586</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5.782162981165476</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I7">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J7">
         <v>3.106345382726915</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>4.11413893888643</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>4.495957042179222</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>2.829093064353252</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.1202415736578121</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.4997310705046371</v>
       </c>
-      <c r="N7" t="n">
-        <v>38.99419343744185</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>40.45580575094223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.606423647569188</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>12.25569527131661</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.0114393954039137</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.01222477940175228</v>
+      </c>
+      <c r="E8">
         <v>1.162794260351952</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>3.122996771034721</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5.641134615771198</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.1929546424198522</v>
+      </c>
+      <c r="I8">
+        <v>1.430105589537912</v>
+      </c>
+      <c r="J8">
         <v>2.899255690545121</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>3.839863009627335</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>3.871518564098775</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>2.436163472081968</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N8" t="n">
-        <v>37.18111612158055</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>38.80496173753616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.79637583984374</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>13.70487475031527</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.01059203278140157</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.01131924018680767</v>
+      </c>
+      <c r="E9">
         <v>1.076661352177733</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.73262217465538</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>4.935992788799798</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.3087274278717636</v>
+      </c>
+      <c r="I9">
+        <v>2.288168943260659</v>
+      </c>
+      <c r="J9">
         <v>2.573829031402302</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>3.408857977934471</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>4.121293955330954</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>2.593335308990481</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.1017428700181487</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.4228493673500776</v>
       </c>
-      <c r="N9" t="n">
-        <v>37.47902744959976</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>40.07665102813759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.950584340023617</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>14.8813591660615</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.01292227999330992</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.01380947302790536</v>
+      </c>
+      <c r="E10">
         <v>1.313526849656835</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2.498397416827777</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>4.512907692616958</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.5788639272595568</v>
+      </c>
+      <c r="I10">
+        <v>4.290316768613736</v>
+      </c>
+      <c r="J10">
         <v>2.470284185311404</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>3.271720013304924</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>3.12219239040224</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>1.964647961356425</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.05549611091899024</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.2306451094636787</v>
       </c>
-      <c r="N10" t="n">
-        <v>36.28468351593766</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>41.15475140484555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.073134141491069</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>15.81631366864127</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.008049944913865195</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.008602622541973833</v>
+      </c>
+      <c r="E11">
         <v>0.8182626276550774</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>2.147060280086371</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3.878280048342699</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.6174548557435272</v>
+      </c>
+      <c r="I11">
+        <v>4.576337886521317</v>
+      </c>
+      <c r="J11">
         <v>1.375667240921919</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>1.821975815792562</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.6244384780804476</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>0.3929295922712851</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N11" t="n">
-        <v>29.28994326197635</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>34.4842886818693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.510426303086351</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>11.52331424429579</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.006778900980097005</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.007244313719556911</v>
+      </c>
+      <c r="E12">
         <v>0.6890632653937495</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2.186097739724305</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3.948794231039838</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.376261552718712</v>
+      </c>
+      <c r="I12">
+        <v>2.788705899598928</v>
+      </c>
+      <c r="J12">
         <v>1.227746032220638</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>1.626064437750351</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>1.373764651776985</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>0.8644451029968269</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N12" t="n">
-        <v>25.05187531605915</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>28.21730818111624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.317410365775113</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>10.05076090273263</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.004660494423816692</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.004980465682195376</v>
+      </c>
+      <c r="E13">
         <v>0.4737309949582028</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1.288236168051822</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>2.326968029005619</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.5016820702916159</v>
+      </c>
+      <c r="I13">
+        <v>3.718274532798569</v>
+      </c>
+      <c r="J13">
         <v>0.7691902852466648</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>1.018739165819497</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>2.247978521089611</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>1.414546532176626</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.04624675909915852</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.1922042578863989</v>
       </c>
-      <c r="N13" t="n">
-        <v>21.15067247626516</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>25.37094905061373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.043715809164469</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>7.962695846971123</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.004024972456932598</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.004301311270986916</v>
+      </c>
+      <c r="E14">
         <v>0.4091313138275387</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1.327273627689757</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>2.397482211702759</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.3183751599927564</v>
+      </c>
+      <c r="I14">
+        <v>2.359674222737553</v>
+      </c>
+      <c r="J14">
         <v>0.5177242304544861</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.6856898231477385</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>1.748427738625254</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>1.100202858359598</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.04624675909915852</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.1922042578863989</v>
       </c>
-      <c r="N14" t="n">
-        <v>17.43481944938521</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>20.11314517092958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.7373413054958383</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>5.625309590521673</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.00571969770195685</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.006112389700876142</v>
+      </c>
+      <c r="E15">
         <v>0.5813971301759761</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.8588241120345483</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.55131201933708</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1833069102988596</v>
+      </c>
+      <c r="I15">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="J15">
         <v>0.443763626103845</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.587734134126633</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>1.498652347393075</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>0.9430310214510838</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>12.83308498434171</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>14.3753848967005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.4534342654295735</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3.459331659545184</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.004660494423816692</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.004980465682195376</v>
+      </c>
+      <c r="E16">
         <v>0.4737309949582028</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.5855618945690102</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1.057712740457099</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.09647732120992612</v>
+      </c>
+      <c r="I16">
+        <v>0.7150527947689559</v>
+      </c>
+      <c r="J16">
         <v>0.3402187800129478</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.4505961694970853</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>1.373764651776985</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>0.8644451029968269</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>9.063456753666731</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>9.875306840903994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.3523306792189256</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2.687994194916866</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.006567060324468975</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.007017928915820759</v>
+      </c>
+      <c r="E17">
         <v>0.6675300383501948</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.19518729818967</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.3525709134856999</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.01929546424198523</v>
+      </c>
+      <c r="I17">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="J17">
         <v>0.1922975713116662</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.2546847914548743</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>1.623540043009164</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>1.021616939905341</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>7.354319530166871</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>7.517076421953999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.2297808777514732</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.753039692337087</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.005931538357584882</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.006338774504612298</v>
+      </c>
+      <c r="E18">
         <v>0.6029303572195307</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.351337136741406</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.63462764427426</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.03859092848397045</v>
+      </c>
+      <c r="I18">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="J18">
         <v>0.355010900883076</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.4701873073013064</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.9991015649287165</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>0.6286873476340559</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>6.030634367428497</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>6.355653649967077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1368472783053218</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.044032527880754</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.005296016390700787</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.005659620093403836</v>
+      </c>
+      <c r="E19">
         <v>0.5383306760888666</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.4684495156552081</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.8461701923656797</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.009647732120992613</v>
+      </c>
+      <c r="I19">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="J19">
         <v>0.1627133295714098</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.2155025158464321</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>2.123090825473523</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>1.335960613722369</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N19" t="n">
-        <v>6.924083694697376</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>7.005600309997968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.1654422319810607</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.262188578482702</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.004024972456932598</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.004301311270986916</v>
+      </c>
+      <c r="E20">
         <v>0.4091313138275387</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.5855618945690102</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1.057712740457099</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.02894319636297784</v>
+      </c>
+      <c r="I20">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="J20">
         <v>0.3254266591428197</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.4310050316928641</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>1.748427738625254</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>1.100202858359598</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N20" t="n">
-        <v>7.136814222991992</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>7.38054959659971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.2839070400662647</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2.165977930976489</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.001906565900652283</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.002037463233625381</v>
+      </c>
+      <c r="E21">
         <v>0.1937990433919921</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.8197866523966139</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1.480797836639939</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.0675341248469483</v>
+      </c>
+      <c r="I21">
+        <v>0.500536956338269</v>
+      </c>
+      <c r="J21">
         <v>0.5768927139349985</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.7640543743646229</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>2.87241699917006</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>1.807476124447911</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>10.96701528128954</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>11.53521725980773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.5708778251692156</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.355329724517474</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.001694725245024251</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.001811078429889228</v>
+      </c>
+      <c r="E22">
         <v>0.1722658163484374</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1.210161248775954</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2.18593966361134</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.2797842315087858</v>
+      </c>
+      <c r="I22">
+        <v>2.073653104829972</v>
+      </c>
+      <c r="J22">
         <v>1.627133295714098</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>2.155025158464321</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>5.245283215875761</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>3.300608575078795</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N22" t="n">
-        <v>20.91969965559464</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>23.27325334511826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.084565742986953</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>8.274347347831052</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.003813131801304566</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.004074926467250763</v>
+      </c>
+      <c r="E23">
         <v>0.3875980867839841</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>2.068985360810502</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3.737251682948418</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.8104094981633796</v>
+      </c>
+      <c r="I23">
+        <v>6.006443476059229</v>
+      </c>
+      <c r="J23">
         <v>2.396323580960763</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>3.173764324283818</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>7.368374041349286</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>4.636569188801166</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.1109922218379805</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.4612902189273574</v>
       </c>
-      <c r="N23" t="n">
-        <v>33.70387492932259</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>40.52098969821115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.560467472018894</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>11.90508733284919</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.00571969770195685</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.006112389700876142</v>
+      </c>
+      <c r="E24">
         <v>0.5813971301759761</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>2.186097739724305</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>3.948794231039838</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.8779436230103281</v>
+      </c>
+      <c r="I24">
+        <v>6.5069804323975</v>
+      </c>
+      <c r="J24">
         <v>2.529452668791917</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>3.350084564521809</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>9.366577171206714</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>5.893943884069277</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.1664883327569706</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.691935328391036</v>
       </c>
-      <c r="N24" t="n">
-        <v>42.18604555324787</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>49.57136230065462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.696293501978654</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>12.94132857320845</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.009744670158889445</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.01041370097186306</v>
+      </c>
+      <c r="E25">
         <v>0.9905284440035148</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>2.73262217465538</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>4.935992788799798</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.4148524812026824</v>
+      </c>
+      <c r="I25">
+        <v>3.07472701750651</v>
+      </c>
+      <c r="J25">
         <v>2.573829031402302</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>3.408857977934471</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>6.369272476420565</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>4.007881841167109</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N25" t="n">
-        <v>40.04787310690602</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>43.53812163642819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.590083674040194</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>12.13103467097264</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.01038019212577354</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.01109285538307152</v>
+      </c>
+      <c r="E26">
         <v>1.055128125134179</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>2.654547255379513</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>4.794964423405517</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.3376706242347414</v>
+      </c>
+      <c r="I26">
+        <v>2.502684781691345</v>
+      </c>
+      <c r="J26">
         <v>2.721750240103582</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>3.604769355976682</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>6.993710954501015</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>4.400811433438394</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N26" t="n">
-        <v>40.33870195225438</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>43.17977002143776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.498171322939605</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>11.4298187940378</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.01334596130456598</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.01426224263537767</v>
+      </c>
+      <c r="E27">
         <v>1.356593303743944</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3.240109149948522</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>5.852677163862617</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1350682496938966</v>
+      </c>
+      <c r="I27">
+        <v>1.001073912676538</v>
+      </c>
+      <c r="J27">
         <v>2.98800841576589</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>3.957409836452662</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>6.119497085188386</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>3.850710004258594</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.1942363882164658</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.8072578831228755</v>
       </c>
-      <c r="N27" t="n">
-        <v>41.30783530884193</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>42.44489375254317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.518596289850848</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>11.58564454446777</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.01228675802642583</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.0131303186166969</v>
+      </c>
+      <c r="E28">
         <v>1.248927168526171</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2.53743487646571</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>4.583421875314098</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.1350682496938966</v>
+      </c>
+      <c r="I28">
+        <v>1.001073912676538</v>
+      </c>
+      <c r="J28">
         <v>2.677373877493198</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>3.545995942564019</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>6.494160172036656</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>4.086467759621365</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.1202415736578121</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.4997310705046371</v>
       </c>
-      <c r="N28" t="n">
-        <v>38.9102819085287</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>40.04726763148941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.584977432312384</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>12.09207823336515</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.01313412064893795</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.01403585783164152</v>
+      </c>
+      <c r="E29">
         <v>1.33506007670039</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>2.147060280086371</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>3.878280048342699</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.1447159818148892</v>
+      </c>
+      <c r="I29">
+        <v>1.072579192153434</v>
+      </c>
+      <c r="J29">
         <v>2.677373877493198</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>3.545995942564019</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>5.245283215875761</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>3.300608575078795</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N29" t="n">
-        <v>36.2013734296446</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>37.41957034079562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.645231084700548</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>12.55176419713354</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.0114393954039137</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.01222477940175228</v>
+      </c>
+      <c r="E30">
         <v>1.162794260351952</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.795723143344964</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>3.243652404068439</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1640114460568745</v>
+      </c>
+      <c r="I30">
+        <v>1.215589751107225</v>
+      </c>
+      <c r="J30">
         <v>3.328227195778838</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>4.408006005949747</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>5.869721693956208</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>3.693538167350079</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.1109922218379805</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.4612902189273574</v>
       </c>
-      <c r="N30" t="n">
-        <v>38.28237998880357</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>39.66276656996551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.478767604373925</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>11.28178433112935</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.0114393954039137</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.01222477940175228</v>
+      </c>
+      <c r="E31">
         <v>1.162794260351952</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>2.381285037913974</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>4.301365144525539</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I31">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J31">
         <v>2.603413273142557</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>3.448040253542913</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>4.121293955330954</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>2.593335308990481</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.05549611091899024</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.2306451094636787</v>
       </c>
-      <c r="N31" t="n">
-        <v>33.66965978508823</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>35.13119937784806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.647273581391672</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>12.56734677217654</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.01016835147014551</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.01086647057933537</v>
+      </c>
+      <c r="E32">
         <v>1.033594898090624</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>3.591446286689928</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>6.487304808136877</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I32">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J32">
         <v>2.98800841576589</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>3.957409836452662</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>3.871518564098775</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>2.436163472081968</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.1294909254776438</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.5381719220819169</v>
       </c>
-      <c r="N32" t="n">
-        <v>39.25789783391463</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>40.71935016178581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.655443568156169</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>12.62967707234852</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.01059203278140157</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.01131924018680767</v>
+      </c>
+      <c r="E33">
         <v>1.076661352177733</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3.044921851758853</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>5.500106250376916</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.250841035145808</v>
+      </c>
+      <c r="I33">
+        <v>1.859137266399285</v>
+      </c>
+      <c r="J33">
         <v>2.766126602713967</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>3.663542769389346</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>4.870620129027492</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>3.064850819716023</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.1202415736578121</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.4997310705046371</v>
       </c>
-      <c r="N33" t="n">
-        <v>38.90251509260887</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>41.01322060155937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.976115548662668</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>15.07614135409894</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.009109148192005355</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.009734546560654599</v>
+      </c>
+      <c r="E34">
         <v>0.9259287628728509</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>2.654547255379513</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>4.794964423405517</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.5113298024126086</v>
+      </c>
+      <c r="I34">
+        <v>3.789779812275466</v>
+      </c>
+      <c r="J34">
         <v>2.307570855739994</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>3.056217497458491</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>2.747529303553971</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>1.728890205993654</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.09249351819831704</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.3844085157727978</v>
       </c>
-      <c r="N34" t="n">
-        <v>35.75391638932872</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>40.05565140238544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2.062921658035448</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>15.73840079342629</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.006990741635725039</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.007470698523293064</v>
+      </c>
+      <c r="E35">
         <v>0.7105964924373042</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>2.186097739724305</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>3.948794231039838</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.5692161951385643</v>
+      </c>
+      <c r="I35">
+        <v>4.218811489136838</v>
+      </c>
+      <c r="J35">
         <v>1.789846625285508</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>2.370527674310753</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>1.748427738625254</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>1.100202858359598</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.07399481455865362</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.3075268126182382</v>
       </c>
-      <c r="N35" t="n">
-        <v>32.04432818005692</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>36.83283582121989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.552297485254396</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>11.8427570326772</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.00571969770195685</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.006112389700876142</v>
+      </c>
+      <c r="E36">
         <v>0.5813971301759761</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>2.225135199362238</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>4.019308413736978</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.5981593915015421</v>
+      </c>
+      <c r="I36">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="J36">
         <v>1.109409065259612</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>1.469335335316583</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>1.623540043009164</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>1.021616939905341</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.04624675909915852</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.1922042578863989</v>
       </c>
-      <c r="N36" t="n">
-        <v>25.688967359385</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>30.72084677045299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1.440981415588128</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>10.99350669283391</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.005296016390700787</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.005659620093403836</v>
+      </c>
+      <c r="E37">
         <v>0.5383306760888666</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1.288236168051822</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>2.326968029005619</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.5885116593805495</v>
+      </c>
+      <c r="I37">
+        <v>4.361822048090629</v>
+      </c>
+      <c r="J37">
         <v>0.9614878565583309</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>1.273423957274371</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>2.123090825473523</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>1.335960613722369</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N37" t="n">
-        <v>22.38266265778186</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>27.33335996895574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1.145840643720679</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>8.741824599120942</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.003177609834420471</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.003395772056042301</v>
+      </c>
+      <c r="E38">
         <v>0.3229984056533201</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1.054011410224218</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1.903882932822779</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.4052047490816898</v>
+      </c>
+      <c r="I38">
+        <v>3.003221738029615</v>
+      </c>
+      <c r="J38">
         <v>0.621269076545383</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.8228277877772862</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>2.123090825473523</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>1.335960613722369</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N38" t="n">
-        <v>18.17026431168915</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>21.57890896102207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.8200624214863687</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>6.256403879763022</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.004448653768188661</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.004754080878459224</v>
+      </c>
+      <c r="E39">
         <v>0.452197767914648</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.5074869752931421</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.9166843750628197</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.1736591781778671</v>
+      </c>
+      <c r="I39">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="J39">
         <v>0.443763626103845</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.587734134126633</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>1.248876956160895</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>0.7858591845425702</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.02774805545949512</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.1153225547318393</v>
       </c>
-      <c r="N39" t="n">
-        <v>12.16658858441347</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>13.62764822028573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.4830504674508748</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3.685278997668631</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.005084175735072755</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.005433235289667683</v>
+      </c>
+      <c r="E40">
         <v>0.516797449045312</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.5465244349310762</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.9871985577599595</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.0771818569679409</v>
+      </c>
+      <c r="I40">
+        <v>0.5720422358151647</v>
+      </c>
+      <c r="J40">
         <v>0.355010900883076</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.4701873073013064</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>1.748427738625254</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>1.100202858359598</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>9.897762887760161</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>10.54733604009786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.3727556461301675</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2.843819945346829</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.005296016390700787</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.005659620093403836</v>
+      </c>
+      <c r="E41">
         <v>0.5383306760888666</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.19518729818967</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.3525709134856999</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.03859092848397045</v>
+      </c>
+      <c r="I41">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="J41">
         <v>0.2810502965324352</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.3722316182802009</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>2.123090825473523</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>1.335960613722369</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>8.420293849640462</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>8.745269499734716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.2420358578982184</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.846535142595064</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.005931538357584882</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.006338774504612298</v>
+      </c>
+      <c r="E42">
         <v>0.6029303572195307</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.3122996771034721</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.5641134615771197</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.04823866060496306</v>
+      </c>
+      <c r="I42">
+        <v>0.3575263973844779</v>
+      </c>
+      <c r="J42">
         <v>0.2958424174025633</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.391822756084422</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>1.873315434241343</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>1.178788776813855</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>7.313615419293173</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>7.719787713429642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1695272253633091</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1.293353728568695</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.006567060324468975</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.007017928915820759</v>
+      </c>
+      <c r="E43">
         <v>0.6675300383501948</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.5855618945690102</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>1.057712740457099</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.01929546424198523</v>
+      </c>
+      <c r="I43">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="J43">
         <v>0.2366739339220507</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.3134582048675376</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>1.248876956160895</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>0.7858591845425702</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43">
         <v>0.009249351819831702</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43">
         <v>0.03844085157727977</v>
       </c>
-      <c r="N43" t="n">
-        <v>6.412811170522943</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>6.575568062310071</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.1879096955834269</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.433596903955662</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.006567060324468975</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.007017928915820759</v>
+      </c>
+      <c r="E44">
         <v>0.6675300383501948</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.3903745963793401</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.7051418269713997</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.03859092848397045</v>
+      </c>
+      <c r="I44">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="J44">
         <v>0.3254266591428197</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.4310050316928641</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.7493261736965373</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>0.4715155107255419</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>5.368393496822256</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>5.69345641180516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.2532695896994015</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.932239305331545</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.002118406556280315</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.002263848037361535</v>
+      </c>
+      <c r="E45">
         <v>0.2153322704355467</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.7417117331207461</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1.339769471245659</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.05788639272595567</v>
+      </c>
+      <c r="I45">
+        <v>0.4290316768613734</v>
+      </c>
+      <c r="J45">
         <v>0.5473084721947422</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>0.7248720987561807</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>1.623540043009164</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>1.021616939905341</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.03699740727932681</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.1537634063091191</v>
       </c>
-      <c r="N45" t="n">
-        <v>8.592539143843053</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>9.079602654911463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.5882390470437715</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.487781612382941</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.001694725245024251</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.001811078429889228</v>
+      </c>
+      <c r="E46">
         <v>0.1722658163484374</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1.17112378913802</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>2.115425480914199</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.2894319636297784</v>
+      </c>
+      <c r="I46">
+        <v>2.145158384306868</v>
+      </c>
+      <c r="J46">
         <v>1.686301779194611</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>2.233389709681205</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>5.495058607107941</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>3.457780411987307</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.0184987036396634</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.07688170315455954</v>
       </c>
-      <c r="N46" t="n">
-        <v>21.50444138583768</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>23.93914808695919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.118266938390503</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>8.531459836040488</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.003601291145676535</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.003848541663514609</v>
+      </c>
+      <c r="E47">
         <v>0.3660648597404293</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1.990910441534634</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>3.596223317554138</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.8393526945263573</v>
+      </c>
+      <c r="I47">
+        <v>6.220959314489916</v>
+      </c>
+      <c r="J47">
         <v>2.485076306181532</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>3.291311151109145</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>7.74303712819755</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>4.872326944163936</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.1017428700181487</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.4228493673500776</v>
       </c>
-      <c r="N47" t="n">
-        <v>34.52287045142626</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>41.58342971096037</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.608466144260311</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>12.27127784635961</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.005507857046328817</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.00588600489713999</v>
+      </c>
+      <c r="E48">
         <v>0.5598639031324217</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>2.108022820448436</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>3.807765865645559</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.9165345514942983</v>
+      </c>
+      <c r="I48">
+        <v>6.793001550305076</v>
+      </c>
+      <c r="J48">
         <v>2.618205394012687</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>3.467631391347135</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>9.86612795367108</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>6.208287557886305</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.157238980937139</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.6534944768137562</v>
       </c>
-      <c r="N48" t="n">
-        <v>43.33189019156077</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>51.04180444121096</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.749398415947882</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>13.34647552432635</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.009532829503261415</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.01018731616812691</v>
+      </c>
+      <c r="E49">
         <v>0.9689952169599602</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>2.654547255379513</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>4.794964423405517</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.4341479454446677</v>
+      </c>
+      <c r="I49">
+        <v>3.217737576460301</v>
+      </c>
+      <c r="J49">
         <v>2.677373877493198</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>3.545995942564019</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>6.743935563268835</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>4.243639596529877</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.06474546273882192</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.2690859610409584</v>
       </c>
-      <c r="N49" t="n">
-        <v>41.06869006915819</v>
+      <c r="P49">
+        <v>44.72123007772802</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.542085001798776</v>
+        <v>2.235352780868313</v>
       </c>
       <c r="C2">
-        <v>11.76484415746223</v>
+        <v>17.05390887868655</v>
       </c>
       <c r="D2">
-        <v>0.01154562499054383</v>
+        <v>0.01673613639933614</v>
       </c>
       <c r="E2">
-        <v>1.098194579221288</v>
+        <v>1.591904663966859</v>
       </c>
       <c r="F2">
-        <v>2.73262217465538</v>
+        <v>3.961114056652625</v>
       </c>
       <c r="G2">
-        <v>4.935992788799798</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="H2">
-        <v>0.3280228921137489</v>
+        <v>0.4754905749161908</v>
       </c>
       <c r="I2">
-        <v>2.43117950221445</v>
+        <v>3.524153243644772</v>
       </c>
       <c r="J2">
-        <v>2.618205394012687</v>
+        <v>3.795259471147085</v>
       </c>
       <c r="K2">
-        <v>3.467631391347135</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="L2">
-        <v>6.619047867652748</v>
+        <v>9.594741561197504</v>
       </c>
       <c r="M2">
-        <v>4.165053678075622</v>
+        <v>6.037516940306141</v>
       </c>
       <c r="N2">
-        <v>0.08324416637848531</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O2">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P2">
-        <v>42.14363688291841</v>
+        <v>61.08995015984781</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.453236395734872</v>
+        <v>2.106560931904376</v>
       </c>
       <c r="C3">
-        <v>11.08700214309188</v>
+        <v>16.07133267176885</v>
       </c>
       <c r="D3">
-        <v>0.01471501224284997</v>
+        <v>0.02133036992072253</v>
       </c>
       <c r="E3">
-        <v>1.399659757831053</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="F3">
-        <v>3.357221528862325</v>
+        <v>4.866511555316083</v>
       </c>
       <c r="G3">
-        <v>6.064219711954037</v>
+        <v>8.790481965067285</v>
       </c>
       <c r="H3">
-        <v>0.125420517572904</v>
+        <v>0.1818052198208965</v>
       </c>
       <c r="I3">
-        <v>0.9295686331996423</v>
+        <v>1.347470357864177</v>
       </c>
       <c r="J3">
-        <v>2.884463569674993</v>
+        <v>4.18121806143323</v>
       </c>
       <c r="K3">
-        <v>3.820271871823114</v>
+        <v>5.537733226373159</v>
       </c>
       <c r="L3">
-        <v>5.869721693956208</v>
+        <v>8.508544403326086</v>
       </c>
       <c r="M3">
-        <v>3.693538167350079</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="N3">
-        <v>0.2127350918561292</v>
+        <v>0.308373389673189</v>
       </c>
       <c r="O3">
-        <v>0.8841395862774349</v>
+        <v>1.281617991586508</v>
       </c>
       <c r="P3">
-        <v>41.79591368142752</v>
+        <v>60.58590270168669</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.358260299597597</v>
+        <v>1.968886886460169</v>
       </c>
       <c r="C4">
-        <v>10.36241240359256</v>
+        <v>15.02099258851199</v>
       </c>
       <c r="D4">
-        <v>0.01154562499054383</v>
+        <v>0.01673613639933614</v>
       </c>
       <c r="E4">
-        <v>1.098194579221288</v>
+        <v>1.591904663966859</v>
       </c>
       <c r="F4">
-        <v>1.678610764431163</v>
+        <v>2.433255777658041</v>
       </c>
       <c r="G4">
-        <v>3.032109855977018</v>
+        <v>4.395240982533642</v>
       </c>
       <c r="H4">
-        <v>0.1157727854519113</v>
+        <v>0.1678202029115967</v>
       </c>
       <c r="I4">
-        <v>0.8580633537227469</v>
+        <v>1.243818791874626</v>
       </c>
       <c r="J4">
-        <v>2.292778734869866</v>
+        <v>3.323532305241798</v>
       </c>
       <c r="K4">
-        <v>3.036626359654271</v>
+        <v>4.401787949168408</v>
       </c>
       <c r="L4">
-        <v>5.619946302724028</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M4">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N4">
-        <v>0.1849870363966341</v>
+        <v>0.26815077362886</v>
       </c>
       <c r="O4">
-        <v>0.7688170315455957</v>
+        <v>1.114450427466528</v>
       </c>
       <c r="P4">
-        <v>33.95449146261679</v>
+        <v>49.21924979841929</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.575786197202326</v>
+        <v>2.284204861509805</v>
       </c>
       <c r="C5">
-        <v>12.02195664567166</v>
+        <v>17.42661019855188</v>
       </c>
       <c r="D5">
-        <v>0.01245116420548844</v>
+        <v>0.01804877454830368</v>
       </c>
       <c r="E5">
-        <v>1.184327487395507</v>
+        <v>1.716759931728966</v>
       </c>
       <c r="F5">
-        <v>2.264172659000172</v>
+        <v>3.282065932655033</v>
       </c>
       <c r="G5">
-        <v>4.089822596434118</v>
+        <v>5.928464581091893</v>
       </c>
       <c r="H5">
-        <v>0.2026023745408449</v>
+        <v>0.2936853550952944</v>
       </c>
       <c r="I5">
-        <v>1.501610869014807</v>
+        <v>2.176682885780594</v>
       </c>
       <c r="J5">
-        <v>2.766126602713967</v>
+        <v>4.009680910194943</v>
       </c>
       <c r="K5">
-        <v>3.663542769389346</v>
+        <v>5.310544170932208</v>
       </c>
       <c r="L5">
-        <v>4.620844737795315</v>
+        <v>6.698215806873732</v>
       </c>
       <c r="M5">
-        <v>2.90767898280751</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="N5">
-        <v>0.157238980937139</v>
+        <v>0.2279281575845311</v>
       </c>
       <c r="O5">
-        <v>0.6534944768137562</v>
+        <v>0.9472828633465497</v>
       </c>
       <c r="P5">
-        <v>37.62165654392196</v>
+        <v>54.53504474671124</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.465491375881618</v>
+        <v>2.12432532486492</v>
       </c>
       <c r="C6">
-        <v>11.18049759334986</v>
+        <v>16.20686042444715</v>
       </c>
       <c r="D6">
-        <v>0.01290393381296075</v>
+        <v>0.01870509362278745</v>
       </c>
       <c r="E6">
-        <v>1.227393941482616</v>
+        <v>1.779187565610019</v>
       </c>
       <c r="F6">
-        <v>2.771659634293314</v>
+        <v>4.017701400319091</v>
       </c>
       <c r="G6">
-        <v>5.006506971496937</v>
+        <v>7.257258366509039</v>
       </c>
       <c r="H6">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I6">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J6">
-        <v>2.958424174025634</v>
+        <v>4.288428780957158</v>
       </c>
       <c r="K6">
-        <v>3.91822756084422</v>
+        <v>5.679726386023754</v>
       </c>
       <c r="L6">
-        <v>4.745732433411405</v>
+        <v>6.879248666518966</v>
       </c>
       <c r="M6">
-        <v>2.986264901261766</v>
+        <v>4.328785730785537</v>
       </c>
       <c r="N6">
-        <v>0.1387402772974756</v>
+        <v>0.201113080221645</v>
       </c>
       <c r="O6">
-        <v>0.5766127736591966</v>
+        <v>0.8358378205998964</v>
       </c>
       <c r="P6">
-        <v>38.449209779579</v>
+        <v>55.73463713265931</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.571701203820076</v>
+        <v>2.278283397189624</v>
       </c>
       <c r="C7">
-        <v>11.99079149558567</v>
+        <v>17.38143428099244</v>
       </c>
       <c r="D7">
-        <v>0.01335670342043305</v>
+        <v>0.01936141269727122</v>
       </c>
       <c r="E7">
-        <v>1.270460395569725</v>
+        <v>1.841615199491072</v>
       </c>
       <c r="F7">
-        <v>3.201071690310586</v>
+        <v>4.64016218065022</v>
       </c>
       <c r="G7">
-        <v>5.782162981165476</v>
+        <v>8.381622338785089</v>
       </c>
       <c r="H7">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I7">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J7">
-        <v>3.106345382726915</v>
+        <v>4.502850220005015</v>
       </c>
       <c r="K7">
-        <v>4.11413893888643</v>
+        <v>5.963712705324939</v>
       </c>
       <c r="L7">
-        <v>4.495957042179222</v>
+        <v>6.517182947228493</v>
       </c>
       <c r="M7">
-        <v>2.829093064353252</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="N7">
-        <v>0.1202415736578121</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O7">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P7">
-        <v>40.45580575094223</v>
+        <v>58.64332885810496</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.606423647569188</v>
+        <v>2.328615843911161</v>
       </c>
       <c r="C8">
-        <v>12.25569527131661</v>
+        <v>17.76542958024764</v>
       </c>
       <c r="D8">
-        <v>0.01222477940175228</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E8">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F8">
-        <v>3.122996771034721</v>
+        <v>4.526987493317286</v>
       </c>
       <c r="G8">
-        <v>5.641134615771198</v>
+        <v>8.177192525643989</v>
       </c>
       <c r="H8">
-        <v>0.1929546424198522</v>
+        <v>0.2797003381859947</v>
       </c>
       <c r="I8">
-        <v>1.430105589537912</v>
+        <v>2.073031319791043</v>
       </c>
       <c r="J8">
-        <v>2.899255690545121</v>
+        <v>4.202660205338014</v>
       </c>
       <c r="K8">
-        <v>3.839863009627335</v>
+        <v>5.566131858303279</v>
       </c>
       <c r="L8">
-        <v>3.871518564098775</v>
+        <v>5.612018649002314</v>
       </c>
       <c r="M8">
-        <v>2.436163472081968</v>
+        <v>3.531377833009253</v>
       </c>
       <c r="N8">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O8">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P8">
-        <v>38.80496173753616</v>
+        <v>56.25032279693286</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.79637583984374</v>
+        <v>2.603963934799578</v>
       </c>
       <c r="C9">
-        <v>13.70487475031527</v>
+        <v>19.86610974676135</v>
       </c>
       <c r="D9">
-        <v>0.01131924018680767</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E9">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F9">
-        <v>2.73262217465538</v>
+        <v>3.961114056652625</v>
       </c>
       <c r="G9">
-        <v>4.935992788799798</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="H9">
-        <v>0.3087274278717636</v>
+        <v>0.4475205410975914</v>
       </c>
       <c r="I9">
-        <v>2.288168943260659</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="J9">
-        <v>2.573829031402302</v>
+        <v>3.730933039432727</v>
       </c>
       <c r="K9">
-        <v>3.408857977934471</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="L9">
-        <v>4.121293955330954</v>
+        <v>5.974084368292788</v>
       </c>
       <c r="M9">
-        <v>2.593335308990481</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="N9">
-        <v>0.1017428700181487</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O9">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P9">
-        <v>40.07665102813759</v>
+        <v>58.09371935991769</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.950584340023617</v>
+        <v>2.827499212886408</v>
       </c>
       <c r="C10">
-        <v>14.8813591660615</v>
+        <v>21.57150063463001</v>
       </c>
       <c r="D10">
-        <v>0.01380947302790536</v>
+        <v>0.02001773177175499</v>
       </c>
       <c r="E10">
-        <v>1.313526849656835</v>
+        <v>1.904042833372125</v>
       </c>
       <c r="F10">
-        <v>2.498397416827777</v>
+        <v>3.62158999465383</v>
       </c>
       <c r="G10">
-        <v>4.512907692616958</v>
+        <v>6.541754020515191</v>
       </c>
       <c r="H10">
-        <v>0.5788639272595568</v>
+        <v>0.8391010145579838</v>
       </c>
       <c r="I10">
-        <v>4.290316768613736</v>
+        <v>6.219093959373126</v>
       </c>
       <c r="J10">
-        <v>2.470284185311404</v>
+        <v>3.580838032099227</v>
       </c>
       <c r="K10">
-        <v>3.271720013304924</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="L10">
-        <v>3.12219239040224</v>
+        <v>4.525821491130899</v>
       </c>
       <c r="M10">
-        <v>1.964647961356425</v>
+        <v>2.84788534920101</v>
       </c>
       <c r="N10">
-        <v>0.05549611091899024</v>
+        <v>0.08044523208865802</v>
       </c>
       <c r="O10">
-        <v>0.2306451094636787</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="P10">
-        <v>41.15475140484555</v>
+        <v>59.65649616685</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.073134141491069</v>
+        <v>3.005143142491836</v>
       </c>
       <c r="C11">
-        <v>15.81631366864127</v>
+        <v>22.92677816141303</v>
       </c>
       <c r="D11">
-        <v>0.008602622541973833</v>
+        <v>0.01247006241519163</v>
       </c>
       <c r="E11">
-        <v>0.8182626276550774</v>
+        <v>1.186125043740012</v>
       </c>
       <c r="F11">
-        <v>2.147060280086371</v>
+        <v>3.112303901655634</v>
       </c>
       <c r="G11">
-        <v>3.878280048342699</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="H11">
-        <v>0.6174548557435272</v>
+        <v>0.8950410821951829</v>
       </c>
       <c r="I11">
-        <v>4.576337886521317</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="J11">
-        <v>1.375667240921919</v>
+        <v>1.994119383145079</v>
       </c>
       <c r="K11">
-        <v>1.821975815792562</v>
+        <v>2.641072769501045</v>
       </c>
       <c r="L11">
-        <v>0.6244384780804476</v>
+        <v>0.9051642982261795</v>
       </c>
       <c r="M11">
-        <v>0.3929295922712851</v>
+        <v>0.5695770698402021</v>
       </c>
       <c r="N11">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O11">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P11">
-        <v>34.4842886818693</v>
+        <v>49.98722541971836</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.510426303086351</v>
+        <v>2.18946143238691</v>
       </c>
       <c r="C12">
-        <v>11.52331424429579</v>
+        <v>16.70379551760093</v>
       </c>
       <c r="D12">
-        <v>0.007244313719556911</v>
+        <v>0.01050110519174033</v>
       </c>
       <c r="E12">
-        <v>0.6890632653937495</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="F12">
-        <v>2.186097739724305</v>
+        <v>3.1688912453221</v>
       </c>
       <c r="G12">
-        <v>3.948794231039838</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="H12">
-        <v>0.376261552718712</v>
+        <v>0.5454156594626892</v>
       </c>
       <c r="I12">
-        <v>2.788705899598928</v>
+        <v>4.042411073592534</v>
       </c>
       <c r="J12">
-        <v>1.227746032220638</v>
+        <v>1.77969794409722</v>
       </c>
       <c r="K12">
-        <v>1.626064437750351</v>
+        <v>2.357086450199857</v>
       </c>
       <c r="L12">
-        <v>1.373764651776985</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M12">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="N12">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O12">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P12">
-        <v>28.21730818111624</v>
+        <v>40.9028284677572</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.317410365775113</v>
+        <v>1.90967224325836</v>
       </c>
       <c r="C13">
-        <v>10.05076090273263</v>
+        <v>14.56923341291765</v>
       </c>
       <c r="D13">
-        <v>0.004980465682195376</v>
+        <v>0.007219509819321472</v>
       </c>
       <c r="E13">
-        <v>0.4737309949582028</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="F13">
-        <v>1.288236168051822</v>
+        <v>1.867382340993381</v>
       </c>
       <c r="G13">
-        <v>2.326968029005619</v>
+        <v>3.373091916828145</v>
       </c>
       <c r="H13">
-        <v>0.5016820702916159</v>
+        <v>0.7272208792835858</v>
       </c>
       <c r="I13">
-        <v>3.718274532798569</v>
+        <v>5.389881431456709</v>
       </c>
       <c r="J13">
-        <v>0.7691902852466648</v>
+        <v>1.114991483048861</v>
       </c>
       <c r="K13">
-        <v>1.018739165819497</v>
+        <v>1.476728860366175</v>
       </c>
       <c r="L13">
-        <v>2.247978521089611</v>
+        <v>3.258591473614247</v>
       </c>
       <c r="M13">
-        <v>1.414546532176626</v>
+        <v>2.050477451424727</v>
       </c>
       <c r="N13">
-        <v>0.04624675909915852</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O13">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P13">
-        <v>25.37094905061373</v>
+        <v>36.77684527597658</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.043715809164469</v>
+        <v>1.512934133806235</v>
       </c>
       <c r="C14">
-        <v>7.962695846971123</v>
+        <v>11.54244693643554</v>
       </c>
       <c r="D14">
-        <v>0.004301311270986916</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E14">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F14">
-        <v>1.327273627689757</v>
+        <v>1.923969684659847</v>
       </c>
       <c r="G14">
-        <v>2.397482211702759</v>
+        <v>3.475306823398695</v>
       </c>
       <c r="H14">
-        <v>0.3183751599927564</v>
+        <v>0.4615055580068911</v>
       </c>
       <c r="I14">
-        <v>2.359674222737553</v>
+        <v>3.42050167765522</v>
       </c>
       <c r="J14">
-        <v>0.5177242304544861</v>
+        <v>0.7504750366675026</v>
       </c>
       <c r="K14">
-        <v>0.6856898231477385</v>
+        <v>0.9939521175541566</v>
       </c>
       <c r="L14">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M14">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N14">
-        <v>0.04624675909915852</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O14">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P14">
-        <v>20.11314517092958</v>
+        <v>29.1553156521214</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,43 +1130,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.7373413054958383</v>
+        <v>1.068824309792663</v>
       </c>
       <c r="C15">
-        <v>5.625309590521673</v>
+        <v>8.154253119477943</v>
       </c>
       <c r="D15">
-        <v>0.006112389700876142</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E15">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F15">
-        <v>0.8588241120345483</v>
+        <v>1.244921560662254</v>
       </c>
       <c r="G15">
-        <v>1.55131201933708</v>
+        <v>2.248727944552097</v>
       </c>
       <c r="H15">
-        <v>0.1833069102988596</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I15">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J15">
-        <v>0.443763626103845</v>
+        <v>0.6432643171435738</v>
       </c>
       <c r="K15">
-        <v>0.587734134126633</v>
+        <v>0.8519589579035627</v>
       </c>
       <c r="L15">
-        <v>1.498652347393075</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M15">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="P15">
-        <v>14.3753848967005</v>
+        <v>20.83805793286934</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,43 +1174,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.4534342654295735</v>
+        <v>0.6572825395400864</v>
       </c>
       <c r="C16">
-        <v>3.459331659545184</v>
+        <v>5.014526849097238</v>
       </c>
       <c r="D16">
-        <v>0.004980465682195376</v>
+        <v>0.007219509819321472</v>
       </c>
       <c r="E16">
-        <v>0.4737309949582028</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="F16">
-        <v>0.5855618945690102</v>
+        <v>0.8488101549969913</v>
       </c>
       <c r="G16">
-        <v>1.057712740457099</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="H16">
-        <v>0.09647732120992612</v>
+        <v>0.1398501690929973</v>
       </c>
       <c r="I16">
-        <v>0.7150527947689559</v>
+        <v>1.036515659895521</v>
       </c>
       <c r="J16">
-        <v>0.3402187800129478</v>
+        <v>0.4931693098100731</v>
       </c>
       <c r="K16">
-        <v>0.4505961694970853</v>
+        <v>0.6531685343927315</v>
       </c>
       <c r="L16">
-        <v>1.373764651776985</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M16">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="P16">
-        <v>9.875306840903994</v>
+        <v>14.31490130764083</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,43 +1218,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.3523306792189256</v>
+        <v>0.5107262976156076</v>
       </c>
       <c r="C17">
-        <v>2.687994194916866</v>
+        <v>3.896422889501232</v>
       </c>
       <c r="D17">
-        <v>0.007017928915820759</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E17">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F17">
-        <v>0.19518729818967</v>
+        <v>0.2829367183323304</v>
       </c>
       <c r="G17">
-        <v>0.3525709134856999</v>
+        <v>0.5110745328527493</v>
       </c>
       <c r="H17">
-        <v>0.01929546424198523</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I17">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J17">
-        <v>0.1922975713116662</v>
+        <v>0.2787478707622152</v>
       </c>
       <c r="K17">
-        <v>0.2546847914548743</v>
+        <v>0.3691822150915439</v>
       </c>
       <c r="L17">
-        <v>1.623540043009164</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M17">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="P17">
-        <v>7.517076421953999</v>
+        <v>10.8964925177368</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,43 +1262,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.2297808777514732</v>
+        <v>0.333082368010179</v>
       </c>
       <c r="C18">
-        <v>1.753039692337087</v>
+        <v>2.541145362718194</v>
       </c>
       <c r="D18">
-        <v>0.006338774504612298</v>
+        <v>0.009188467042772781</v>
       </c>
       <c r="E18">
-        <v>0.6029303572195307</v>
+        <v>0.8739868743347459</v>
       </c>
       <c r="F18">
-        <v>0.351337136741406</v>
+        <v>0.5092860929981945</v>
       </c>
       <c r="G18">
-        <v>0.63462764427426</v>
+        <v>0.9199341591349488</v>
       </c>
       <c r="H18">
-        <v>0.03859092848397045</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I18">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J18">
-        <v>0.355010900883076</v>
+        <v>0.5146114537148591</v>
       </c>
       <c r="K18">
-        <v>0.4701873073013064</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="L18">
-        <v>0.9991015649287165</v>
+        <v>1.448262877161888</v>
       </c>
       <c r="M18">
-        <v>0.6286873476340559</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="P18">
-        <v>6.355653649967077</v>
+        <v>9.212934464778364</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1368472783053218</v>
+        <v>0.1983690547260621</v>
       </c>
       <c r="C19">
-        <v>1.044032527880754</v>
+        <v>1.513393238241058</v>
       </c>
       <c r="D19">
-        <v>0.005659620093403836</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E19">
-        <v>0.5383306760888666</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="F19">
-        <v>0.4684495156552081</v>
+        <v>0.679048123997593</v>
       </c>
       <c r="G19">
-        <v>0.8461701923656797</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="H19">
-        <v>0.009647732120992613</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I19">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J19">
-        <v>0.1627133295714098</v>
+        <v>0.2358635829526437</v>
       </c>
       <c r="K19">
-        <v>0.2155025158464321</v>
+        <v>0.3123849512313064</v>
       </c>
       <c r="L19">
-        <v>2.123090825473523</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M19">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N19">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O19">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P19">
-        <v>7.005600309997968</v>
+        <v>10.15507453631879</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1654422319810607</v>
+        <v>0.2398193049673288</v>
       </c>
       <c r="C20">
-        <v>1.262188578482702</v>
+        <v>1.829624661157101</v>
       </c>
       <c r="D20">
-        <v>0.004301311270986916</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E20">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F20">
-        <v>0.5855618945690102</v>
+        <v>0.8488101549969913</v>
       </c>
       <c r="G20">
-        <v>1.057712740457099</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="H20">
-        <v>0.02894319636297784</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I20">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J20">
-        <v>0.3254266591428197</v>
+        <v>0.4717271659052875</v>
       </c>
       <c r="K20">
-        <v>0.4310050316928641</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="L20">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M20">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N20">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O20">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P20">
-        <v>7.38054959659971</v>
+        <v>10.69858798046236</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,43 +1406,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2839070400662647</v>
+        <v>0.4115417702525767</v>
       </c>
       <c r="C21">
-        <v>2.165977930976489</v>
+        <v>3.139726270380701</v>
       </c>
       <c r="D21">
-        <v>0.002037463233625381</v>
+        <v>0.002953435835176966</v>
       </c>
       <c r="E21">
-        <v>0.1937990433919921</v>
+        <v>0.2809243524647397</v>
       </c>
       <c r="F21">
-        <v>0.8197866523966139</v>
+        <v>1.188334216995787</v>
       </c>
       <c r="G21">
-        <v>1.480797836639939</v>
+        <v>2.146513037981547</v>
       </c>
       <c r="H21">
-        <v>0.0675341248469483</v>
+        <v>0.09789511836509812</v>
       </c>
       <c r="I21">
-        <v>0.500536956338269</v>
+        <v>0.7255609619268649</v>
       </c>
       <c r="J21">
-        <v>0.5768927139349985</v>
+        <v>0.8362436122866457</v>
       </c>
       <c r="K21">
-        <v>0.7640543743646229</v>
+        <v>1.107546645274632</v>
       </c>
       <c r="L21">
-        <v>2.87241699917006</v>
+        <v>4.163755771840424</v>
       </c>
       <c r="M21">
-        <v>1.807476124447911</v>
+        <v>2.620054521264929</v>
       </c>
       <c r="P21">
-        <v>11.53521725980773</v>
+        <v>16.72104971486912</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.5708778251692156</v>
+        <v>0.8275246387452894</v>
       </c>
       <c r="C22">
-        <v>4.355329724517474</v>
+        <v>6.313334478930984</v>
       </c>
       <c r="D22">
-        <v>0.001811078429889228</v>
+        <v>0.002625276297935081</v>
       </c>
       <c r="E22">
-        <v>0.1722658163484374</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="F22">
-        <v>1.210161248775954</v>
+        <v>1.754207653660449</v>
       </c>
       <c r="G22">
-        <v>2.18593966361134</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="H22">
-        <v>0.2797842315087858</v>
+        <v>0.405565490369692</v>
       </c>
       <c r="I22">
-        <v>2.073653104829972</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="J22">
-        <v>1.627133295714098</v>
+        <v>2.358635829526437</v>
       </c>
       <c r="K22">
-        <v>2.155025158464321</v>
+        <v>3.123849512313063</v>
       </c>
       <c r="L22">
-        <v>5.245283215875761</v>
+        <v>7.603380105099912</v>
       </c>
       <c r="M22">
-        <v>3.300608575078795</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="N22">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O22">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P22">
-        <v>23.27325334511826</v>
+        <v>33.73609854461927</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.084565742986953</v>
+        <v>1.572148777008044</v>
       </c>
       <c r="C23">
-        <v>8.274347347831052</v>
+        <v>11.99420611202987</v>
       </c>
       <c r="D23">
-        <v>0.004074926467250763</v>
+        <v>0.005906871670353931</v>
       </c>
       <c r="E23">
-        <v>0.3875980867839841</v>
+        <v>0.5618487049294794</v>
       </c>
       <c r="F23">
-        <v>2.068985360810502</v>
+        <v>2.999129214322702</v>
       </c>
       <c r="G23">
-        <v>3.737251682948418</v>
+        <v>5.417390048239142</v>
       </c>
       <c r="H23">
-        <v>0.8104094981633796</v>
+        <v>1.174741420381177</v>
       </c>
       <c r="I23">
-        <v>6.006443476059229</v>
+        <v>8.706731543122377</v>
       </c>
       <c r="J23">
-        <v>2.396323580960763</v>
+        <v>3.473627312575298</v>
       </c>
       <c r="K23">
-        <v>3.173764324283818</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="L23">
-        <v>7.368374041349286</v>
+        <v>10.68093871906891</v>
       </c>
       <c r="M23">
-        <v>4.636569188801166</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="N23">
-        <v>0.1109922218379805</v>
+        <v>0.160890464177316</v>
       </c>
       <c r="O23">
-        <v>0.4612902189273574</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="P23">
-        <v>40.52098969821115</v>
+        <v>58.73781724079821</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.560467472018894</v>
+        <v>2.261999370309127</v>
       </c>
       <c r="C24">
-        <v>11.90508733284919</v>
+        <v>17.257200507704</v>
       </c>
       <c r="D24">
-        <v>0.006112389700876142</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E24">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F24">
-        <v>2.186097739724305</v>
+        <v>3.1688912453221</v>
       </c>
       <c r="G24">
-        <v>3.948794231039838</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="H24">
-        <v>0.8779436230103281</v>
+        <v>1.272636538746275</v>
       </c>
       <c r="I24">
-        <v>6.5069804323975</v>
+        <v>9.432292505049245</v>
       </c>
       <c r="J24">
-        <v>2.529452668791917</v>
+        <v>3.66660660771837</v>
       </c>
       <c r="K24">
-        <v>3.350084564521809</v>
+        <v>4.856166060050308</v>
       </c>
       <c r="L24">
-        <v>9.366577171206714</v>
+        <v>13.5774644733927</v>
       </c>
       <c r="M24">
-        <v>5.893943884069277</v>
+        <v>8.543656047603029</v>
       </c>
       <c r="N24">
-        <v>0.1664883327569706</v>
+        <v>0.241335696265974</v>
       </c>
       <c r="O24">
-        <v>0.691935328391036</v>
+        <v>1.003005384719876</v>
       </c>
       <c r="P24">
-        <v>49.57136230065462</v>
+        <v>71.85692256973154</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.696293501978654</v>
+        <v>2.458888058955142</v>
       </c>
       <c r="C25">
-        <v>12.94132857320845</v>
+        <v>18.75929976655521</v>
       </c>
       <c r="D25">
-        <v>0.01041370097186306</v>
+        <v>0.01509533871312671</v>
       </c>
       <c r="E25">
-        <v>0.9905284440035148</v>
+        <v>1.435835579264226</v>
       </c>
       <c r="F25">
-        <v>2.73262217465538</v>
+        <v>3.961114056652625</v>
       </c>
       <c r="G25">
-        <v>4.935992788799798</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="H25">
-        <v>0.4148524812026824</v>
+        <v>0.6013557270998884</v>
       </c>
       <c r="I25">
-        <v>3.07472701750651</v>
+        <v>4.457017337550742</v>
       </c>
       <c r="J25">
-        <v>2.573829031402302</v>
+        <v>3.730933039432727</v>
       </c>
       <c r="K25">
-        <v>3.408857977934471</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="L25">
-        <v>6.369272476420565</v>
+        <v>9.232675841907028</v>
       </c>
       <c r="M25">
-        <v>4.007881841167109</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="N25">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O25">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P25">
-        <v>43.53812163642819</v>
+        <v>63.11134675471808</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.590083674040194</v>
+        <v>2.304929986630438</v>
       </c>
       <c r="C26">
-        <v>12.13103467097264</v>
+        <v>17.58472591000991</v>
       </c>
       <c r="D26">
-        <v>0.01109285538307152</v>
+        <v>0.01607981732485237</v>
       </c>
       <c r="E26">
-        <v>1.055128125134179</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="F26">
-        <v>2.654547255379513</v>
+        <v>3.847939369319693</v>
       </c>
       <c r="G26">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H26">
-        <v>0.3376706242347414</v>
+        <v>0.4894755918254906</v>
       </c>
       <c r="I26">
-        <v>2.502684781691345</v>
+        <v>3.627804809634324</v>
       </c>
       <c r="J26">
-        <v>2.721750240103582</v>
+        <v>3.945354478480585</v>
       </c>
       <c r="K26">
-        <v>3.604769355976682</v>
+        <v>5.225348275141852</v>
       </c>
       <c r="L26">
-        <v>6.993710954501015</v>
+        <v>10.13784014013321</v>
       </c>
       <c r="M26">
-        <v>4.400811433438394</v>
+        <v>6.379263182210263</v>
       </c>
       <c r="N26">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O26">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P26">
-        <v>43.17977002143776</v>
+        <v>62.59189271803197</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.498171322939605</v>
+        <v>2.171697039426367</v>
       </c>
       <c r="C27">
-        <v>11.4298187940378</v>
+        <v>16.56826776492263</v>
       </c>
       <c r="D27">
-        <v>0.01426224263537767</v>
+        <v>0.02067405084623876</v>
       </c>
       <c r="E27">
-        <v>1.356593303743944</v>
+        <v>1.966470467253179</v>
       </c>
       <c r="F27">
-        <v>3.240109149948522</v>
+        <v>4.696749524316685</v>
       </c>
       <c r="G27">
-        <v>5.852677163862617</v>
+        <v>8.483837245355639</v>
       </c>
       <c r="H27">
-        <v>0.1350682496938966</v>
+        <v>0.1957902367301962</v>
       </c>
       <c r="I27">
-        <v>1.001073912676538</v>
+        <v>1.45112192385373</v>
       </c>
       <c r="J27">
-        <v>2.98800841576589</v>
+        <v>4.331313068766729</v>
       </c>
       <c r="K27">
-        <v>3.957409836452662</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="L27">
-        <v>6.119497085188386</v>
+        <v>8.870610122616561</v>
       </c>
       <c r="M27">
-        <v>3.850710004258594</v>
+        <v>5.581855284433979</v>
       </c>
       <c r="N27">
-        <v>0.1942363882164658</v>
+        <v>0.281558312310303</v>
       </c>
       <c r="O27">
-        <v>0.8072578831228755</v>
+        <v>1.170172948839855</v>
       </c>
       <c r="P27">
-        <v>42.44489375254317</v>
+        <v>61.52664163955607</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.518596289850848</v>
+        <v>2.201304361027272</v>
       </c>
       <c r="C28">
-        <v>11.58564454446777</v>
+        <v>16.7941473527198</v>
       </c>
       <c r="D28">
-        <v>0.0131303186166969</v>
+        <v>0.01903325316002933</v>
       </c>
       <c r="E28">
-        <v>1.248927168526171</v>
+        <v>1.810401382550545</v>
       </c>
       <c r="F28">
-        <v>2.53743487646571</v>
+        <v>3.678177338320296</v>
       </c>
       <c r="G28">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H28">
-        <v>0.1350682496938966</v>
+        <v>0.1957902367301962</v>
       </c>
       <c r="I28">
-        <v>1.001073912676538</v>
+        <v>1.45112192385373</v>
       </c>
       <c r="J28">
-        <v>2.677373877493198</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K28">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L28">
-        <v>6.494160172036656</v>
+        <v>9.41370870155227</v>
       </c>
       <c r="M28">
-        <v>4.086467759621365</v>
+        <v>5.923601526338102</v>
       </c>
       <c r="N28">
-        <v>0.1202415736578121</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O28">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P28">
-        <v>40.04726763148941</v>
+        <v>58.05112621016772</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.584977432312384</v>
+        <v>2.297528156230213</v>
       </c>
       <c r="C29">
-        <v>12.09207823336515</v>
+        <v>17.52825601306062</v>
       </c>
       <c r="D29">
-        <v>0.01403585783164152</v>
+        <v>0.02034589130899687</v>
       </c>
       <c r="E29">
-        <v>1.33506007670039</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="F29">
-        <v>2.147060280086371</v>
+        <v>3.112303901655634</v>
       </c>
       <c r="G29">
-        <v>3.878280048342699</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="H29">
-        <v>0.1447159818148892</v>
+        <v>0.209775253639496</v>
       </c>
       <c r="I29">
-        <v>1.072579192153434</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="J29">
-        <v>2.677373877493198</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K29">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L29">
-        <v>5.245283215875761</v>
+        <v>7.603380105099912</v>
       </c>
       <c r="M29">
-        <v>3.300608575078795</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="N29">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O29">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P29">
-        <v>37.41957034079562</v>
+        <v>54.24210761574463</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.645231084700548</v>
+        <v>2.384869754952882</v>
       </c>
       <c r="C30">
-        <v>12.55176419713354</v>
+        <v>18.19460079706227</v>
       </c>
       <c r="D30">
-        <v>0.01222477940175228</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E30">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F30">
-        <v>1.795723143344964</v>
+        <v>2.60301780865744</v>
       </c>
       <c r="G30">
-        <v>3.243652404068439</v>
+        <v>4.701885702245293</v>
       </c>
       <c r="H30">
-        <v>0.1640114460568745</v>
+        <v>0.2377452874580954</v>
       </c>
       <c r="I30">
-        <v>1.215589751107225</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="J30">
-        <v>3.328227195778838</v>
+        <v>4.824482378576803</v>
       </c>
       <c r="K30">
-        <v>4.408006005949747</v>
+        <v>6.389692184276721</v>
       </c>
       <c r="L30">
-        <v>5.869721693956208</v>
+        <v>8.508544403326086</v>
       </c>
       <c r="M30">
-        <v>3.693538167350079</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="N30">
-        <v>0.1109922218379805</v>
+        <v>0.160890464177316</v>
       </c>
       <c r="O30">
-        <v>0.4612902189273574</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="P30">
-        <v>39.66276656996551</v>
+        <v>57.49376684533262</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.478767604373925</v>
+        <v>2.143570083905507</v>
       </c>
       <c r="C31">
-        <v>11.28178433112935</v>
+        <v>16.35368215651532</v>
       </c>
       <c r="D31">
-        <v>0.01222477940175228</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E31">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F31">
-        <v>2.381285037913974</v>
+        <v>3.451827963654432</v>
       </c>
       <c r="G31">
-        <v>4.301365144525539</v>
+        <v>6.235109300803538</v>
       </c>
       <c r="H31">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I31">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J31">
-        <v>2.603413273142557</v>
+        <v>3.7738173272423</v>
       </c>
       <c r="K31">
-        <v>3.448040253542913</v>
+        <v>4.998159219700902</v>
       </c>
       <c r="L31">
-        <v>4.121293955330954</v>
+        <v>5.974084368292788</v>
       </c>
       <c r="M31">
-        <v>2.593335308990481</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="N31">
-        <v>0.05549611091899024</v>
+        <v>0.08044523208865802</v>
       </c>
       <c r="O31">
-        <v>0.2306451094636787</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="P31">
-        <v>35.13119937784806</v>
+        <v>50.92496466336756</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.647273581391672</v>
+        <v>2.387830487112971</v>
       </c>
       <c r="C32">
-        <v>12.56734677217654</v>
+        <v>18.21718875584199</v>
       </c>
       <c r="D32">
-        <v>0.01086647057933537</v>
+        <v>0.01575165778761049</v>
       </c>
       <c r="E32">
-        <v>1.033594898090624</v>
+        <v>1.498263213145279</v>
       </c>
       <c r="F32">
-        <v>3.591446286689928</v>
+        <v>5.206035617314881</v>
       </c>
       <c r="G32">
-        <v>6.487304808136877</v>
+        <v>9.403771404490586</v>
       </c>
       <c r="H32">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I32">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J32">
-        <v>2.98800841576589</v>
+        <v>4.331313068766729</v>
       </c>
       <c r="K32">
-        <v>3.957409836452662</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="L32">
-        <v>3.871518564098775</v>
+        <v>5.612018649002314</v>
       </c>
       <c r="M32">
-        <v>2.436163472081968</v>
+        <v>3.531377833009253</v>
       </c>
       <c r="N32">
-        <v>0.1294909254776438</v>
+        <v>0.1877055415402021</v>
       </c>
       <c r="O32">
-        <v>0.5381719220819169</v>
+        <v>0.78011529922657</v>
       </c>
       <c r="P32">
-        <v>40.71935016178581</v>
+        <v>59.0253536693017</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.655443568156169</v>
+        <v>2.399673415753332</v>
       </c>
       <c r="C33">
-        <v>12.62967707234852</v>
+        <v>18.30754059096085</v>
       </c>
       <c r="D33">
-        <v>0.01131924018680767</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E33">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F33">
-        <v>3.044921851758853</v>
+        <v>4.413812805984354</v>
       </c>
       <c r="G33">
-        <v>5.500106250376916</v>
+        <v>7.97276271250289</v>
       </c>
       <c r="H33">
-        <v>0.250841035145808</v>
+        <v>0.3636104396417929</v>
       </c>
       <c r="I33">
-        <v>1.859137266399285</v>
+        <v>2.694940715728355</v>
       </c>
       <c r="J33">
-        <v>2.766126602713967</v>
+        <v>4.009680910194943</v>
       </c>
       <c r="K33">
-        <v>3.663542769389346</v>
+        <v>5.310544170932208</v>
       </c>
       <c r="L33">
-        <v>4.870620129027492</v>
+        <v>7.0602815261642</v>
       </c>
       <c r="M33">
-        <v>3.064850819716023</v>
+        <v>4.442701144753576</v>
       </c>
       <c r="N33">
-        <v>0.1202415736578121</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O33">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P33">
-        <v>41.01322060155937</v>
+        <v>59.45133803721694</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.976115548662668</v>
+        <v>2.864508364887539</v>
       </c>
       <c r="C34">
-        <v>15.07614135409894</v>
+        <v>21.85385011937647</v>
       </c>
       <c r="D34">
-        <v>0.009734546560654599</v>
+        <v>0.01411086010140106</v>
       </c>
       <c r="E34">
-        <v>0.9259287628728509</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="F34">
-        <v>2.654547255379513</v>
+        <v>3.847939369319693</v>
       </c>
       <c r="G34">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H34">
-        <v>0.5113298024126086</v>
+        <v>0.7412058961928859</v>
       </c>
       <c r="I34">
-        <v>3.789779812275466</v>
+        <v>5.493532997446263</v>
       </c>
       <c r="J34">
-        <v>2.307570855739994</v>
+        <v>3.344974449146583</v>
       </c>
       <c r="K34">
-        <v>3.056217497458491</v>
+        <v>4.430186581098527</v>
       </c>
       <c r="L34">
-        <v>2.747529303553971</v>
+        <v>3.98272291219519</v>
       </c>
       <c r="M34">
-        <v>1.728890205993654</v>
+        <v>2.506139107296889</v>
       </c>
       <c r="N34">
-        <v>0.09249351819831704</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O34">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P34">
-        <v>40.05565140238544</v>
+        <v>58.06327903284917</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.062921658035448</v>
+        <v>2.990339481691383</v>
       </c>
       <c r="C35">
-        <v>15.73840079342629</v>
+        <v>22.81383836751447</v>
       </c>
       <c r="D35">
-        <v>0.007470698523293064</v>
+        <v>0.01082926472898221</v>
       </c>
       <c r="E35">
-        <v>0.7105964924373042</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="F35">
-        <v>2.186097739724305</v>
+        <v>3.1688912453221</v>
       </c>
       <c r="G35">
-        <v>3.948794231039838</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="H35">
-        <v>0.5692161951385643</v>
+        <v>0.8251159976486838</v>
       </c>
       <c r="I35">
-        <v>4.218811489136838</v>
+        <v>6.115442393383575</v>
       </c>
       <c r="J35">
-        <v>1.789846625285508</v>
+        <v>2.59449941247908</v>
       </c>
       <c r="K35">
-        <v>2.370527674310753</v>
+        <v>3.43623446354437</v>
       </c>
       <c r="L35">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M35">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N35">
-        <v>0.07399481455865362</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O35">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P35">
-        <v>36.83283582121989</v>
+        <v>53.39159766432483</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.552297485254396</v>
+        <v>2.250156441668765</v>
       </c>
       <c r="C36">
-        <v>11.8427570326772</v>
+        <v>17.16684867258513</v>
       </c>
       <c r="D36">
-        <v>0.006112389700876142</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E36">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F36">
-        <v>2.225135199362238</v>
+        <v>3.225478588988566</v>
       </c>
       <c r="G36">
-        <v>4.019308413736978</v>
+        <v>5.826249674521343</v>
       </c>
       <c r="H36">
-        <v>0.5981593915015421</v>
+        <v>0.8670710483765831</v>
       </c>
       <c r="I36">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J36">
-        <v>1.109409065259612</v>
+        <v>1.608160792858934</v>
       </c>
       <c r="K36">
-        <v>1.469335335316583</v>
+        <v>2.129897394758907</v>
       </c>
       <c r="L36">
-        <v>1.623540043009164</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M36">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N36">
-        <v>0.04624675909915852</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O36">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P36">
-        <v>30.72084677045299</v>
+        <v>44.53187092725665</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.440981415588128</v>
+        <v>2.088796538943831</v>
       </c>
       <c r="C37">
-        <v>10.99350669283391</v>
+        <v>15.93580491909055</v>
       </c>
       <c r="D37">
-        <v>0.005659620093403836</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E37">
-        <v>0.5383306760888666</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="F37">
-        <v>1.288236168051822</v>
+        <v>1.867382340993381</v>
       </c>
       <c r="G37">
-        <v>2.326968029005619</v>
+        <v>3.373091916828145</v>
       </c>
       <c r="H37">
-        <v>0.5885116593805495</v>
+        <v>0.8530860314672839</v>
       </c>
       <c r="I37">
-        <v>4.361822048090629</v>
+        <v>6.322745525362682</v>
       </c>
       <c r="J37">
-        <v>0.9614878565583309</v>
+        <v>1.393739353811076</v>
       </c>
       <c r="K37">
-        <v>1.273423957274371</v>
+        <v>1.845911075457719</v>
       </c>
       <c r="L37">
-        <v>2.123090825473523</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M37">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N37">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O37">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P37">
-        <v>27.33335996895574</v>
+        <v>39.62148788543411</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.145840643720679</v>
+        <v>1.660970741810758</v>
       </c>
       <c r="C38">
-        <v>8.741824599120942</v>
+        <v>12.6718448754214</v>
       </c>
       <c r="D38">
-        <v>0.003395772056042301</v>
+        <v>0.004922393058628276</v>
       </c>
       <c r="E38">
-        <v>0.3229984056533201</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="F38">
-        <v>1.054011410224218</v>
+        <v>1.527858278994585</v>
       </c>
       <c r="G38">
-        <v>1.903882932822779</v>
+        <v>2.759802477404846</v>
       </c>
       <c r="H38">
-        <v>0.4052047490816898</v>
+        <v>0.5873707101905887</v>
       </c>
       <c r="I38">
-        <v>3.003221738029615</v>
+        <v>4.353365771561188</v>
       </c>
       <c r="J38">
-        <v>0.621269076545383</v>
+        <v>0.9005700440010034</v>
       </c>
       <c r="K38">
-        <v>0.8228277877772862</v>
+        <v>1.192742541064988</v>
       </c>
       <c r="L38">
-        <v>2.123090825473523</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M38">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N38">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O38">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P38">
-        <v>21.57890896102207</v>
+        <v>31.28003585915112</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.8200624214863687</v>
+        <v>1.188733962276328</v>
       </c>
       <c r="C39">
-        <v>6.256403879763022</v>
+        <v>9.069065450056495</v>
       </c>
       <c r="D39">
-        <v>0.004754080878459224</v>
+        <v>0.006891350282079589</v>
       </c>
       <c r="E39">
-        <v>0.452197767914648</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="F39">
-        <v>0.5074869752931421</v>
+        <v>0.7356354676640586</v>
       </c>
       <c r="G39">
-        <v>0.9166843750628197</v>
+        <v>1.328793785417148</v>
       </c>
       <c r="H39">
-        <v>0.1736591781778671</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I39">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J39">
-        <v>0.443763626103845</v>
+        <v>0.6432643171435738</v>
       </c>
       <c r="K39">
-        <v>0.587734134126633</v>
+        <v>0.8519589579035627</v>
       </c>
       <c r="L39">
-        <v>1.248876956160895</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M39">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N39">
-        <v>0.02774805545949512</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O39">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P39">
-        <v>13.62764822028573</v>
+        <v>19.75416485497071</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,43 +2350,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.4830504674508748</v>
+        <v>0.7002131558613988</v>
       </c>
       <c r="C40">
-        <v>3.685278997668631</v>
+        <v>5.342052251403136</v>
       </c>
       <c r="D40">
-        <v>0.005433235289667683</v>
+        <v>0.007875828893805243</v>
       </c>
       <c r="E40">
-        <v>0.516797449045312</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="F40">
-        <v>0.5465244349310762</v>
+        <v>0.7922228113305251</v>
       </c>
       <c r="G40">
-        <v>0.9871985577599595</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="H40">
-        <v>0.0771818569679409</v>
+        <v>0.1118801352743979</v>
       </c>
       <c r="I40">
-        <v>0.5720422358151647</v>
+        <v>0.8292125279164169</v>
       </c>
       <c r="J40">
-        <v>0.355010900883076</v>
+        <v>0.5146114537148591</v>
       </c>
       <c r="K40">
-        <v>0.4701873073013064</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="L40">
-        <v>1.748427738625254</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M40">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="P40">
-        <v>10.54733604009786</v>
+        <v>15.28905145986359</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2394,43 +2394,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.3727556461301675</v>
+        <v>0.5403336192165122</v>
       </c>
       <c r="C41">
-        <v>2.843819945346829</v>
+        <v>4.122302477298405</v>
       </c>
       <c r="D41">
-        <v>0.005659620093403836</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E41">
-        <v>0.5383306760888666</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="F41">
-        <v>0.19518729818967</v>
+        <v>0.2829367183323304</v>
       </c>
       <c r="G41">
-        <v>0.3525709134856999</v>
+        <v>0.5110745328527493</v>
       </c>
       <c r="H41">
-        <v>0.03859092848397045</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I41">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J41">
-        <v>0.2810502965324352</v>
+        <v>0.4074007341909299</v>
       </c>
       <c r="K41">
-        <v>0.3722316182802009</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="L41">
-        <v>2.123090825473523</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M41">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="P41">
-        <v>8.745269499734716</v>
+        <v>12.6768384835285</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,43 +2438,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.2420358578982184</v>
+        <v>0.350846760970722</v>
       </c>
       <c r="C42">
-        <v>1.846535142595064</v>
+        <v>2.676673115396497</v>
       </c>
       <c r="D42">
-        <v>0.006338774504612298</v>
+        <v>0.009188467042772781</v>
       </c>
       <c r="E42">
-        <v>0.6029303572195307</v>
+        <v>0.8739868743347459</v>
       </c>
       <c r="F42">
-        <v>0.3122996771034721</v>
+        <v>0.4526987493317287</v>
       </c>
       <c r="G42">
-        <v>0.5641134615771197</v>
+        <v>0.8177192525643989</v>
       </c>
       <c r="H42">
-        <v>0.04823866060496306</v>
+        <v>0.06992508454649866</v>
       </c>
       <c r="I42">
-        <v>0.3575263973844779</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="J42">
-        <v>0.2958424174025633</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K42">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L42">
-        <v>1.873315434241343</v>
+        <v>2.715492894678539</v>
       </c>
       <c r="M42">
-        <v>1.178788776813855</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="P42">
-        <v>7.719787713429642</v>
+        <v>11.19033575503236</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,49 +2482,49 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.1695272253633091</v>
+        <v>0.2457407692875098</v>
       </c>
       <c r="C43">
-        <v>1.293353728568695</v>
+        <v>1.874800578716535</v>
       </c>
       <c r="D43">
-        <v>0.007017928915820759</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E43">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F43">
-        <v>0.5855618945690102</v>
+        <v>0.8488101549969913</v>
       </c>
       <c r="G43">
-        <v>1.057712740457099</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="H43">
-        <v>0.01929546424198523</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I43">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J43">
-        <v>0.2366739339220507</v>
+        <v>0.3430743024765726</v>
       </c>
       <c r="K43">
-        <v>0.3134582048675376</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="L43">
-        <v>1.248876956160895</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M43">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N43">
-        <v>0.009249351819831702</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O43">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P43">
-        <v>6.575568062310071</v>
+        <v>9.531714747713817</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2532,43 +2532,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1879096955834269</v>
+        <v>0.2723873587283241</v>
       </c>
       <c r="C44">
-        <v>1.433596903955662</v>
+        <v>2.078092207733991</v>
       </c>
       <c r="D44">
-        <v>0.007017928915820759</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E44">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F44">
-        <v>0.3903745963793401</v>
+        <v>0.5658734366646607</v>
       </c>
       <c r="G44">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H44">
-        <v>0.03859092848397045</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I44">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J44">
-        <v>0.3254266591428197</v>
+        <v>0.4717271659052875</v>
       </c>
       <c r="K44">
-        <v>0.4310050316928641</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="L44">
-        <v>0.7493261736965373</v>
+        <v>1.086197157871415</v>
       </c>
       <c r="M44">
-        <v>0.4715155107255419</v>
+        <v>0.6834924838082423</v>
       </c>
       <c r="P44">
-        <v>5.69345641180516</v>
+        <v>8.253036381286263</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2576,49 +2576,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2532695896994015</v>
+        <v>0.3671307878512193</v>
       </c>
       <c r="C45">
-        <v>1.932239305331545</v>
+        <v>2.800906888684943</v>
       </c>
       <c r="D45">
-        <v>0.002263848037361535</v>
+        <v>0.003281595372418851</v>
       </c>
       <c r="E45">
-        <v>0.2153322704355467</v>
+        <v>0.3121381694052664</v>
       </c>
       <c r="F45">
-        <v>0.7417117331207461</v>
+        <v>1.075159529662856</v>
       </c>
       <c r="G45">
-        <v>1.339769471245659</v>
+        <v>1.942083224840448</v>
       </c>
       <c r="H45">
-        <v>0.05788639272595567</v>
+        <v>0.08391010145579837</v>
       </c>
       <c r="I45">
-        <v>0.4290316768613734</v>
+        <v>0.6219093959373129</v>
       </c>
       <c r="J45">
-        <v>0.5473084721947422</v>
+        <v>0.793359324477074</v>
       </c>
       <c r="K45">
-        <v>0.7248720987561807</v>
+        <v>1.050749381414394</v>
       </c>
       <c r="L45">
-        <v>1.623540043009164</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M45">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N45">
-        <v>0.03699740727932681</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O45">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P45">
-        <v>9.079602654911463</v>
+        <v>13.1614761962934</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2626,49 +2626,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.5882390470437715</v>
+        <v>0.8526908621060586</v>
       </c>
       <c r="C46">
-        <v>4.487781612382941</v>
+        <v>6.505332128558578</v>
       </c>
       <c r="D46">
-        <v>0.001811078429889228</v>
+        <v>0.002625276297935081</v>
       </c>
       <c r="E46">
-        <v>0.1722658163484374</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="F46">
-        <v>1.17112378913802</v>
+        <v>1.697620309993983</v>
       </c>
       <c r="G46">
-        <v>2.115425480914199</v>
+        <v>3.066447197116496</v>
       </c>
       <c r="H46">
-        <v>0.2894319636297784</v>
+        <v>0.4195505072789919</v>
       </c>
       <c r="I46">
-        <v>2.145158384306868</v>
+        <v>3.109546979686563</v>
       </c>
       <c r="J46">
-        <v>1.686301779194611</v>
+        <v>2.44440440514558</v>
       </c>
       <c r="K46">
-        <v>2.233389709681205</v>
+        <v>3.237444040033539</v>
       </c>
       <c r="L46">
-        <v>5.495058607107941</v>
+        <v>7.965445824390381</v>
       </c>
       <c r="M46">
-        <v>3.457780411987307</v>
+        <v>5.012278214593779</v>
       </c>
       <c r="N46">
-        <v>0.0184987036396634</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O46">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P46">
-        <v>23.93914808695919</v>
+        <v>34.70135640083563</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2676,49 +2676,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.118266938390503</v>
+        <v>1.621000857649538</v>
       </c>
       <c r="C47">
-        <v>8.531459836040488</v>
+        <v>12.36690743189521</v>
       </c>
       <c r="D47">
-        <v>0.003848541663514609</v>
+        <v>0.005578712133112046</v>
       </c>
       <c r="E47">
-        <v>0.3660648597404293</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="F47">
-        <v>1.990910441534634</v>
+        <v>2.885954526989769</v>
       </c>
       <c r="G47">
-        <v>3.596223317554138</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="H47">
-        <v>0.8393526945263573</v>
+        <v>1.216696471109077</v>
       </c>
       <c r="I47">
-        <v>6.220959314489916</v>
+        <v>9.017686241091033</v>
       </c>
       <c r="J47">
-        <v>2.485076306181532</v>
+        <v>3.602280176004014</v>
       </c>
       <c r="K47">
-        <v>3.291311151109145</v>
+        <v>4.770970164259952</v>
       </c>
       <c r="L47">
-        <v>7.74303712819755</v>
+        <v>11.22403729800463</v>
       </c>
       <c r="M47">
-        <v>4.872326944163936</v>
+        <v>7.062755666018506</v>
       </c>
       <c r="N47">
-        <v>0.1017428700181487</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O47">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P47">
-        <v>41.58342971096037</v>
+        <v>60.27789332884429</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2726,49 +2726,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.608466144260311</v>
+        <v>2.331576576071251</v>
       </c>
       <c r="C48">
-        <v>12.27127784635961</v>
+        <v>17.78801753902736</v>
       </c>
       <c r="D48">
-        <v>0.00588600489713999</v>
+        <v>0.00853214796828901</v>
       </c>
       <c r="E48">
-        <v>0.5598639031324217</v>
+        <v>0.811559240453693</v>
       </c>
       <c r="F48">
-        <v>2.108022820448436</v>
+        <v>3.055716557989169</v>
       </c>
       <c r="G48">
-        <v>3.807765865645559</v>
+        <v>5.519604954809692</v>
       </c>
       <c r="H48">
-        <v>0.9165345514942983</v>
+        <v>1.328576606383474</v>
       </c>
       <c r="I48">
-        <v>6.793001550305076</v>
+        <v>9.846898769007453</v>
       </c>
       <c r="J48">
-        <v>2.618205394012687</v>
+        <v>3.795259471147085</v>
       </c>
       <c r="K48">
-        <v>3.467631391347135</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="L48">
-        <v>9.86612795367108</v>
+        <v>14.30159591197364</v>
       </c>
       <c r="M48">
-        <v>6.208287557886305</v>
+        <v>8.999317703475191</v>
       </c>
       <c r="N48">
-        <v>0.157238980937139</v>
+        <v>0.2279281575845311</v>
       </c>
       <c r="O48">
-        <v>0.6534944768137562</v>
+        <v>0.9472828633465497</v>
       </c>
       <c r="P48">
-        <v>51.04180444121096</v>
+        <v>73.98842435086839</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2776,49 +2776,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.749398415947882</v>
+        <v>2.535867095117496</v>
       </c>
       <c r="C49">
-        <v>13.34647552432635</v>
+        <v>19.34658669482786</v>
       </c>
       <c r="D49">
-        <v>0.01018731616812691</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E49">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F49">
-        <v>2.654547255379513</v>
+        <v>3.847939369319693</v>
       </c>
       <c r="G49">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H49">
-        <v>0.4341479454446677</v>
+        <v>0.6293257609184878</v>
       </c>
       <c r="I49">
-        <v>3.217737576460301</v>
+        <v>4.664320469529844</v>
       </c>
       <c r="J49">
-        <v>2.677373877493198</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K49">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L49">
-        <v>6.743935563268835</v>
+        <v>9.77577442084274</v>
       </c>
       <c r="M49">
-        <v>4.243639596529877</v>
+        <v>6.15143235427418</v>
       </c>
       <c r="N49">
-        <v>0.06474546273882192</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O49">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P49">
-        <v>44.72123007772802</v>
+        <v>64.8263395996284</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2.235352780868313</v>
+        <v>1.51928896264175</v>
       </c>
       <c r="C2">
-        <v>17.05390887868655</v>
+        <v>11.59092906991713</v>
       </c>
       <c r="D2">
-        <v>0.01673613639933614</v>
+        <v>0.01137495053416188</v>
       </c>
       <c r="E2">
-        <v>1.591904663966859</v>
+        <v>1.081960398484973</v>
       </c>
       <c r="F2">
-        <v>3.961114056652625</v>
+        <v>2.692226890334387</v>
       </c>
       <c r="G2">
-        <v>7.155043459938489</v>
+        <v>4.86302593887841</v>
       </c>
       <c r="H2">
-        <v>0.4754905749161908</v>
+        <v>0.3231738580564152</v>
       </c>
       <c r="I2">
-        <v>3.524153243644772</v>
+        <v>2.395240326964322</v>
       </c>
       <c r="J2">
-        <v>3.795259471147085</v>
+        <v>2.57950148818815</v>
       </c>
       <c r="K2">
-        <v>5.026557851631022</v>
+        <v>3.41637075338809</v>
       </c>
       <c r="L2">
-        <v>9.594741561197504</v>
+        <v>6.521201073087445</v>
       </c>
       <c r="M2">
-        <v>6.037516940306141</v>
+        <v>4.103483319356244</v>
       </c>
       <c r="N2">
-        <v>0.120667848132987</v>
+        <v>0.08201360044071641</v>
       </c>
       <c r="O2">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="P2">
-        <v>61.08995015984781</v>
+        <v>41.52064398986656</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2.106560931904376</v>
+        <v>1.431753770754445</v>
       </c>
       <c r="C3">
-        <v>16.07133267176885</v>
+        <v>10.9231073288027</v>
       </c>
       <c r="D3">
-        <v>0.02133036992072253</v>
+        <v>0.01449748597491219</v>
       </c>
       <c r="E3">
-        <v>2.028898101134232</v>
+        <v>1.378969135323986</v>
       </c>
       <c r="F3">
-        <v>4.866511555316083</v>
+        <v>3.307593036696534</v>
       </c>
       <c r="G3">
-        <v>8.790481965067285</v>
+        <v>5.974574724907761</v>
       </c>
       <c r="H3">
-        <v>0.1818052198208965</v>
+        <v>0.1235664751392176</v>
       </c>
       <c r="I3">
-        <v>1.347470357864177</v>
+        <v>0.9158271838393002</v>
       </c>
       <c r="J3">
-        <v>4.18121806143323</v>
+        <v>2.841823673427624</v>
       </c>
       <c r="K3">
-        <v>5.537733226373159</v>
+        <v>3.763798287630947</v>
       </c>
       <c r="L3">
-        <v>8.508544403326086</v>
+        <v>5.782951895002076</v>
       </c>
       <c r="M3">
-        <v>5.354024456497898</v>
+        <v>3.638938037919688</v>
       </c>
       <c r="N3">
-        <v>0.308373389673189</v>
+        <v>0.2095903122373864</v>
       </c>
       <c r="O3">
-        <v>1.281617991586508</v>
+        <v>0.8710696967411601</v>
       </c>
       <c r="P3">
-        <v>60.58590270168669</v>
+        <v>41.17806104439774</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.968886886460169</v>
+        <v>1.338181669081807</v>
       </c>
       <c r="C4">
-        <v>15.02099258851199</v>
+        <v>10.20922891588728</v>
       </c>
       <c r="D4">
-        <v>0.01673613639933614</v>
+        <v>0.01137495053416188</v>
       </c>
       <c r="E4">
-        <v>1.591904663966859</v>
+        <v>1.081960398484973</v>
       </c>
       <c r="F4">
-        <v>2.433255777658041</v>
+        <v>1.653796518348267</v>
       </c>
       <c r="G4">
-        <v>4.395240982533642</v>
+        <v>2.98728736245388</v>
       </c>
       <c r="H4">
-        <v>0.1678202029115967</v>
+        <v>0.11406136166697</v>
       </c>
       <c r="I4">
-        <v>1.243818791874626</v>
+        <v>0.8453789389285843</v>
       </c>
       <c r="J4">
-        <v>3.323532305241798</v>
+        <v>2.258885484006573</v>
       </c>
       <c r="K4">
-        <v>4.401787949168408</v>
+        <v>2.991737100424599</v>
       </c>
       <c r="L4">
-        <v>8.146478684035621</v>
+        <v>5.536868835640286</v>
       </c>
       <c r="M4">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="N4">
-        <v>0.26815077362886</v>
+        <v>0.1822524454238144</v>
       </c>
       <c r="O4">
-        <v>1.114450427466528</v>
+        <v>0.7574519102097043</v>
       </c>
       <c r="P4">
-        <v>49.21924979841929</v>
+        <v>33.45255550186506</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2.284204861509805</v>
+        <v>1.552491966461074</v>
       </c>
       <c r="C5">
-        <v>17.42661019855188</v>
+        <v>11.84424076482261</v>
       </c>
       <c r="D5">
-        <v>0.01804877454830368</v>
+        <v>0.01226710351723339</v>
       </c>
       <c r="E5">
-        <v>1.716759931728966</v>
+        <v>1.166820037581834</v>
       </c>
       <c r="F5">
-        <v>3.282065932655033</v>
+        <v>2.23070228056278</v>
       </c>
       <c r="G5">
-        <v>5.928464581091893</v>
+        <v>4.029364349356396</v>
       </c>
       <c r="H5">
-        <v>0.2936853550952944</v>
+        <v>0.1996073829171976</v>
       </c>
       <c r="I5">
-        <v>2.176682885780594</v>
+        <v>1.479413143125023</v>
       </c>
       <c r="J5">
-        <v>4.009680910194943</v>
+        <v>2.725236035543413</v>
       </c>
       <c r="K5">
-        <v>5.310544170932208</v>
+        <v>3.609386050189678</v>
       </c>
       <c r="L5">
-        <v>6.698215806873732</v>
+        <v>4.552536598193121</v>
       </c>
       <c r="M5">
-        <v>4.214870316817495</v>
+        <v>2.864695902192095</v>
       </c>
       <c r="N5">
-        <v>0.2279281575845311</v>
+        <v>0.154914578610242</v>
       </c>
       <c r="O5">
-        <v>0.9472828633465497</v>
+        <v>0.6438341236782484</v>
       </c>
       <c r="P5">
-        <v>54.53504474671124</v>
+        <v>37.06551031675095</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2.12432532486492</v>
+        <v>1.443827590325106</v>
       </c>
       <c r="C6">
-        <v>16.20686042444715</v>
+        <v>11.01522067240469</v>
       </c>
       <c r="D6">
-        <v>0.01870509362278745</v>
+        <v>0.01271318000876916</v>
       </c>
       <c r="E6">
-        <v>1.779187565610019</v>
+        <v>1.209249857130265</v>
       </c>
       <c r="F6">
-        <v>4.017701400319091</v>
+        <v>2.730687274482022</v>
       </c>
       <c r="G6">
-        <v>7.257258366509039</v>
+        <v>4.932497738005243</v>
       </c>
       <c r="H6">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I6">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J6">
-        <v>4.288428780957158</v>
+        <v>2.914690947105255</v>
       </c>
       <c r="K6">
-        <v>5.679726386023754</v>
+        <v>3.86030593603174</v>
       </c>
       <c r="L6">
-        <v>6.879248666518966</v>
+        <v>4.675578127874018</v>
       </c>
       <c r="M6">
-        <v>4.328785730785537</v>
+        <v>2.942120115764855</v>
       </c>
       <c r="N6">
-        <v>0.201113080221645</v>
+        <v>0.1366893340678607</v>
       </c>
       <c r="O6">
-        <v>0.8358378205998964</v>
+        <v>0.5680889326572781</v>
       </c>
       <c r="P6">
-        <v>55.73463713265931</v>
+        <v>37.88083015675043</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2.278283397189624</v>
+        <v>1.54846735993752</v>
       </c>
       <c r="C7">
-        <v>17.38143428099244</v>
+        <v>11.81353631695528</v>
       </c>
       <c r="D7">
-        <v>0.01936141269727122</v>
+        <v>0.01315925650030491</v>
       </c>
       <c r="E7">
-        <v>1.841615199491072</v>
+        <v>1.251679676678695</v>
       </c>
       <c r="F7">
-        <v>4.64016218065022</v>
+        <v>3.153751500105996</v>
       </c>
       <c r="G7">
-        <v>8.381622338785089</v>
+        <v>5.696687528400423</v>
       </c>
       <c r="H7">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I7">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J7">
-        <v>4.502850220005015</v>
+        <v>3.060425494460517</v>
       </c>
       <c r="K7">
-        <v>5.963712705324939</v>
+        <v>4.053321232833328</v>
       </c>
       <c r="L7">
-        <v>6.517182947228493</v>
+        <v>4.429495068512225</v>
       </c>
       <c r="M7">
-        <v>4.100954902849455</v>
+        <v>2.787271688619335</v>
       </c>
       <c r="N7">
-        <v>0.174298002858759</v>
+        <v>0.1184640895254793</v>
       </c>
       <c r="O7">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="P7">
-        <v>58.64332885810496</v>
+        <v>39.85776340505874</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2.328615843911161</v>
+        <v>1.582676515387731</v>
       </c>
       <c r="C8">
-        <v>17.76542958024764</v>
+        <v>12.07452412382758</v>
       </c>
       <c r="D8">
-        <v>0.01772061501106179</v>
+        <v>0.01204406527146552</v>
       </c>
       <c r="E8">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="F8">
-        <v>4.526987493317286</v>
+        <v>3.076830731810729</v>
       </c>
       <c r="G8">
-        <v>8.177192525643989</v>
+        <v>5.557743930146754</v>
       </c>
       <c r="H8">
-        <v>0.2797003381859947</v>
+        <v>0.1901022694449502</v>
       </c>
       <c r="I8">
-        <v>2.073031319791043</v>
+        <v>1.408964898214308</v>
       </c>
       <c r="J8">
-        <v>4.202660205338014</v>
+        <v>2.85639712816315</v>
       </c>
       <c r="K8">
-        <v>5.566131858303279</v>
+        <v>3.783099817311106</v>
       </c>
       <c r="L8">
-        <v>5.612018649002314</v>
+        <v>3.814287420107751</v>
       </c>
       <c r="M8">
-        <v>3.531377833009253</v>
+        <v>2.400150620755539</v>
       </c>
       <c r="N8">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O8">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P8">
-        <v>56.25032279693286</v>
+        <v>38.23132317272042</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2.603963934799578</v>
+        <v>1.769820718733006</v>
       </c>
       <c r="C9">
-        <v>19.86610974676135</v>
+        <v>13.50228094965843</v>
       </c>
       <c r="D9">
-        <v>0.01640797686209425</v>
+        <v>0.011151912288394</v>
       </c>
       <c r="E9">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="F9">
-        <v>3.961114056652625</v>
+        <v>2.692226890334387</v>
       </c>
       <c r="G9">
-        <v>7.155043459938489</v>
+        <v>4.86302593887841</v>
       </c>
       <c r="H9">
-        <v>0.4475205410975914</v>
+        <v>0.3041636311119202</v>
       </c>
       <c r="I9">
-        <v>3.316850111665667</v>
+        <v>2.254343837142892</v>
       </c>
       <c r="J9">
-        <v>3.730933039432727</v>
+        <v>2.535781123981571</v>
       </c>
       <c r="K9">
-        <v>4.941361955840663</v>
+        <v>3.358466164347614</v>
       </c>
       <c r="L9">
-        <v>5.974084368292788</v>
+        <v>4.060370479469541</v>
       </c>
       <c r="M9">
-        <v>3.759208660945333</v>
+        <v>2.554999047901058</v>
       </c>
       <c r="N9">
-        <v>0.147482925495873</v>
+        <v>0.1002388449830978</v>
       </c>
       <c r="O9">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="P9">
-        <v>58.09371935991769</v>
+        <v>39.48421357815641</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2.827499212886408</v>
+        <v>1.921749614997181</v>
       </c>
       <c r="C10">
-        <v>21.57150063463001</v>
+        <v>14.66137385665015</v>
       </c>
       <c r="D10">
-        <v>0.02001773177175499</v>
+        <v>0.01360533299184067</v>
       </c>
       <c r="E10">
-        <v>1.904042833372125</v>
+        <v>1.294109496227125</v>
       </c>
       <c r="F10">
-        <v>3.62158999465383</v>
+        <v>2.461464585448583</v>
       </c>
       <c r="G10">
-        <v>6.541754020515191</v>
+        <v>4.446195144117404</v>
       </c>
       <c r="H10">
-        <v>0.8391010145579838</v>
+        <v>0.5703068083348505</v>
       </c>
       <c r="I10">
-        <v>6.219093959373126</v>
+        <v>4.226894694642924</v>
       </c>
       <c r="J10">
-        <v>3.580838032099227</v>
+        <v>2.433766940832888</v>
       </c>
       <c r="K10">
-        <v>4.742571532329834</v>
+        <v>3.223355456586503</v>
       </c>
       <c r="L10">
-        <v>4.525821491130899</v>
+        <v>3.07603824202238</v>
       </c>
       <c r="M10">
-        <v>2.84788534920101</v>
+        <v>1.935605339318982</v>
       </c>
       <c r="N10">
-        <v>0.08044523208865802</v>
+        <v>0.0546757336271443</v>
       </c>
       <c r="O10">
-        <v>0.3343351282399586</v>
+        <v>0.2272355730629113</v>
       </c>
       <c r="P10">
-        <v>59.65649616685</v>
+        <v>40.54637681886087</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3.005143142491836</v>
+        <v>2.042487810703809</v>
       </c>
       <c r="C11">
-        <v>22.92677816141303</v>
+        <v>15.58250729267006</v>
       </c>
       <c r="D11">
-        <v>0.01247006241519163</v>
+        <v>0.008475453339179435</v>
       </c>
       <c r="E11">
-        <v>1.186125043740012</v>
+        <v>0.8061665714201763</v>
       </c>
       <c r="F11">
-        <v>3.112303901655634</v>
+        <v>2.115321128119876</v>
       </c>
       <c r="G11">
-        <v>5.621819861380242</v>
+        <v>3.820948951975893</v>
       </c>
       <c r="H11">
-        <v>0.8950410821951829</v>
+        <v>0.6083272622238404</v>
       </c>
       <c r="I11">
-        <v>6.633700223331335</v>
+        <v>4.508687674285785</v>
       </c>
       <c r="J11">
-        <v>1.994119383145079</v>
+        <v>1.355331290403944</v>
       </c>
       <c r="K11">
-        <v>2.641072769501045</v>
+        <v>1.795042260254759</v>
       </c>
       <c r="L11">
-        <v>0.9051642982261795</v>
+        <v>0.6152076484044761</v>
       </c>
       <c r="M11">
-        <v>0.5695770698402021</v>
+        <v>0.3871210678637965</v>
       </c>
       <c r="N11">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O11">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P11">
-        <v>49.98722541971836</v>
+        <v>33.97452093613732</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2.18946143238691</v>
+        <v>1.488098262084204</v>
       </c>
       <c r="C12">
-        <v>16.70379551760093</v>
+        <v>11.35296959894532</v>
       </c>
       <c r="D12">
-        <v>0.01050110519174033</v>
+        <v>0.007137223864572156</v>
       </c>
       <c r="E12">
-        <v>0.9988421420968526</v>
+        <v>0.6788771127748854</v>
       </c>
       <c r="F12">
-        <v>3.1688912453221</v>
+        <v>2.15378151226751</v>
       </c>
       <c r="G12">
-        <v>5.724034767950794</v>
+        <v>3.890420751102728</v>
       </c>
       <c r="H12">
-        <v>0.5454156594626892</v>
+        <v>0.3706994254176527</v>
       </c>
       <c r="I12">
-        <v>4.042411073592534</v>
+        <v>2.7474815515179</v>
       </c>
       <c r="J12">
-        <v>1.77969794409722</v>
+        <v>1.209596743048681</v>
       </c>
       <c r="K12">
-        <v>2.357086450199857</v>
+        <v>1.602026963453173</v>
       </c>
       <c r="L12">
-        <v>1.991361456097595</v>
+        <v>1.353456826489848</v>
       </c>
       <c r="M12">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="N12">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O12">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P12">
-        <v>40.9028284677572</v>
+        <v>27.80018275583018</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.90967224325836</v>
+        <v>1.297935603846263</v>
       </c>
       <c r="C13">
-        <v>14.56923341291765</v>
+        <v>9.902184437213975</v>
       </c>
       <c r="D13">
-        <v>0.007219509819321472</v>
+        <v>0.004906841406893358</v>
       </c>
       <c r="E13">
-        <v>0.686703972691586</v>
+        <v>0.4667280150327337</v>
       </c>
       <c r="F13">
-        <v>1.867382340993381</v>
+        <v>1.269192676871926</v>
       </c>
       <c r="G13">
-        <v>3.373091916828145</v>
+        <v>2.292569371185536</v>
       </c>
       <c r="H13">
-        <v>0.7272208792835858</v>
+        <v>0.4942659005568703</v>
       </c>
       <c r="I13">
-        <v>5.389881431456709</v>
+        <v>3.663308735357201</v>
       </c>
       <c r="J13">
-        <v>1.114991483048861</v>
+        <v>0.7578196462473663</v>
       </c>
       <c r="K13">
-        <v>1.476728860366175</v>
+        <v>1.003679543368253</v>
       </c>
       <c r="L13">
-        <v>3.258591473614247</v>
+        <v>2.214747534256113</v>
       </c>
       <c r="M13">
-        <v>2.050477451424727</v>
+        <v>1.393635844309667</v>
       </c>
       <c r="N13">
-        <v>0.06703769340721499</v>
+        <v>0.04556311135595359</v>
       </c>
       <c r="O13">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="P13">
-        <v>36.77684527597658</v>
+        <v>24.99590023856118</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.512934133806235</v>
+        <v>1.028286966768125</v>
       </c>
       <c r="C14">
-        <v>11.54244693643554</v>
+        <v>7.844986430102852</v>
       </c>
       <c r="D14">
-        <v>0.006235031207595817</v>
+        <v>0.004237726669589718</v>
       </c>
       <c r="E14">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="F14">
-        <v>1.923969684659847</v>
+        <v>1.30765306101956</v>
       </c>
       <c r="G14">
-        <v>3.475306823398695</v>
+        <v>2.36204117031237</v>
       </c>
       <c r="H14">
-        <v>0.4615055580068911</v>
+        <v>0.3136687445841678</v>
       </c>
       <c r="I14">
-        <v>3.42050167765522</v>
+        <v>2.324792082053608</v>
       </c>
       <c r="J14">
-        <v>0.7504750366675026</v>
+        <v>0.5100709157434196</v>
       </c>
       <c r="K14">
-        <v>0.9939521175541566</v>
+        <v>0.6755535388055546</v>
       </c>
       <c r="L14">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M14">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="N14">
-        <v>0.06703769340721499</v>
+        <v>0.04556311135595359</v>
       </c>
       <c r="O14">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="P14">
-        <v>29.1553156521214</v>
+        <v>19.81582041622888</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,43 +1130,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1.068824309792663</v>
+        <v>0.726441477501552</v>
       </c>
       <c r="C15">
-        <v>8.154253119477943</v>
+        <v>5.542152840053093</v>
       </c>
       <c r="D15">
-        <v>0.008860307505530896</v>
+        <v>0.006022032635732758</v>
       </c>
       <c r="E15">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="F15">
-        <v>1.244921560662254</v>
+        <v>0.8461284512479503</v>
       </c>
       <c r="G15">
-        <v>2.248727944552097</v>
+        <v>1.528379580790358</v>
       </c>
       <c r="H15">
-        <v>0.2657153212766948</v>
+        <v>0.1805971559727026</v>
       </c>
       <c r="I15">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="J15">
-        <v>0.6432643171435738</v>
+        <v>0.4372036420657882</v>
       </c>
       <c r="K15">
-        <v>0.8519589579035627</v>
+        <v>0.5790458904047612</v>
       </c>
       <c r="L15">
-        <v>2.17239431574283</v>
+        <v>1.476498356170743</v>
       </c>
       <c r="M15">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="P15">
-        <v>20.83805793286934</v>
+        <v>14.16287920692319</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,43 +1174,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.6572825395400864</v>
+        <v>0.4467313241145277</v>
       </c>
       <c r="C16">
-        <v>5.014526849097238</v>
+        <v>3.408193713273647</v>
       </c>
       <c r="D16">
-        <v>0.007219509819321472</v>
+        <v>0.004906841406893358</v>
       </c>
       <c r="E16">
-        <v>0.686703972691586</v>
+        <v>0.4667280150327337</v>
       </c>
       <c r="F16">
-        <v>0.8488101549969913</v>
+        <v>0.5769057622145118</v>
       </c>
       <c r="G16">
-        <v>1.533223598558248</v>
+        <v>1.042076986902516</v>
       </c>
       <c r="H16">
-        <v>0.1398501690929973</v>
+        <v>0.09505113472247509</v>
       </c>
       <c r="I16">
-        <v>1.036515659895521</v>
+        <v>0.704482449107154</v>
       </c>
       <c r="J16">
-        <v>0.4931693098100731</v>
+        <v>0.3351894589171042</v>
       </c>
       <c r="K16">
-        <v>0.6531685343927315</v>
+        <v>0.4439351826436502</v>
       </c>
       <c r="L16">
-        <v>1.991361456097595</v>
+        <v>1.353456826489848</v>
       </c>
       <c r="M16">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="P16">
-        <v>14.31490130764083</v>
+        <v>9.729324044125413</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,43 +1218,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.5107262976156076</v>
+        <v>0.3471223126565586</v>
       </c>
       <c r="C17">
-        <v>3.896422889501232</v>
+        <v>2.648258628557227</v>
       </c>
       <c r="D17">
-        <v>0.01017294565449844</v>
+        <v>0.006914185618804277</v>
       </c>
       <c r="E17">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="F17">
-        <v>0.2829367183323304</v>
+        <v>0.1923019207381706</v>
       </c>
       <c r="G17">
-        <v>0.5110745328527493</v>
+        <v>0.3473589956341721</v>
       </c>
       <c r="H17">
-        <v>0.02797003381859946</v>
+        <v>0.01901022694449501</v>
       </c>
       <c r="I17">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="J17">
-        <v>0.2787478707622152</v>
+        <v>0.1894549115618416</v>
       </c>
       <c r="K17">
-        <v>0.3691822150915439</v>
+        <v>0.2509198858420632</v>
       </c>
       <c r="L17">
-        <v>2.353427175388068</v>
+        <v>1.599539885851638</v>
       </c>
       <c r="M17">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="P17">
-        <v>10.8964925177368</v>
+        <v>7.405954422672943</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,43 +1262,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.333082368010179</v>
+        <v>0.2263841169499297</v>
       </c>
       <c r="C18">
-        <v>2.541145362718194</v>
+        <v>1.727125192537321</v>
       </c>
       <c r="D18">
-        <v>0.009188467042772781</v>
+        <v>0.006245070881500637</v>
       </c>
       <c r="E18">
-        <v>0.8739868743347459</v>
+        <v>0.5940174736780247</v>
       </c>
       <c r="F18">
-        <v>0.5092860929981945</v>
+        <v>0.3461434573287071</v>
       </c>
       <c r="G18">
-        <v>0.9199341591349488</v>
+        <v>0.62524619214151</v>
       </c>
       <c r="H18">
-        <v>0.05594006763719893</v>
+        <v>0.03802045388899002</v>
       </c>
       <c r="I18">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="J18">
-        <v>0.5146114537148591</v>
+        <v>0.3497629136526306</v>
       </c>
       <c r="K18">
-        <v>0.6815671663228503</v>
+        <v>0.4632367123238089</v>
       </c>
       <c r="L18">
-        <v>1.448262877161888</v>
+        <v>0.9843322374471619</v>
       </c>
       <c r="M18">
-        <v>0.9113233117443232</v>
+        <v>0.6193937085820745</v>
       </c>
       <c r="P18">
-        <v>9.212934464778364</v>
+        <v>6.261700509054521</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1983690547260621</v>
+        <v>0.1348243185390692</v>
       </c>
       <c r="C19">
-        <v>1.513393238241058</v>
+        <v>1.02859900355556</v>
       </c>
       <c r="D19">
-        <v>0.008203988431047126</v>
+        <v>0.005575956144196998</v>
       </c>
       <c r="E19">
-        <v>0.7803454235131659</v>
+        <v>0.5303727443553792</v>
       </c>
       <c r="F19">
-        <v>0.679048123997593</v>
+        <v>0.4615246097716094</v>
       </c>
       <c r="G19">
-        <v>1.226578878846598</v>
+        <v>0.833661589522013</v>
       </c>
       <c r="H19">
-        <v>0.01398501690929973</v>
+        <v>0.009505113472247506</v>
       </c>
       <c r="I19">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="J19">
-        <v>0.2358635829526437</v>
+        <v>0.160308002090789</v>
       </c>
       <c r="K19">
-        <v>0.3123849512313064</v>
+        <v>0.2123168264817457</v>
       </c>
       <c r="L19">
-        <v>3.07755861396901</v>
+        <v>2.091706004575218</v>
       </c>
       <c r="M19">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="N19">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O19">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P19">
-        <v>10.15507453631879</v>
+        <v>6.902039261937127</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.2398193049673288</v>
+        <v>0.1629965642039493</v>
       </c>
       <c r="C20">
-        <v>1.829624661157101</v>
+        <v>1.243530138626872</v>
       </c>
       <c r="D20">
-        <v>0.006235031207595817</v>
+        <v>0.004237726669589718</v>
       </c>
       <c r="E20">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="F20">
-        <v>0.8488101549969913</v>
+        <v>0.5769057622145118</v>
       </c>
       <c r="G20">
-        <v>1.533223598558248</v>
+        <v>1.042076986902516</v>
       </c>
       <c r="H20">
-        <v>0.04195505072789919</v>
+        <v>0.02851534041674251</v>
       </c>
       <c r="I20">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="J20">
-        <v>0.4717271659052875</v>
+        <v>0.320616004181578</v>
       </c>
       <c r="K20">
-        <v>0.6247699024626128</v>
+        <v>0.4246336529634914</v>
       </c>
       <c r="L20">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M20">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="N20">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O20">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P20">
-        <v>10.69858798046236</v>
+        <v>7.271445819954325</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,43 +1406,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.4115417702525767</v>
+        <v>0.2797101533870244</v>
       </c>
       <c r="C21">
-        <v>3.139726270380701</v>
+        <v>2.133959126779446</v>
       </c>
       <c r="D21">
-        <v>0.002953435835176966</v>
+        <v>0.002007344211910919</v>
       </c>
       <c r="E21">
-        <v>0.2809243524647397</v>
+        <v>0.1909341879679365</v>
       </c>
       <c r="F21">
-        <v>1.188334216995787</v>
+        <v>0.8076680671003165</v>
       </c>
       <c r="G21">
-        <v>2.146513037981547</v>
+        <v>1.458907781663523</v>
       </c>
       <c r="H21">
-        <v>0.09789511836509812</v>
+        <v>0.06653579430573255</v>
       </c>
       <c r="I21">
-        <v>0.7255609619268649</v>
+        <v>0.4931377143750078</v>
       </c>
       <c r="J21">
-        <v>0.8362436122866457</v>
+        <v>0.5683647346855247</v>
       </c>
       <c r="K21">
-        <v>1.107546645274632</v>
+        <v>0.7527596575261893</v>
       </c>
       <c r="L21">
-        <v>4.163755771840424</v>
+        <v>2.82995518266059</v>
       </c>
       <c r="M21">
-        <v>2.620054521264929</v>
+        <v>1.780756912173465</v>
       </c>
       <c r="P21">
-        <v>16.72104971486912</v>
+        <v>11.36469665683667</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.8275246387452894</v>
+        <v>0.5624387616667141</v>
       </c>
       <c r="C22">
-        <v>6.313334478930984</v>
+        <v>4.290946589459389</v>
       </c>
       <c r="D22">
-        <v>0.002625276297935081</v>
+        <v>0.001784305966143039</v>
       </c>
       <c r="E22">
-        <v>0.2497105355242132</v>
+        <v>0.1697192781937213</v>
       </c>
       <c r="F22">
-        <v>1.754207653660449</v>
+        <v>1.192271908576657</v>
       </c>
       <c r="G22">
-        <v>3.168662103687046</v>
+        <v>2.153625772931867</v>
       </c>
       <c r="H22">
-        <v>0.405565490369692</v>
+        <v>0.2756482906951777</v>
       </c>
       <c r="I22">
-        <v>3.005895413697013</v>
+        <v>2.042999102410746</v>
       </c>
       <c r="J22">
-        <v>2.358635829526437</v>
+        <v>1.60308002090789</v>
       </c>
       <c r="K22">
-        <v>3.123849512313063</v>
+        <v>2.123168264817457</v>
       </c>
       <c r="L22">
-        <v>7.603380105099912</v>
+        <v>5.167744246597596</v>
       </c>
       <c r="M22">
-        <v>4.784447386657696</v>
+        <v>3.251816970055891</v>
       </c>
       <c r="N22">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O22">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P22">
-        <v>33.73609854461927</v>
+        <v>22.9292139478426</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.572148777008044</v>
+        <v>1.068533032003668</v>
       </c>
       <c r="C23">
-        <v>11.99420611202987</v>
+        <v>8.152030908776158</v>
       </c>
       <c r="D23">
-        <v>0.005906871670353931</v>
+        <v>0.004014688423821838</v>
       </c>
       <c r="E23">
-        <v>0.5618487049294794</v>
+        <v>0.381868375935873</v>
       </c>
       <c r="F23">
-        <v>2.999129214322702</v>
+        <v>2.038400359824608</v>
       </c>
       <c r="G23">
-        <v>5.417390048239142</v>
+        <v>3.682005353722225</v>
       </c>
       <c r="H23">
-        <v>1.174741420381177</v>
+        <v>0.7984295316687904</v>
       </c>
       <c r="I23">
-        <v>8.706731543122377</v>
+        <v>5.917652572500093</v>
       </c>
       <c r="J23">
-        <v>3.473627312575298</v>
+        <v>2.360899667155257</v>
       </c>
       <c r="K23">
-        <v>4.60057837267924</v>
+        <v>3.12684780818571</v>
       </c>
       <c r="L23">
-        <v>10.68093871906891</v>
+        <v>7.259450251172818</v>
       </c>
       <c r="M23">
-        <v>6.721009424114385</v>
+        <v>4.5680286007928</v>
       </c>
       <c r="N23">
-        <v>0.160890464177316</v>
+        <v>0.1093514672542886</v>
       </c>
       <c r="O23">
-        <v>0.6686702564799173</v>
+        <v>0.4544711461258225</v>
       </c>
       <c r="P23">
-        <v>58.73781724079821</v>
+        <v>39.92198376354194</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2.261999370309127</v>
+        <v>1.537399691997744</v>
       </c>
       <c r="C24">
-        <v>17.257200507704</v>
+        <v>11.72909908532012</v>
       </c>
       <c r="D24">
-        <v>0.008860307505530896</v>
+        <v>0.006022032635732758</v>
       </c>
       <c r="E24">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="F24">
-        <v>3.1688912453221</v>
+        <v>2.15378151226751</v>
       </c>
       <c r="G24">
-        <v>5.724034767950794</v>
+        <v>3.890420751102728</v>
       </c>
       <c r="H24">
-        <v>1.272636538746275</v>
+        <v>0.8649653259745229</v>
       </c>
       <c r="I24">
-        <v>9.432292505049245</v>
+        <v>6.410790286875103</v>
       </c>
       <c r="J24">
-        <v>3.66660660771837</v>
+        <v>2.492060759774993</v>
       </c>
       <c r="K24">
-        <v>4.856166060050308</v>
+        <v>3.300561575307137</v>
       </c>
       <c r="L24">
-        <v>13.5774644733927</v>
+        <v>9.22811472606714</v>
       </c>
       <c r="M24">
-        <v>8.543656047603029</v>
+        <v>5.806816017956947</v>
       </c>
       <c r="N24">
-        <v>0.241335696265974</v>
+        <v>0.1640272008814328</v>
       </c>
       <c r="O24">
-        <v>1.003005384719876</v>
+        <v>0.6817067191887337</v>
       </c>
       <c r="P24">
-        <v>71.85692256973154</v>
+        <v>48.83856824925365</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2.458888058955142</v>
+        <v>1.671217858905924</v>
       </c>
       <c r="C25">
-        <v>18.75929976655521</v>
+        <v>12.75002197690885</v>
       </c>
       <c r="D25">
-        <v>0.01509533871312671</v>
+        <v>0.01025975930532248</v>
       </c>
       <c r="E25">
-        <v>1.435835579264226</v>
+        <v>0.9758858496138976</v>
       </c>
       <c r="F25">
-        <v>3.961114056652625</v>
+        <v>2.692226890334387</v>
       </c>
       <c r="G25">
-        <v>7.155043459938489</v>
+        <v>4.86302593887841</v>
       </c>
       <c r="H25">
-        <v>0.6013557270998884</v>
+        <v>0.4087198793066427</v>
       </c>
       <c r="I25">
-        <v>4.457017337550742</v>
+        <v>3.029274531160762</v>
       </c>
       <c r="J25">
-        <v>3.730933039432727</v>
+        <v>2.535781123981571</v>
       </c>
       <c r="K25">
-        <v>4.941361955840663</v>
+        <v>3.358466164347614</v>
       </c>
       <c r="L25">
-        <v>9.232675841907028</v>
+        <v>6.275118013725654</v>
       </c>
       <c r="M25">
-        <v>5.809686112370061</v>
+        <v>3.948634892210725</v>
       </c>
       <c r="N25">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O25">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P25">
-        <v>63.11134675471808</v>
+        <v>42.89451462093317</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2.304929986630438</v>
+        <v>1.566578089293513</v>
       </c>
       <c r="C26">
-        <v>17.58472591000991</v>
+        <v>11.95170633235827</v>
       </c>
       <c r="D26">
-        <v>0.01607981732485237</v>
+        <v>0.01092887404262612</v>
       </c>
       <c r="E26">
-        <v>1.529477030085806</v>
+        <v>1.039530578936543</v>
       </c>
       <c r="F26">
-        <v>3.847939369319693</v>
+        <v>2.61530612203912</v>
       </c>
       <c r="G26">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="H26">
-        <v>0.4894755918254906</v>
+        <v>0.3326789715286627</v>
       </c>
       <c r="I26">
-        <v>3.627804809634324</v>
+        <v>2.465688571875039</v>
       </c>
       <c r="J26">
-        <v>3.945354478480585</v>
+        <v>2.681515671336833</v>
       </c>
       <c r="K26">
-        <v>5.225348275141852</v>
+        <v>3.551481461149201</v>
       </c>
       <c r="L26">
-        <v>10.13784014013321</v>
+        <v>6.890325662130133</v>
       </c>
       <c r="M26">
-        <v>6.379263182210263</v>
+        <v>4.335755960074522</v>
       </c>
       <c r="N26">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O26">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P26">
-        <v>62.59189271803197</v>
+        <v>42.54146037764261</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.171697039426367</v>
+        <v>1.476024442513542</v>
       </c>
       <c r="C27">
-        <v>16.56826776492263</v>
+        <v>11.26085625534334</v>
       </c>
       <c r="D27">
-        <v>0.02067405084623876</v>
+        <v>0.01405140948337644</v>
       </c>
       <c r="E27">
-        <v>1.966470467253179</v>
+        <v>1.336539315775556</v>
       </c>
       <c r="F27">
-        <v>4.696749524316685</v>
+        <v>3.192211884253631</v>
       </c>
       <c r="G27">
-        <v>8.483837245355639</v>
+        <v>5.766159327527258</v>
       </c>
       <c r="H27">
-        <v>0.1957902367301962</v>
+        <v>0.1330715886114651</v>
       </c>
       <c r="I27">
-        <v>1.45112192385373</v>
+        <v>0.9862754287500155</v>
       </c>
       <c r="J27">
-        <v>4.331313068766729</v>
+        <v>2.943837856576307</v>
       </c>
       <c r="K27">
-        <v>5.736523649883988</v>
+        <v>3.898908995392059</v>
       </c>
       <c r="L27">
-        <v>8.870610122616561</v>
+        <v>6.029034954363865</v>
       </c>
       <c r="M27">
-        <v>5.581855284433979</v>
+        <v>3.793786465065207</v>
       </c>
       <c r="N27">
-        <v>0.281558312310303</v>
+        <v>0.191365067695005</v>
       </c>
       <c r="O27">
-        <v>1.170172948839855</v>
+        <v>0.7953245057201894</v>
       </c>
       <c r="P27">
-        <v>61.52664163955607</v>
+        <v>41.81744749707082</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.201304361027272</v>
+        <v>1.496147475131313</v>
       </c>
       <c r="C28">
-        <v>16.7941473527198</v>
+        <v>11.41437849467998</v>
       </c>
       <c r="D28">
-        <v>0.01903325316002933</v>
+        <v>0.01293621825453704</v>
       </c>
       <c r="E28">
-        <v>1.810401382550545</v>
+        <v>1.23046476690448</v>
       </c>
       <c r="F28">
-        <v>3.678177338320296</v>
+        <v>2.499924969596217</v>
       </c>
       <c r="G28">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="H28">
-        <v>0.1957902367301962</v>
+        <v>0.1330715886114651</v>
       </c>
       <c r="I28">
-        <v>1.45112192385373</v>
+        <v>0.9862754287500155</v>
       </c>
       <c r="J28">
-        <v>3.881028046766228</v>
+        <v>2.637795307130256</v>
       </c>
       <c r="K28">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="L28">
-        <v>9.41370870155227</v>
+        <v>6.398159543406551</v>
       </c>
       <c r="M28">
-        <v>5.923601526338102</v>
+        <v>4.026059105783483</v>
       </c>
       <c r="N28">
-        <v>0.174298002858759</v>
+        <v>0.1184640895254793</v>
       </c>
       <c r="O28">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="P28">
-        <v>58.05112621016772</v>
+        <v>39.45526454476304</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2.297528156230213</v>
+        <v>1.56154733113907</v>
       </c>
       <c r="C29">
-        <v>17.52825601306062</v>
+        <v>11.9133257725241</v>
       </c>
       <c r="D29">
-        <v>0.02034589130899687</v>
+        <v>0.01382837123760855</v>
       </c>
       <c r="E29">
-        <v>1.935256650312652</v>
+        <v>1.31532440600134</v>
       </c>
       <c r="F29">
-        <v>3.112303901655634</v>
+        <v>2.115321128119876</v>
       </c>
       <c r="G29">
-        <v>5.621819861380242</v>
+        <v>3.820948951975893</v>
       </c>
       <c r="H29">
-        <v>0.209775253639496</v>
+        <v>0.1425767020837126</v>
       </c>
       <c r="I29">
-        <v>1.554773489843281</v>
+        <v>1.056723673660731</v>
       </c>
       <c r="J29">
-        <v>3.881028046766228</v>
+        <v>2.637795307130256</v>
       </c>
       <c r="K29">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="L29">
-        <v>7.603380105099912</v>
+        <v>5.167744246597596</v>
       </c>
       <c r="M29">
-        <v>4.784447386657696</v>
+        <v>3.251816970055891</v>
       </c>
       <c r="N29">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O29">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P29">
-        <v>54.24210761574463</v>
+        <v>36.86641147488821</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2.384869754952882</v>
+        <v>1.620910277361496</v>
       </c>
       <c r="C30">
-        <v>18.19460079706227</v>
+        <v>12.36621637856722</v>
       </c>
       <c r="D30">
-        <v>0.01772061501106179</v>
+        <v>0.01204406527146552</v>
       </c>
       <c r="E30">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="F30">
-        <v>2.60301780865744</v>
+        <v>1.769177670791169</v>
       </c>
       <c r="G30">
-        <v>4.701885702245293</v>
+        <v>3.195702759834383</v>
       </c>
       <c r="H30">
-        <v>0.2377452874580954</v>
+        <v>0.1615869290282076</v>
       </c>
       <c r="I30">
-        <v>1.762076621822386</v>
+        <v>1.197620163482161</v>
       </c>
       <c r="J30">
-        <v>4.824482378576803</v>
+        <v>3.279027315493411</v>
       </c>
       <c r="K30">
-        <v>6.389692184276721</v>
+        <v>4.342844178035708</v>
       </c>
       <c r="L30">
-        <v>8.508544403326086</v>
+        <v>5.782951895002076</v>
       </c>
       <c r="M30">
-        <v>5.354024456497898</v>
+        <v>3.638938037919688</v>
       </c>
       <c r="N30">
-        <v>0.160890464177316</v>
+        <v>0.1093514672542886</v>
       </c>
       <c r="O30">
-        <v>0.6686702564799173</v>
+        <v>0.4544711461258225</v>
       </c>
       <c r="P30">
-        <v>57.49376684533262</v>
+        <v>39.07644741197472</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2.143570083905507</v>
+        <v>1.456907561526658</v>
       </c>
       <c r="C31">
-        <v>16.35368215651532</v>
+        <v>11.11501012797351</v>
       </c>
       <c r="D31">
-        <v>0.01772061501106179</v>
+        <v>0.01204406527146552</v>
       </c>
       <c r="E31">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="F31">
-        <v>3.451827963654432</v>
+        <v>2.346083433005682</v>
       </c>
       <c r="G31">
-        <v>6.235109300803538</v>
+        <v>4.2377797467369</v>
       </c>
       <c r="H31">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I31">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J31">
-        <v>3.7738173272423</v>
+        <v>2.564928033452624</v>
       </c>
       <c r="K31">
-        <v>4.998159219700902</v>
+        <v>3.397069223707931</v>
       </c>
       <c r="L31">
-        <v>5.974084368292788</v>
+        <v>4.060370479469541</v>
       </c>
       <c r="M31">
-        <v>3.759208660945333</v>
+        <v>2.554999047901058</v>
       </c>
       <c r="N31">
-        <v>0.08044523208865802</v>
+        <v>0.0546757336271443</v>
       </c>
       <c r="O31">
-        <v>0.3343351282399586</v>
+        <v>0.2272355730629113</v>
       </c>
       <c r="P31">
-        <v>50.92496466336756</v>
+        <v>34.61186860443638</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2.387830487112971</v>
+        <v>1.622922580623273</v>
       </c>
       <c r="C32">
-        <v>18.21718875584199</v>
+        <v>12.38156860250088</v>
       </c>
       <c r="D32">
-        <v>0.01575165778761049</v>
+        <v>0.01070583579685824</v>
       </c>
       <c r="E32">
-        <v>1.498263213145279</v>
+        <v>1.018315669162328</v>
       </c>
       <c r="F32">
-        <v>5.206035617314881</v>
+        <v>3.538355341582339</v>
       </c>
       <c r="G32">
-        <v>9.403771404490586</v>
+        <v>6.391405519668766</v>
       </c>
       <c r="H32">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I32">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J32">
-        <v>4.331313068766729</v>
+        <v>2.943837856576307</v>
       </c>
       <c r="K32">
-        <v>5.736523649883988</v>
+        <v>3.898908995392059</v>
       </c>
       <c r="L32">
-        <v>5.612018649002314</v>
+        <v>3.814287420107751</v>
       </c>
       <c r="M32">
-        <v>3.531377833009253</v>
+        <v>2.400150620755539</v>
       </c>
       <c r="N32">
-        <v>0.1877055415402021</v>
+        <v>0.12757671179667</v>
       </c>
       <c r="O32">
-        <v>0.78011529922657</v>
+        <v>0.5302163371467928</v>
       </c>
       <c r="P32">
-        <v>59.0253536693017</v>
+        <v>40.11741194200289</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2.399673415753332</v>
+        <v>1.630971793670383</v>
       </c>
       <c r="C33">
-        <v>18.30754059096085</v>
+        <v>12.44297749823555</v>
       </c>
       <c r="D33">
-        <v>0.01640797686209425</v>
+        <v>0.011151912288394</v>
       </c>
       <c r="E33">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="F33">
-        <v>4.413812805984354</v>
+        <v>2.99990996351546</v>
       </c>
       <c r="G33">
-        <v>7.97276271250289</v>
+        <v>5.418800331893085</v>
       </c>
       <c r="H33">
-        <v>0.3636104396417929</v>
+        <v>0.2471329502784351</v>
       </c>
       <c r="I33">
-        <v>2.694940715728355</v>
+        <v>1.8316543676786</v>
       </c>
       <c r="J33">
-        <v>4.009680910194943</v>
+        <v>2.725236035543413</v>
       </c>
       <c r="K33">
-        <v>5.310544170932208</v>
+        <v>3.609386050189678</v>
       </c>
       <c r="L33">
-        <v>7.0602815261642</v>
+        <v>4.798619657554911</v>
       </c>
       <c r="M33">
-        <v>4.442701144753576</v>
+        <v>3.019544329337613</v>
       </c>
       <c r="N33">
-        <v>0.174298002858759</v>
+        <v>0.1184640895254793</v>
       </c>
       <c r="O33">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="P33">
-        <v>59.45133803721694</v>
+        <v>40.40693821005807</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2.864508364887539</v>
+        <v>1.946903405769395</v>
       </c>
       <c r="C34">
-        <v>21.85385011937647</v>
+        <v>14.85327665582096</v>
       </c>
       <c r="D34">
-        <v>0.01411086010140106</v>
+        <v>0.009590644568018839</v>
       </c>
       <c r="E34">
-        <v>1.342194128442646</v>
+        <v>0.9122411202912521</v>
       </c>
       <c r="F34">
-        <v>3.847939369319693</v>
+        <v>2.61530612203912</v>
       </c>
       <c r="G34">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="H34">
-        <v>0.7412058961928859</v>
+        <v>0.5037710140291178</v>
       </c>
       <c r="I34">
-        <v>5.493532997446263</v>
+        <v>3.733756980267916</v>
       </c>
       <c r="J34">
-        <v>3.344974449146583</v>
+        <v>2.273458938742099</v>
       </c>
       <c r="K34">
-        <v>4.430186581098527</v>
+        <v>3.011038630104757</v>
       </c>
       <c r="L34">
-        <v>3.98272291219519</v>
+        <v>2.706913652979695</v>
       </c>
       <c r="M34">
-        <v>2.506139107296889</v>
+        <v>1.703332698600705</v>
       </c>
       <c r="N34">
-        <v>0.13407538681443</v>
+        <v>0.09112622271190718</v>
       </c>
       <c r="O34">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="P34">
-        <v>58.06327903284917</v>
+        <v>39.46352438165454</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.990339481691383</v>
+        <v>2.032426294394924</v>
       </c>
       <c r="C35">
-        <v>22.81383836751447</v>
+        <v>15.50574617300173</v>
       </c>
       <c r="D35">
-        <v>0.01082926472898221</v>
+        <v>0.007360262110340037</v>
       </c>
       <c r="E35">
-        <v>1.030055959037379</v>
+        <v>0.7000920225491005</v>
       </c>
       <c r="F35">
-        <v>3.1688912453221</v>
+        <v>2.15378151226751</v>
       </c>
       <c r="G35">
-        <v>5.724034767950794</v>
+        <v>3.890420751102728</v>
       </c>
       <c r="H35">
-        <v>0.8251159976486838</v>
+        <v>0.5608016948626028</v>
       </c>
       <c r="I35">
-        <v>6.115442393383575</v>
+        <v>4.156446449732207</v>
       </c>
       <c r="J35">
-        <v>2.59449941247908</v>
+        <v>1.76338802299868</v>
       </c>
       <c r="K35">
-        <v>3.43623446354437</v>
+        <v>2.335485091299203</v>
       </c>
       <c r="L35">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M35">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="N35">
-        <v>0.107260309451544</v>
+        <v>0.07290097816952569</v>
       </c>
       <c r="O35">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="P35">
-        <v>53.39159766432483</v>
+        <v>36.2883504221236</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2.250156441668765</v>
+        <v>1.529350478950635</v>
       </c>
       <c r="C36">
-        <v>17.16684867258513</v>
+        <v>11.66769018958546</v>
       </c>
       <c r="D36">
-        <v>0.008860307505530896</v>
+        <v>0.006022032635732758</v>
       </c>
       <c r="E36">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="F36">
-        <v>3.225478588988566</v>
+        <v>2.192241896415144</v>
       </c>
       <c r="G36">
-        <v>5.826249674521343</v>
+        <v>3.959892550229562</v>
       </c>
       <c r="H36">
-        <v>0.8670710483765831</v>
+        <v>0.5893170352793455</v>
       </c>
       <c r="I36">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="J36">
-        <v>1.608160792858934</v>
+        <v>1.09300910516447</v>
       </c>
       <c r="K36">
-        <v>2.129897394758907</v>
+        <v>1.447614726011903</v>
       </c>
       <c r="L36">
-        <v>2.353427175388068</v>
+        <v>1.599539885851638</v>
       </c>
       <c r="M36">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="N36">
-        <v>0.06703769340721499</v>
+        <v>0.04556311135595359</v>
       </c>
       <c r="O36">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="P36">
-        <v>44.53187092725665</v>
+        <v>30.26671251384631</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2.088796538943831</v>
+        <v>1.419679951183781</v>
       </c>
       <c r="C37">
-        <v>15.93580491909055</v>
+        <v>10.83099398520071</v>
       </c>
       <c r="D37">
-        <v>0.008203988431047126</v>
+        <v>0.005575956144196998</v>
       </c>
       <c r="E37">
-        <v>0.7803454235131659</v>
+        <v>0.5303727443553792</v>
       </c>
       <c r="F37">
-        <v>1.867382340993381</v>
+        <v>1.269192676871926</v>
       </c>
       <c r="G37">
-        <v>3.373091916828145</v>
+        <v>2.292569371185536</v>
       </c>
       <c r="H37">
-        <v>0.8530860314672839</v>
+        <v>0.5798119218070978</v>
       </c>
       <c r="I37">
-        <v>6.322745525362682</v>
+        <v>4.297342939553638</v>
       </c>
       <c r="J37">
-        <v>1.393739353811076</v>
+        <v>0.947274557809208</v>
       </c>
       <c r="K37">
-        <v>1.845911075457719</v>
+        <v>1.254599429210316</v>
       </c>
       <c r="L37">
-        <v>3.07755861396901</v>
+        <v>2.091706004575218</v>
       </c>
       <c r="M37">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="N37">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O37">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P37">
-        <v>39.62148788543411</v>
+        <v>26.92930160419727</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.660970741810758</v>
+        <v>1.128902129856983</v>
       </c>
       <c r="C38">
-        <v>12.6718448754214</v>
+        <v>8.612597626786108</v>
       </c>
       <c r="D38">
-        <v>0.004922393058628276</v>
+        <v>0.003345573686518199</v>
       </c>
       <c r="E38">
-        <v>0.4682072541078996</v>
+        <v>0.3182236466132276</v>
       </c>
       <c r="F38">
-        <v>1.527858278994585</v>
+        <v>1.038430371986121</v>
       </c>
       <c r="G38">
-        <v>2.759802477404846</v>
+        <v>1.875738576424529</v>
       </c>
       <c r="H38">
-        <v>0.5873707101905887</v>
+        <v>0.3992147658343952</v>
       </c>
       <c r="I38">
-        <v>4.353365771561188</v>
+        <v>2.958826286250047</v>
       </c>
       <c r="J38">
-        <v>0.9005700440010034</v>
+        <v>0.6120850988921035</v>
       </c>
       <c r="K38">
-        <v>1.192742541064988</v>
+        <v>0.8106642465666654</v>
       </c>
       <c r="L38">
-        <v>3.07755861396901</v>
+        <v>2.091706004575218</v>
       </c>
       <c r="M38">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="N38">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O38">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P38">
-        <v>31.28003585915112</v>
+        <v>21.25991639377218</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1.188733962276328</v>
+        <v>0.8079397596035268</v>
       </c>
       <c r="C39">
-        <v>9.069065450056495</v>
+        <v>6.163917909366529</v>
       </c>
       <c r="D39">
-        <v>0.006891350282079589</v>
+        <v>0.004683803161125477</v>
       </c>
       <c r="E39">
-        <v>0.6554901557510594</v>
+        <v>0.4455131052585184</v>
       </c>
       <c r="F39">
-        <v>0.7356354676640586</v>
+        <v>0.4999849939192434</v>
       </c>
       <c r="G39">
-        <v>1.328793785417148</v>
+        <v>0.9031333886488474</v>
       </c>
       <c r="H39">
-        <v>0.2517303043673952</v>
+        <v>0.1710920425004551</v>
       </c>
       <c r="I39">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="J39">
-        <v>0.6432643171435738</v>
+        <v>0.4372036420657882</v>
       </c>
       <c r="K39">
-        <v>0.8519589579035627</v>
+        <v>0.5790458904047612</v>
       </c>
       <c r="L39">
-        <v>1.810328596452359</v>
+        <v>1.230415296808952</v>
       </c>
       <c r="M39">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="N39">
-        <v>0.04022261604432901</v>
+        <v>0.02733786681357215</v>
       </c>
       <c r="O39">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="P39">
-        <v>19.75416485497071</v>
+        <v>13.42619602920325</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,43 +2350,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.7002131558613988</v>
+        <v>0.4759097214102966</v>
       </c>
       <c r="C40">
-        <v>5.342052251403136</v>
+        <v>3.63080096031179</v>
       </c>
       <c r="D40">
-        <v>0.007875828893805243</v>
+        <v>0.005352917898429118</v>
       </c>
       <c r="E40">
-        <v>0.7491316065726394</v>
+        <v>0.509157834581164</v>
       </c>
       <c r="F40">
-        <v>0.7922228113305251</v>
+        <v>0.5384453780668775</v>
       </c>
       <c r="G40">
-        <v>1.431008691987699</v>
+        <v>0.9726051877756821</v>
       </c>
       <c r="H40">
-        <v>0.1118801352743979</v>
+        <v>0.07604090777798005</v>
       </c>
       <c r="I40">
-        <v>0.8292125279164169</v>
+        <v>0.5635859592857231</v>
       </c>
       <c r="J40">
-        <v>0.5146114537148591</v>
+        <v>0.3497629136526306</v>
       </c>
       <c r="K40">
-        <v>0.6815671663228503</v>
+        <v>0.4632367123238089</v>
       </c>
       <c r="L40">
-        <v>2.534460035033303</v>
+        <v>1.722581415532533</v>
       </c>
       <c r="M40">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="P40">
-        <v>15.28905145986359</v>
+        <v>10.39141889863555</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2394,43 +2394,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.5403336192165122</v>
+        <v>0.3672453452743301</v>
       </c>
       <c r="C41">
-        <v>4.122302477298405</v>
+        <v>2.801780867893876</v>
       </c>
       <c r="D41">
-        <v>0.008203988431047126</v>
+        <v>0.005575956144196998</v>
       </c>
       <c r="E41">
-        <v>0.7803454235131659</v>
+        <v>0.5303727443553792</v>
       </c>
       <c r="F41">
-        <v>0.2829367183323304</v>
+        <v>0.1923019207381706</v>
       </c>
       <c r="G41">
-        <v>0.5110745328527493</v>
+        <v>0.3473589956341721</v>
       </c>
       <c r="H41">
-        <v>0.05594006763719893</v>
+        <v>0.03802045388899002</v>
       </c>
       <c r="I41">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="J41">
-        <v>0.4074007341909299</v>
+        <v>0.2768956399749992</v>
       </c>
       <c r="K41">
-        <v>0.5395740066722564</v>
+        <v>0.3667290639230154</v>
       </c>
       <c r="L41">
-        <v>3.07755861396901</v>
+        <v>2.091706004575218</v>
       </c>
       <c r="M41">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="P41">
-        <v>12.6768384835285</v>
+        <v>8.615991602782117</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,43 +2438,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.350846760970722</v>
+        <v>0.2384579365205927</v>
       </c>
       <c r="C42">
-        <v>2.676673115396497</v>
+        <v>1.819238536139313</v>
       </c>
       <c r="D42">
-        <v>0.009188467042772781</v>
+        <v>0.006245070881500637</v>
       </c>
       <c r="E42">
-        <v>0.8739868743347459</v>
+        <v>0.5940174736780247</v>
       </c>
       <c r="F42">
-        <v>0.4526987493317287</v>
+        <v>0.3076830731810729</v>
       </c>
       <c r="G42">
-        <v>0.8177192525643989</v>
+        <v>0.5557743930146755</v>
       </c>
       <c r="H42">
-        <v>0.06992508454649866</v>
+        <v>0.04752556736123754</v>
       </c>
       <c r="I42">
-        <v>0.5182578299477607</v>
+        <v>0.352241224553577</v>
       </c>
       <c r="J42">
-        <v>0.4288428780957158</v>
+        <v>0.2914690947105254</v>
       </c>
       <c r="K42">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="L42">
-        <v>2.715492894678539</v>
+        <v>1.845622945213428</v>
       </c>
       <c r="M42">
-        <v>1.708731209520606</v>
+        <v>1.16136320359139</v>
       </c>
       <c r="P42">
-        <v>11.19033575503236</v>
+        <v>7.605669112448511</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,49 +2482,49 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.2457407692875098</v>
+        <v>0.1670211707275036</v>
       </c>
       <c r="C43">
-        <v>1.874800578716535</v>
+        <v>1.274234586494202</v>
       </c>
       <c r="D43">
-        <v>0.01017294565449844</v>
+        <v>0.006914185618804277</v>
       </c>
       <c r="E43">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="F43">
-        <v>0.8488101549969913</v>
+        <v>0.5769057622145118</v>
       </c>
       <c r="G43">
-        <v>1.533223598558248</v>
+        <v>1.042076986902516</v>
       </c>
       <c r="H43">
-        <v>0.02797003381859946</v>
+        <v>0.01901022694449501</v>
       </c>
       <c r="I43">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="J43">
-        <v>0.3430743024765726</v>
+        <v>0.2331752757684204</v>
       </c>
       <c r="K43">
-        <v>0.4543781108819002</v>
+        <v>0.3088244748825393</v>
       </c>
       <c r="L43">
-        <v>1.810328596452359</v>
+        <v>1.230415296808952</v>
       </c>
       <c r="M43">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="N43">
-        <v>0.013407538681443</v>
+        <v>0.009112622271190711</v>
       </c>
       <c r="O43">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="P43">
-        <v>9.531714747713817</v>
+        <v>6.478364012693316</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2532,43 +2532,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.2723873587283241</v>
+        <v>0.185131900083498</v>
       </c>
       <c r="C44">
-        <v>2.078092207733991</v>
+        <v>1.412404601897187</v>
       </c>
       <c r="D44">
-        <v>0.01017294565449844</v>
+        <v>0.006914185618804277</v>
       </c>
       <c r="E44">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="F44">
-        <v>0.5658734366646607</v>
+        <v>0.3846038414763411</v>
       </c>
       <c r="G44">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="H44">
-        <v>0.05594006763719893</v>
+        <v>0.03802045388899002</v>
       </c>
       <c r="I44">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="J44">
-        <v>0.4717271659052875</v>
+        <v>0.320616004181578</v>
       </c>
       <c r="K44">
-        <v>0.6247699024626128</v>
+        <v>0.4246336529634914</v>
       </c>
       <c r="L44">
-        <v>1.086197157871415</v>
+        <v>0.7382491780853713</v>
       </c>
       <c r="M44">
-        <v>0.6834924838082423</v>
+        <v>0.4645452814365559</v>
       </c>
       <c r="P44">
-        <v>8.253036381286263</v>
+        <v>5.609292273543693</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2576,49 +2576,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.3671307878512193</v>
+        <v>0.249525604460367</v>
       </c>
       <c r="C45">
-        <v>2.800906888684943</v>
+        <v>1.903675767774468</v>
       </c>
       <c r="D45">
-        <v>0.003281595372418851</v>
+        <v>0.002230382457678799</v>
       </c>
       <c r="E45">
-        <v>0.3121381694052664</v>
+        <v>0.2121490977421517</v>
       </c>
       <c r="F45">
-        <v>1.075159529662856</v>
+        <v>0.7307472988050481</v>
       </c>
       <c r="G45">
-        <v>1.942083224840448</v>
+        <v>1.319964183409854</v>
       </c>
       <c r="H45">
-        <v>0.08391010145579837</v>
+        <v>0.05703068083348502</v>
       </c>
       <c r="I45">
-        <v>0.6219093959373129</v>
+        <v>0.4226894694642921</v>
       </c>
       <c r="J45">
-        <v>0.793359324477074</v>
+        <v>0.5392178252144719</v>
       </c>
       <c r="K45">
-        <v>1.050749381414394</v>
+        <v>0.7141565981658721</v>
       </c>
       <c r="L45">
-        <v>2.353427175388068</v>
+        <v>1.599539885851638</v>
       </c>
       <c r="M45">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="N45">
-        <v>0.05363015472577201</v>
+        <v>0.03645048908476285</v>
       </c>
       <c r="O45">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="P45">
-        <v>13.1614761962934</v>
+        <v>8.945382441751901</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2626,49 +2626,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.8526908621060586</v>
+        <v>0.5795433393918197</v>
       </c>
       <c r="C46">
-        <v>6.505332128558578</v>
+        <v>4.42144049289554</v>
       </c>
       <c r="D46">
-        <v>0.002625276297935081</v>
+        <v>0.001784305966143039</v>
       </c>
       <c r="E46">
-        <v>0.2497105355242132</v>
+        <v>0.1697192781937213</v>
       </c>
       <c r="F46">
-        <v>1.697620309993983</v>
+        <v>1.153811524429024</v>
       </c>
       <c r="G46">
-        <v>3.066447197116496</v>
+        <v>2.084153973805033</v>
       </c>
       <c r="H46">
-        <v>0.4195505072789919</v>
+        <v>0.2851534041674252</v>
       </c>
       <c r="I46">
-        <v>3.109546979686563</v>
+        <v>2.113447347321462</v>
       </c>
       <c r="J46">
-        <v>2.44440440514558</v>
+        <v>1.661373839849995</v>
       </c>
       <c r="K46">
-        <v>3.237444040033539</v>
+        <v>2.200374383538092</v>
       </c>
       <c r="L46">
-        <v>7.965445824390381</v>
+        <v>5.413827305959391</v>
       </c>
       <c r="M46">
-        <v>5.012278214593779</v>
+        <v>3.40666539720141</v>
       </c>
       <c r="N46">
-        <v>0.02681507736288601</v>
+        <v>0.01822524454238142</v>
       </c>
       <c r="O46">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="P46">
-        <v>34.70135640083563</v>
+        <v>23.58526502828241</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2676,49 +2676,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.621000857649538</v>
+        <v>1.101736035822991</v>
       </c>
       <c r="C47">
-        <v>12.36690743189521</v>
+        <v>8.405342603681632</v>
       </c>
       <c r="D47">
-        <v>0.005578712133112046</v>
+        <v>0.003791650178053958</v>
       </c>
       <c r="E47">
-        <v>0.5306348879889531</v>
+        <v>0.3606534661616579</v>
       </c>
       <c r="F47">
-        <v>2.885954526989769</v>
+        <v>1.96147959152934</v>
       </c>
       <c r="G47">
-        <v>5.212960235098041</v>
+        <v>3.543061755468556</v>
       </c>
       <c r="H47">
-        <v>1.216696471109077</v>
+        <v>0.8269448720855329</v>
       </c>
       <c r="I47">
-        <v>9.017686241091033</v>
+        <v>6.128997307232238</v>
       </c>
       <c r="J47">
-        <v>3.602280176004014</v>
+        <v>2.448340395568414</v>
       </c>
       <c r="K47">
-        <v>4.770970164259952</v>
+        <v>3.242656986266661</v>
       </c>
       <c r="L47">
-        <v>11.22403729800463</v>
+        <v>7.628574840215503</v>
       </c>
       <c r="M47">
-        <v>7.062755666018506</v>
+        <v>4.800301241511078</v>
       </c>
       <c r="N47">
-        <v>0.147482925495873</v>
+        <v>0.1002388449830978</v>
       </c>
       <c r="O47">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="P47">
-        <v>60.27789332884429</v>
+        <v>40.9687181413201</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2726,49 +2726,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2.331576576071251</v>
+        <v>1.584688818649508</v>
       </c>
       <c r="C48">
-        <v>17.78801753902736</v>
+        <v>12.08987634776125</v>
       </c>
       <c r="D48">
-        <v>0.00853214796828901</v>
+        <v>0.005798994389964877</v>
       </c>
       <c r="E48">
-        <v>0.811559240453693</v>
+        <v>0.5515876541295943</v>
       </c>
       <c r="F48">
-        <v>3.055716557989169</v>
+        <v>2.076860743972242</v>
       </c>
       <c r="G48">
-        <v>5.519604954809692</v>
+        <v>3.751477152849059</v>
       </c>
       <c r="H48">
-        <v>1.328576606383474</v>
+        <v>0.902985779863513</v>
       </c>
       <c r="I48">
-        <v>9.846898769007453</v>
+        <v>6.692583266517961</v>
       </c>
       <c r="J48">
-        <v>3.795259471147085</v>
+        <v>2.57950148818815</v>
       </c>
       <c r="K48">
-        <v>5.026557851631022</v>
+        <v>3.41637075338809</v>
       </c>
       <c r="L48">
-        <v>14.30159591197364</v>
+        <v>9.72028084479072</v>
       </c>
       <c r="M48">
-        <v>8.999317703475191</v>
+        <v>6.116512872247986</v>
       </c>
       <c r="N48">
-        <v>0.2279281575845311</v>
+        <v>0.154914578610242</v>
       </c>
       <c r="O48">
-        <v>0.9472828633465497</v>
+        <v>0.6438341236782484</v>
       </c>
       <c r="P48">
-        <v>73.98842435086839</v>
+        <v>50.28727341903653</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2776,49 +2776,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2.535867095117496</v>
+        <v>1.723537743712131</v>
       </c>
       <c r="C49">
-        <v>19.34658669482786</v>
+        <v>13.14917979918414</v>
       </c>
       <c r="D49">
-        <v>0.01476717917588483</v>
+        <v>0.0100367210595546</v>
       </c>
       <c r="E49">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="F49">
-        <v>3.847939369319693</v>
+        <v>2.61530612203912</v>
       </c>
       <c r="G49">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="H49">
-        <v>0.6293257609184878</v>
+        <v>0.4277301062511379</v>
       </c>
       <c r="I49">
-        <v>4.664320469529844</v>
+        <v>3.170171020982193</v>
       </c>
       <c r="J49">
-        <v>3.881028046766228</v>
+        <v>2.637795307130256</v>
       </c>
       <c r="K49">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="L49">
-        <v>9.77577442084274</v>
+        <v>6.64424260276834</v>
       </c>
       <c r="M49">
-        <v>6.15143235427418</v>
+        <v>4.180907532929003</v>
       </c>
       <c r="N49">
-        <v>0.09385277077010104</v>
+        <v>0.06378835589833501</v>
       </c>
       <c r="O49">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="P49">
-        <v>64.8263395996284</v>
+        <v>44.06013363310076</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.51928896264175</v>
+        <v>2.235352780868313</v>
       </c>
       <c r="C2">
-        <v>11.59092906991713</v>
+        <v>17.05390887868655</v>
       </c>
       <c r="D2">
-        <v>0.01137495053416188</v>
+        <v>0.01673613639933614</v>
       </c>
       <c r="E2">
-        <v>1.081960398484973</v>
+        <v>1.591904663966859</v>
       </c>
       <c r="F2">
-        <v>2.692226890334387</v>
+        <v>3.961114056652625</v>
       </c>
       <c r="G2">
-        <v>4.86302593887841</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="H2">
-        <v>0.3231738580564152</v>
+        <v>0.4754905749161908</v>
       </c>
       <c r="I2">
-        <v>2.395240326964322</v>
+        <v>3.524153243644772</v>
       </c>
       <c r="J2">
-        <v>2.57950148818815</v>
+        <v>3.795259471147085</v>
       </c>
       <c r="K2">
-        <v>3.41637075338809</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="L2">
-        <v>6.521201073087445</v>
+        <v>9.594741561197504</v>
       </c>
       <c r="M2">
-        <v>4.103483319356244</v>
+        <v>6.037516940306141</v>
       </c>
       <c r="N2">
-        <v>0.08201360044071641</v>
+        <v>0.120667848132987</v>
       </c>
       <c r="O2">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="P2">
-        <v>41.52064398986656</v>
+        <v>61.08995015984781</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.431753770754445</v>
+        <v>2.106560931904376</v>
       </c>
       <c r="C3">
-        <v>10.9231073288027</v>
+        <v>16.07133267176885</v>
       </c>
       <c r="D3">
-        <v>0.01449748597491219</v>
+        <v>0.02133036992072253</v>
       </c>
       <c r="E3">
-        <v>1.378969135323986</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="F3">
-        <v>3.307593036696534</v>
+        <v>4.866511555316083</v>
       </c>
       <c r="G3">
-        <v>5.974574724907761</v>
+        <v>8.790481965067285</v>
       </c>
       <c r="H3">
-        <v>0.1235664751392176</v>
+        <v>0.1818052198208965</v>
       </c>
       <c r="I3">
-        <v>0.9158271838393002</v>
+        <v>1.347470357864177</v>
       </c>
       <c r="J3">
-        <v>2.841823673427624</v>
+        <v>4.18121806143323</v>
       </c>
       <c r="K3">
-        <v>3.763798287630947</v>
+        <v>5.537733226373159</v>
       </c>
       <c r="L3">
-        <v>5.782951895002076</v>
+        <v>8.508544403326086</v>
       </c>
       <c r="M3">
-        <v>3.638938037919688</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="N3">
-        <v>0.2095903122373864</v>
+        <v>0.308373389673189</v>
       </c>
       <c r="O3">
-        <v>0.8710696967411601</v>
+        <v>1.281617991586508</v>
       </c>
       <c r="P3">
-        <v>41.17806104439774</v>
+        <v>60.58590270168669</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.338181669081807</v>
+        <v>1.968886886460169</v>
       </c>
       <c r="C4">
-        <v>10.20922891588728</v>
+        <v>15.02099258851199</v>
       </c>
       <c r="D4">
-        <v>0.01137495053416188</v>
+        <v>0.01673613639933614</v>
       </c>
       <c r="E4">
-        <v>1.081960398484973</v>
+        <v>1.591904663966859</v>
       </c>
       <c r="F4">
-        <v>1.653796518348267</v>
+        <v>2.433255777658041</v>
       </c>
       <c r="G4">
-        <v>2.98728736245388</v>
+        <v>4.395240982533642</v>
       </c>
       <c r="H4">
-        <v>0.11406136166697</v>
+        <v>0.1678202029115967</v>
       </c>
       <c r="I4">
-        <v>0.8453789389285843</v>
+        <v>1.243818791874626</v>
       </c>
       <c r="J4">
-        <v>2.258885484006573</v>
+        <v>3.323532305241798</v>
       </c>
       <c r="K4">
-        <v>2.991737100424599</v>
+        <v>4.401787949168408</v>
       </c>
       <c r="L4">
-        <v>5.536868835640286</v>
+        <v>8.146478684035621</v>
       </c>
       <c r="M4">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="N4">
-        <v>0.1822524454238144</v>
+        <v>0.26815077362886</v>
       </c>
       <c r="O4">
-        <v>0.7574519102097043</v>
+        <v>1.114450427466528</v>
       </c>
       <c r="P4">
-        <v>33.45255550186506</v>
+        <v>49.21924979841929</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.552491966461074</v>
+        <v>2.284204861509805</v>
       </c>
       <c r="C5">
-        <v>11.84424076482261</v>
+        <v>17.42661019855188</v>
       </c>
       <c r="D5">
-        <v>0.01226710351723339</v>
+        <v>0.01804877454830368</v>
       </c>
       <c r="E5">
-        <v>1.166820037581834</v>
+        <v>1.716759931728966</v>
       </c>
       <c r="F5">
-        <v>2.23070228056278</v>
+        <v>3.282065932655033</v>
       </c>
       <c r="G5">
-        <v>4.029364349356396</v>
+        <v>5.928464581091893</v>
       </c>
       <c r="H5">
-        <v>0.1996073829171976</v>
+        <v>0.2936853550952944</v>
       </c>
       <c r="I5">
-        <v>1.479413143125023</v>
+        <v>2.176682885780594</v>
       </c>
       <c r="J5">
-        <v>2.725236035543413</v>
+        <v>4.009680910194943</v>
       </c>
       <c r="K5">
-        <v>3.609386050189678</v>
+        <v>5.310544170932208</v>
       </c>
       <c r="L5">
-        <v>4.552536598193121</v>
+        <v>6.698215806873732</v>
       </c>
       <c r="M5">
-        <v>2.864695902192095</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="N5">
-        <v>0.154914578610242</v>
+        <v>0.2279281575845311</v>
       </c>
       <c r="O5">
-        <v>0.6438341236782484</v>
+        <v>0.9472828633465497</v>
       </c>
       <c r="P5">
-        <v>37.06551031675095</v>
+        <v>54.53504474671124</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.443827590325106</v>
+        <v>2.12432532486492</v>
       </c>
       <c r="C6">
-        <v>11.01522067240469</v>
+        <v>16.20686042444715</v>
       </c>
       <c r="D6">
-        <v>0.01271318000876916</v>
+        <v>0.01870509362278745</v>
       </c>
       <c r="E6">
-        <v>1.209249857130265</v>
+        <v>1.779187565610019</v>
       </c>
       <c r="F6">
-        <v>2.730687274482022</v>
+        <v>4.017701400319091</v>
       </c>
       <c r="G6">
-        <v>4.932497738005243</v>
+        <v>7.257258366509039</v>
       </c>
       <c r="H6">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I6">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J6">
-        <v>2.914690947105255</v>
+        <v>4.288428780957158</v>
       </c>
       <c r="K6">
-        <v>3.86030593603174</v>
+        <v>5.679726386023754</v>
       </c>
       <c r="L6">
-        <v>4.675578127874018</v>
+        <v>6.879248666518966</v>
       </c>
       <c r="M6">
-        <v>2.942120115764855</v>
+        <v>4.328785730785537</v>
       </c>
       <c r="N6">
-        <v>0.1366893340678607</v>
+        <v>0.201113080221645</v>
       </c>
       <c r="O6">
-        <v>0.5680889326572781</v>
+        <v>0.8358378205998964</v>
       </c>
       <c r="P6">
-        <v>37.88083015675043</v>
+        <v>55.73463713265931</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.54846735993752</v>
+        <v>2.278283397189624</v>
       </c>
       <c r="C7">
-        <v>11.81353631695528</v>
+        <v>17.38143428099244</v>
       </c>
       <c r="D7">
-        <v>0.01315925650030491</v>
+        <v>0.01936141269727122</v>
       </c>
       <c r="E7">
-        <v>1.251679676678695</v>
+        <v>1.841615199491072</v>
       </c>
       <c r="F7">
-        <v>3.153751500105996</v>
+        <v>4.64016218065022</v>
       </c>
       <c r="G7">
-        <v>5.696687528400423</v>
+        <v>8.381622338785089</v>
       </c>
       <c r="H7">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I7">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J7">
-        <v>3.060425494460517</v>
+        <v>4.502850220005015</v>
       </c>
       <c r="K7">
-        <v>4.053321232833328</v>
+        <v>5.963712705324939</v>
       </c>
       <c r="L7">
-        <v>4.429495068512225</v>
+        <v>6.517182947228493</v>
       </c>
       <c r="M7">
-        <v>2.787271688619335</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="N7">
-        <v>0.1184640895254793</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O7">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P7">
-        <v>39.85776340505874</v>
+        <v>58.64332885810496</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.582676515387731</v>
+        <v>2.328615843911161</v>
       </c>
       <c r="C8">
-        <v>12.07452412382758</v>
+        <v>17.76542958024764</v>
       </c>
       <c r="D8">
-        <v>0.01204406527146552</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E8">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F8">
-        <v>3.076830731810729</v>
+        <v>4.526987493317286</v>
       </c>
       <c r="G8">
-        <v>5.557743930146754</v>
+        <v>8.177192525643989</v>
       </c>
       <c r="H8">
-        <v>0.1901022694449502</v>
+        <v>0.2797003381859947</v>
       </c>
       <c r="I8">
-        <v>1.408964898214308</v>
+        <v>2.073031319791043</v>
       </c>
       <c r="J8">
-        <v>2.85639712816315</v>
+        <v>4.202660205338014</v>
       </c>
       <c r="K8">
-        <v>3.783099817311106</v>
+        <v>5.566131858303279</v>
       </c>
       <c r="L8">
-        <v>3.814287420107751</v>
+        <v>5.612018649002314</v>
       </c>
       <c r="M8">
-        <v>2.400150620755539</v>
+        <v>3.531377833009253</v>
       </c>
       <c r="N8">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O8">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P8">
-        <v>38.23132317272042</v>
+        <v>56.25032279693286</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.769820718733006</v>
+        <v>2.603963934799578</v>
       </c>
       <c r="C9">
-        <v>13.50228094965843</v>
+        <v>19.86610974676135</v>
       </c>
       <c r="D9">
-        <v>0.011151912288394</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E9">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F9">
-        <v>2.692226890334387</v>
+        <v>3.961114056652625</v>
       </c>
       <c r="G9">
-        <v>4.86302593887841</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="H9">
-        <v>0.3041636311119202</v>
+        <v>0.4475205410975914</v>
       </c>
       <c r="I9">
-        <v>2.254343837142892</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="J9">
-        <v>2.535781123981571</v>
+        <v>3.730933039432727</v>
       </c>
       <c r="K9">
-        <v>3.358466164347614</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="L9">
-        <v>4.060370479469541</v>
+        <v>5.974084368292788</v>
       </c>
       <c r="M9">
-        <v>2.554999047901058</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="N9">
-        <v>0.1002388449830978</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O9">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P9">
-        <v>39.48421357815641</v>
+        <v>58.09371935991769</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.921749614997181</v>
+        <v>2.827499212886408</v>
       </c>
       <c r="C10">
-        <v>14.66137385665015</v>
+        <v>21.57150063463001</v>
       </c>
       <c r="D10">
-        <v>0.01360533299184067</v>
+        <v>0.02001773177175499</v>
       </c>
       <c r="E10">
-        <v>1.294109496227125</v>
+        <v>1.904042833372125</v>
       </c>
       <c r="F10">
-        <v>2.461464585448583</v>
+        <v>3.62158999465383</v>
       </c>
       <c r="G10">
-        <v>4.446195144117404</v>
+        <v>6.541754020515191</v>
       </c>
       <c r="H10">
-        <v>0.5703068083348505</v>
+        <v>0.8391010145579838</v>
       </c>
       <c r="I10">
-        <v>4.226894694642924</v>
+        <v>6.219093959373126</v>
       </c>
       <c r="J10">
-        <v>2.433766940832888</v>
+        <v>3.580838032099227</v>
       </c>
       <c r="K10">
-        <v>3.223355456586503</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="L10">
-        <v>3.07603824202238</v>
+        <v>4.525821491130899</v>
       </c>
       <c r="M10">
-        <v>1.935605339318982</v>
+        <v>2.84788534920101</v>
       </c>
       <c r="N10">
-        <v>0.0546757336271443</v>
+        <v>0.08044523208865802</v>
       </c>
       <c r="O10">
-        <v>0.2272355730629113</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="P10">
-        <v>40.54637681886087</v>
+        <v>59.65649616685</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.042487810703809</v>
+        <v>3.005143142491836</v>
       </c>
       <c r="C11">
-        <v>15.58250729267006</v>
+        <v>22.92677816141303</v>
       </c>
       <c r="D11">
-        <v>0.008475453339179435</v>
+        <v>0.01247006241519163</v>
       </c>
       <c r="E11">
-        <v>0.8061665714201763</v>
+        <v>1.186125043740012</v>
       </c>
       <c r="F11">
-        <v>2.115321128119876</v>
+        <v>3.112303901655634</v>
       </c>
       <c r="G11">
-        <v>3.820948951975893</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="H11">
-        <v>0.6083272622238404</v>
+        <v>0.8950410821951829</v>
       </c>
       <c r="I11">
-        <v>4.508687674285785</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="J11">
-        <v>1.355331290403944</v>
+        <v>1.994119383145079</v>
       </c>
       <c r="K11">
-        <v>1.795042260254759</v>
+        <v>2.641072769501045</v>
       </c>
       <c r="L11">
-        <v>0.6152076484044761</v>
+        <v>0.9051642982261795</v>
       </c>
       <c r="M11">
-        <v>0.3871210678637965</v>
+        <v>0.5695770698402021</v>
       </c>
       <c r="N11">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O11">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P11">
-        <v>33.97452093613732</v>
+        <v>49.98722541971836</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.488098262084204</v>
+        <v>2.18946143238691</v>
       </c>
       <c r="C12">
-        <v>11.35296959894532</v>
+        <v>16.70379551760093</v>
       </c>
       <c r="D12">
-        <v>0.007137223864572156</v>
+        <v>0.01050110519174033</v>
       </c>
       <c r="E12">
-        <v>0.6788771127748854</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="F12">
-        <v>2.15378151226751</v>
+        <v>3.1688912453221</v>
       </c>
       <c r="G12">
-        <v>3.890420751102728</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="H12">
-        <v>0.3706994254176527</v>
+        <v>0.5454156594626892</v>
       </c>
       <c r="I12">
-        <v>2.7474815515179</v>
+        <v>4.042411073592534</v>
       </c>
       <c r="J12">
-        <v>1.209596743048681</v>
+        <v>1.77969794409722</v>
       </c>
       <c r="K12">
-        <v>1.602026963453173</v>
+        <v>2.357086450199857</v>
       </c>
       <c r="L12">
-        <v>1.353456826489848</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M12">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="N12">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O12">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P12">
-        <v>27.80018275583018</v>
+        <v>40.9028284677572</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.297935603846263</v>
+        <v>1.90967224325836</v>
       </c>
       <c r="C13">
-        <v>9.902184437213975</v>
+        <v>14.56923341291765</v>
       </c>
       <c r="D13">
-        <v>0.004906841406893358</v>
+        <v>0.007219509819321472</v>
       </c>
       <c r="E13">
-        <v>0.4667280150327337</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="F13">
-        <v>1.269192676871926</v>
+        <v>1.867382340993381</v>
       </c>
       <c r="G13">
-        <v>2.292569371185536</v>
+        <v>3.373091916828145</v>
       </c>
       <c r="H13">
-        <v>0.4942659005568703</v>
+        <v>0.7272208792835858</v>
       </c>
       <c r="I13">
-        <v>3.663308735357201</v>
+        <v>5.389881431456709</v>
       </c>
       <c r="J13">
-        <v>0.7578196462473663</v>
+        <v>1.114991483048861</v>
       </c>
       <c r="K13">
-        <v>1.003679543368253</v>
+        <v>1.476728860366175</v>
       </c>
       <c r="L13">
-        <v>2.214747534256113</v>
+        <v>3.258591473614247</v>
       </c>
       <c r="M13">
-        <v>1.393635844309667</v>
+        <v>2.050477451424727</v>
       </c>
       <c r="N13">
-        <v>0.04556311135595359</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O13">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P13">
-        <v>24.99590023856118</v>
+        <v>36.77684527597658</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.028286966768125</v>
+        <v>1.512934133806235</v>
       </c>
       <c r="C14">
-        <v>7.844986430102852</v>
+        <v>11.54244693643554</v>
       </c>
       <c r="D14">
-        <v>0.004237726669589718</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E14">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F14">
-        <v>1.30765306101956</v>
+        <v>1.923969684659847</v>
       </c>
       <c r="G14">
-        <v>2.36204117031237</v>
+        <v>3.475306823398695</v>
       </c>
       <c r="H14">
-        <v>0.3136687445841678</v>
+        <v>0.4615055580068911</v>
       </c>
       <c r="I14">
-        <v>2.324792082053608</v>
+        <v>3.42050167765522</v>
       </c>
       <c r="J14">
-        <v>0.5100709157434196</v>
+        <v>0.7504750366675026</v>
       </c>
       <c r="K14">
-        <v>0.6755535388055546</v>
+        <v>0.9939521175541566</v>
       </c>
       <c r="L14">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M14">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N14">
-        <v>0.04556311135595359</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O14">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P14">
-        <v>19.81582041622888</v>
+        <v>29.1553156521214</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,43 +1130,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.726441477501552</v>
+        <v>1.068824309792663</v>
       </c>
       <c r="C15">
-        <v>5.542152840053093</v>
+        <v>8.154253119477943</v>
       </c>
       <c r="D15">
-        <v>0.006022032635732758</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E15">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F15">
-        <v>0.8461284512479503</v>
+        <v>1.244921560662254</v>
       </c>
       <c r="G15">
-        <v>1.528379580790358</v>
+        <v>2.248727944552097</v>
       </c>
       <c r="H15">
-        <v>0.1805971559727026</v>
+        <v>0.2657153212766948</v>
       </c>
       <c r="I15">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="J15">
-        <v>0.4372036420657882</v>
+        <v>0.6432643171435738</v>
       </c>
       <c r="K15">
-        <v>0.5790458904047612</v>
+        <v>0.8519589579035627</v>
       </c>
       <c r="L15">
-        <v>1.476498356170743</v>
+        <v>2.17239431574283</v>
       </c>
       <c r="M15">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="P15">
-        <v>14.16287920692319</v>
+        <v>20.83805793286934</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,43 +1174,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.4467313241145277</v>
+        <v>0.6572825395400864</v>
       </c>
       <c r="C16">
-        <v>3.408193713273647</v>
+        <v>5.014526849097238</v>
       </c>
       <c r="D16">
-        <v>0.004906841406893358</v>
+        <v>0.007219509819321472</v>
       </c>
       <c r="E16">
-        <v>0.4667280150327337</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="F16">
-        <v>0.5769057622145118</v>
+        <v>0.8488101549969913</v>
       </c>
       <c r="G16">
-        <v>1.042076986902516</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="H16">
-        <v>0.09505113472247509</v>
+        <v>0.1398501690929973</v>
       </c>
       <c r="I16">
-        <v>0.704482449107154</v>
+        <v>1.036515659895521</v>
       </c>
       <c r="J16">
-        <v>0.3351894589171042</v>
+        <v>0.4931693098100731</v>
       </c>
       <c r="K16">
-        <v>0.4439351826436502</v>
+        <v>0.6531685343927315</v>
       </c>
       <c r="L16">
-        <v>1.353456826489848</v>
+        <v>1.991361456097595</v>
       </c>
       <c r="M16">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="P16">
-        <v>9.729324044125413</v>
+        <v>14.31490130764083</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,43 +1218,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.3471223126565586</v>
+        <v>0.5107262976156076</v>
       </c>
       <c r="C17">
-        <v>2.648258628557227</v>
+        <v>3.896422889501232</v>
       </c>
       <c r="D17">
-        <v>0.006914185618804277</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E17">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F17">
-        <v>0.1923019207381706</v>
+        <v>0.2829367183323304</v>
       </c>
       <c r="G17">
-        <v>0.3473589956341721</v>
+        <v>0.5110745328527493</v>
       </c>
       <c r="H17">
-        <v>0.01901022694449501</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I17">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J17">
-        <v>0.1894549115618416</v>
+        <v>0.2787478707622152</v>
       </c>
       <c r="K17">
-        <v>0.2509198858420632</v>
+        <v>0.3691822150915439</v>
       </c>
       <c r="L17">
-        <v>1.599539885851638</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M17">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="P17">
-        <v>7.405954422672943</v>
+        <v>10.8964925177368</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,43 +1262,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.2263841169499297</v>
+        <v>0.333082368010179</v>
       </c>
       <c r="C18">
-        <v>1.727125192537321</v>
+        <v>2.541145362718194</v>
       </c>
       <c r="D18">
-        <v>0.006245070881500637</v>
+        <v>0.009188467042772781</v>
       </c>
       <c r="E18">
-        <v>0.5940174736780247</v>
+        <v>0.8739868743347459</v>
       </c>
       <c r="F18">
-        <v>0.3461434573287071</v>
+        <v>0.5092860929981945</v>
       </c>
       <c r="G18">
-        <v>0.62524619214151</v>
+        <v>0.9199341591349488</v>
       </c>
       <c r="H18">
-        <v>0.03802045388899002</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I18">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J18">
-        <v>0.3497629136526306</v>
+        <v>0.5146114537148591</v>
       </c>
       <c r="K18">
-        <v>0.4632367123238089</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="L18">
-        <v>0.9843322374471619</v>
+        <v>1.448262877161888</v>
       </c>
       <c r="M18">
-        <v>0.6193937085820745</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="P18">
-        <v>6.261700509054521</v>
+        <v>9.212934464778364</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1348243185390692</v>
+        <v>0.1983690547260621</v>
       </c>
       <c r="C19">
-        <v>1.02859900355556</v>
+        <v>1.513393238241058</v>
       </c>
       <c r="D19">
-        <v>0.005575956144196998</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E19">
-        <v>0.5303727443553792</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="F19">
-        <v>0.4615246097716094</v>
+        <v>0.679048123997593</v>
       </c>
       <c r="G19">
-        <v>0.833661589522013</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="H19">
-        <v>0.009505113472247506</v>
+        <v>0.01398501690929973</v>
       </c>
       <c r="I19">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="J19">
-        <v>0.160308002090789</v>
+        <v>0.2358635829526437</v>
       </c>
       <c r="K19">
-        <v>0.2123168264817457</v>
+        <v>0.3123849512313064</v>
       </c>
       <c r="L19">
-        <v>2.091706004575218</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M19">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N19">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O19">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P19">
-        <v>6.902039261937127</v>
+        <v>10.15507453631879</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1629965642039493</v>
+        <v>0.2398193049673288</v>
       </c>
       <c r="C20">
-        <v>1.243530138626872</v>
+        <v>1.829624661157101</v>
       </c>
       <c r="D20">
-        <v>0.004237726669589718</v>
+        <v>0.006235031207595817</v>
       </c>
       <c r="E20">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="F20">
-        <v>0.5769057622145118</v>
+        <v>0.8488101549969913</v>
       </c>
       <c r="G20">
-        <v>1.042076986902516</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="H20">
-        <v>0.02851534041674251</v>
+        <v>0.04195505072789919</v>
       </c>
       <c r="I20">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="J20">
-        <v>0.320616004181578</v>
+        <v>0.4717271659052875</v>
       </c>
       <c r="K20">
-        <v>0.4246336529634914</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="L20">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M20">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N20">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O20">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P20">
-        <v>7.271445819954325</v>
+        <v>10.69858798046236</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,43 +1406,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2797101533870244</v>
+        <v>0.4115417702525767</v>
       </c>
       <c r="C21">
-        <v>2.133959126779446</v>
+        <v>3.139726270380701</v>
       </c>
       <c r="D21">
-        <v>0.002007344211910919</v>
+        <v>0.002953435835176966</v>
       </c>
       <c r="E21">
-        <v>0.1909341879679365</v>
+        <v>0.2809243524647397</v>
       </c>
       <c r="F21">
-        <v>0.8076680671003165</v>
+        <v>1.188334216995787</v>
       </c>
       <c r="G21">
-        <v>1.458907781663523</v>
+        <v>2.146513037981547</v>
       </c>
       <c r="H21">
-        <v>0.06653579430573255</v>
+        <v>0.09789511836509812</v>
       </c>
       <c r="I21">
-        <v>0.4931377143750078</v>
+        <v>0.7255609619268649</v>
       </c>
       <c r="J21">
-        <v>0.5683647346855247</v>
+        <v>0.8362436122866457</v>
       </c>
       <c r="K21">
-        <v>0.7527596575261893</v>
+        <v>1.107546645274632</v>
       </c>
       <c r="L21">
-        <v>2.82995518266059</v>
+        <v>4.163755771840424</v>
       </c>
       <c r="M21">
-        <v>1.780756912173465</v>
+        <v>2.620054521264929</v>
       </c>
       <c r="P21">
-        <v>11.36469665683667</v>
+        <v>16.72104971486912</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.5624387616667141</v>
+        <v>0.8275246387452894</v>
       </c>
       <c r="C22">
-        <v>4.290946589459389</v>
+        <v>6.313334478930984</v>
       </c>
       <c r="D22">
-        <v>0.001784305966143039</v>
+        <v>0.002625276297935081</v>
       </c>
       <c r="E22">
-        <v>0.1697192781937213</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="F22">
-        <v>1.192271908576657</v>
+        <v>1.754207653660449</v>
       </c>
       <c r="G22">
-        <v>2.153625772931867</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="H22">
-        <v>0.2756482906951777</v>
+        <v>0.405565490369692</v>
       </c>
       <c r="I22">
-        <v>2.042999102410746</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="J22">
-        <v>1.60308002090789</v>
+        <v>2.358635829526437</v>
       </c>
       <c r="K22">
-        <v>2.123168264817457</v>
+        <v>3.123849512313063</v>
       </c>
       <c r="L22">
-        <v>5.167744246597596</v>
+        <v>7.603380105099912</v>
       </c>
       <c r="M22">
-        <v>3.251816970055891</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="N22">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O22">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P22">
-        <v>22.9292139478426</v>
+        <v>33.73609854461927</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.068533032003668</v>
+        <v>1.572148777008044</v>
       </c>
       <c r="C23">
-        <v>8.152030908776158</v>
+        <v>11.99420611202987</v>
       </c>
       <c r="D23">
-        <v>0.004014688423821838</v>
+        <v>0.005906871670353931</v>
       </c>
       <c r="E23">
-        <v>0.381868375935873</v>
+        <v>0.5618487049294794</v>
       </c>
       <c r="F23">
-        <v>2.038400359824608</v>
+        <v>2.999129214322702</v>
       </c>
       <c r="G23">
-        <v>3.682005353722225</v>
+        <v>5.417390048239142</v>
       </c>
       <c r="H23">
-        <v>0.7984295316687904</v>
+        <v>1.174741420381177</v>
       </c>
       <c r="I23">
-        <v>5.917652572500093</v>
+        <v>8.706731543122377</v>
       </c>
       <c r="J23">
-        <v>2.360899667155257</v>
+        <v>3.473627312575298</v>
       </c>
       <c r="K23">
-        <v>3.12684780818571</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="L23">
-        <v>7.259450251172818</v>
+        <v>10.68093871906891</v>
       </c>
       <c r="M23">
-        <v>4.5680286007928</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="N23">
-        <v>0.1093514672542886</v>
+        <v>0.160890464177316</v>
       </c>
       <c r="O23">
-        <v>0.4544711461258225</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="P23">
-        <v>39.92198376354194</v>
+        <v>58.73781724079821</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.537399691997744</v>
+        <v>2.261999370309127</v>
       </c>
       <c r="C24">
-        <v>11.72909908532012</v>
+        <v>17.257200507704</v>
       </c>
       <c r="D24">
-        <v>0.006022032635732758</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E24">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F24">
-        <v>2.15378151226751</v>
+        <v>3.1688912453221</v>
       </c>
       <c r="G24">
-        <v>3.890420751102728</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="H24">
-        <v>0.8649653259745229</v>
+        <v>1.272636538746275</v>
       </c>
       <c r="I24">
-        <v>6.410790286875103</v>
+        <v>9.432292505049245</v>
       </c>
       <c r="J24">
-        <v>2.492060759774993</v>
+        <v>3.66660660771837</v>
       </c>
       <c r="K24">
-        <v>3.300561575307137</v>
+        <v>4.856166060050308</v>
       </c>
       <c r="L24">
-        <v>9.22811472606714</v>
+        <v>13.5774644733927</v>
       </c>
       <c r="M24">
-        <v>5.806816017956947</v>
+        <v>8.543656047603029</v>
       </c>
       <c r="N24">
-        <v>0.1640272008814328</v>
+        <v>0.241335696265974</v>
       </c>
       <c r="O24">
-        <v>0.6817067191887337</v>
+        <v>1.003005384719876</v>
       </c>
       <c r="P24">
-        <v>48.83856824925365</v>
+        <v>71.85692256973154</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.671217858905924</v>
+        <v>2.458888058955142</v>
       </c>
       <c r="C25">
-        <v>12.75002197690885</v>
+        <v>18.75929976655521</v>
       </c>
       <c r="D25">
-        <v>0.01025975930532248</v>
+        <v>0.01509533871312671</v>
       </c>
       <c r="E25">
-        <v>0.9758858496138976</v>
+        <v>1.435835579264226</v>
       </c>
       <c r="F25">
-        <v>2.692226890334387</v>
+        <v>3.961114056652625</v>
       </c>
       <c r="G25">
-        <v>4.86302593887841</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="H25">
-        <v>0.4087198793066427</v>
+        <v>0.6013557270998884</v>
       </c>
       <c r="I25">
-        <v>3.029274531160762</v>
+        <v>4.457017337550742</v>
       </c>
       <c r="J25">
-        <v>2.535781123981571</v>
+        <v>3.730933039432727</v>
       </c>
       <c r="K25">
-        <v>3.358466164347614</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="L25">
-        <v>6.275118013725654</v>
+        <v>9.232675841907028</v>
       </c>
       <c r="M25">
-        <v>3.948634892210725</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="N25">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O25">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P25">
-        <v>42.89451462093317</v>
+        <v>63.11134675471808</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.566578089293513</v>
+        <v>2.304929986630438</v>
       </c>
       <c r="C26">
-        <v>11.95170633235827</v>
+        <v>17.58472591000991</v>
       </c>
       <c r="D26">
-        <v>0.01092887404262612</v>
+        <v>0.01607981732485237</v>
       </c>
       <c r="E26">
-        <v>1.039530578936543</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="F26">
-        <v>2.61530612203912</v>
+        <v>3.847939369319693</v>
       </c>
       <c r="G26">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H26">
-        <v>0.3326789715286627</v>
+        <v>0.4894755918254906</v>
       </c>
       <c r="I26">
-        <v>2.465688571875039</v>
+        <v>3.627804809634324</v>
       </c>
       <c r="J26">
-        <v>2.681515671336833</v>
+        <v>3.945354478480585</v>
       </c>
       <c r="K26">
-        <v>3.551481461149201</v>
+        <v>5.225348275141852</v>
       </c>
       <c r="L26">
-        <v>6.890325662130133</v>
+        <v>10.13784014013321</v>
       </c>
       <c r="M26">
-        <v>4.335755960074522</v>
+        <v>6.379263182210263</v>
       </c>
       <c r="N26">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O26">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P26">
-        <v>42.54146037764261</v>
+        <v>62.59189271803197</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.476024442513542</v>
+        <v>2.171697039426367</v>
       </c>
       <c r="C27">
-        <v>11.26085625534334</v>
+        <v>16.56826776492263</v>
       </c>
       <c r="D27">
-        <v>0.01405140948337644</v>
+        <v>0.02067405084623876</v>
       </c>
       <c r="E27">
-        <v>1.336539315775556</v>
+        <v>1.966470467253179</v>
       </c>
       <c r="F27">
-        <v>3.192211884253631</v>
+        <v>4.696749524316685</v>
       </c>
       <c r="G27">
-        <v>5.766159327527258</v>
+        <v>8.483837245355639</v>
       </c>
       <c r="H27">
-        <v>0.1330715886114651</v>
+        <v>0.1957902367301962</v>
       </c>
       <c r="I27">
-        <v>0.9862754287500155</v>
+        <v>1.45112192385373</v>
       </c>
       <c r="J27">
-        <v>2.943837856576307</v>
+        <v>4.331313068766729</v>
       </c>
       <c r="K27">
-        <v>3.898908995392059</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="L27">
-        <v>6.029034954363865</v>
+        <v>8.870610122616561</v>
       </c>
       <c r="M27">
-        <v>3.793786465065207</v>
+        <v>5.581855284433979</v>
       </c>
       <c r="N27">
-        <v>0.191365067695005</v>
+        <v>0.281558312310303</v>
       </c>
       <c r="O27">
-        <v>0.7953245057201894</v>
+        <v>1.170172948839855</v>
       </c>
       <c r="P27">
-        <v>41.81744749707082</v>
+        <v>61.52664163955607</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.496147475131313</v>
+        <v>2.201304361027272</v>
       </c>
       <c r="C28">
-        <v>11.41437849467998</v>
+        <v>16.7941473527198</v>
       </c>
       <c r="D28">
-        <v>0.01293621825453704</v>
+        <v>0.01903325316002933</v>
       </c>
       <c r="E28">
-        <v>1.23046476690448</v>
+        <v>1.810401382550545</v>
       </c>
       <c r="F28">
-        <v>2.499924969596217</v>
+        <v>3.678177338320296</v>
       </c>
       <c r="G28">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="H28">
-        <v>0.1330715886114651</v>
+        <v>0.1957902367301962</v>
       </c>
       <c r="I28">
-        <v>0.9862754287500155</v>
+        <v>1.45112192385373</v>
       </c>
       <c r="J28">
-        <v>2.637795307130256</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K28">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L28">
-        <v>6.398159543406551</v>
+        <v>9.41370870155227</v>
       </c>
       <c r="M28">
-        <v>4.026059105783483</v>
+        <v>5.923601526338102</v>
       </c>
       <c r="N28">
-        <v>0.1184640895254793</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O28">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P28">
-        <v>39.45526454476304</v>
+        <v>58.05112621016772</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.56154733113907</v>
+        <v>2.297528156230213</v>
       </c>
       <c r="C29">
-        <v>11.9133257725241</v>
+        <v>17.52825601306062</v>
       </c>
       <c r="D29">
-        <v>0.01382837123760855</v>
+        <v>0.02034589130899687</v>
       </c>
       <c r="E29">
-        <v>1.31532440600134</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="F29">
-        <v>2.115321128119876</v>
+        <v>3.112303901655634</v>
       </c>
       <c r="G29">
-        <v>3.820948951975893</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="H29">
-        <v>0.1425767020837126</v>
+        <v>0.209775253639496</v>
       </c>
       <c r="I29">
-        <v>1.056723673660731</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="J29">
-        <v>2.637795307130256</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K29">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L29">
-        <v>5.167744246597596</v>
+        <v>7.603380105099912</v>
       </c>
       <c r="M29">
-        <v>3.251816970055891</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="N29">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O29">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P29">
-        <v>36.86641147488821</v>
+        <v>54.24210761574463</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.620910277361496</v>
+        <v>2.384869754952882</v>
       </c>
       <c r="C30">
-        <v>12.36621637856722</v>
+        <v>18.19460079706227</v>
       </c>
       <c r="D30">
-        <v>0.01204406527146552</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E30">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F30">
-        <v>1.769177670791169</v>
+        <v>2.60301780865744</v>
       </c>
       <c r="G30">
-        <v>3.195702759834383</v>
+        <v>4.701885702245293</v>
       </c>
       <c r="H30">
-        <v>0.1615869290282076</v>
+        <v>0.2377452874580954</v>
       </c>
       <c r="I30">
-        <v>1.197620163482161</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="J30">
-        <v>3.279027315493411</v>
+        <v>4.824482378576803</v>
       </c>
       <c r="K30">
-        <v>4.342844178035708</v>
+        <v>6.389692184276721</v>
       </c>
       <c r="L30">
-        <v>5.782951895002076</v>
+        <v>8.508544403326086</v>
       </c>
       <c r="M30">
-        <v>3.638938037919688</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="N30">
-        <v>0.1093514672542886</v>
+        <v>0.160890464177316</v>
       </c>
       <c r="O30">
-        <v>0.4544711461258225</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="P30">
-        <v>39.07644741197472</v>
+        <v>57.49376684533262</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.456907561526658</v>
+        <v>2.143570083905507</v>
       </c>
       <c r="C31">
-        <v>11.11501012797351</v>
+        <v>16.35368215651532</v>
       </c>
       <c r="D31">
-        <v>0.01204406527146552</v>
+        <v>0.01772061501106179</v>
       </c>
       <c r="E31">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="F31">
-        <v>2.346083433005682</v>
+        <v>3.451827963654432</v>
       </c>
       <c r="G31">
-        <v>4.2377797467369</v>
+        <v>6.235109300803538</v>
       </c>
       <c r="H31">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I31">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J31">
-        <v>2.564928033452624</v>
+        <v>3.7738173272423</v>
       </c>
       <c r="K31">
-        <v>3.397069223707931</v>
+        <v>4.998159219700902</v>
       </c>
       <c r="L31">
-        <v>4.060370479469541</v>
+        <v>5.974084368292788</v>
       </c>
       <c r="M31">
-        <v>2.554999047901058</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="N31">
-        <v>0.0546757336271443</v>
+        <v>0.08044523208865802</v>
       </c>
       <c r="O31">
-        <v>0.2272355730629113</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="P31">
-        <v>34.61186860443638</v>
+        <v>50.92496466336756</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.622922580623273</v>
+        <v>2.387830487112971</v>
       </c>
       <c r="C32">
-        <v>12.38156860250088</v>
+        <v>18.21718875584199</v>
       </c>
       <c r="D32">
-        <v>0.01070583579685824</v>
+        <v>0.01575165778761049</v>
       </c>
       <c r="E32">
-        <v>1.018315669162328</v>
+        <v>1.498263213145279</v>
       </c>
       <c r="F32">
-        <v>3.538355341582339</v>
+        <v>5.206035617314881</v>
       </c>
       <c r="G32">
-        <v>6.391405519668766</v>
+        <v>9.403771404490586</v>
       </c>
       <c r="H32">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I32">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J32">
-        <v>2.943837856576307</v>
+        <v>4.331313068766729</v>
       </c>
       <c r="K32">
-        <v>3.898908995392059</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="L32">
-        <v>3.814287420107751</v>
+        <v>5.612018649002314</v>
       </c>
       <c r="M32">
-        <v>2.400150620755539</v>
+        <v>3.531377833009253</v>
       </c>
       <c r="N32">
-        <v>0.12757671179667</v>
+        <v>0.1877055415402021</v>
       </c>
       <c r="O32">
-        <v>0.5302163371467928</v>
+        <v>0.78011529922657</v>
       </c>
       <c r="P32">
-        <v>40.11741194200289</v>
+        <v>59.0253536693017</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.630971793670383</v>
+        <v>2.399673415753332</v>
       </c>
       <c r="C33">
-        <v>12.44297749823555</v>
+        <v>18.30754059096085</v>
       </c>
       <c r="D33">
-        <v>0.011151912288394</v>
+        <v>0.01640797686209425</v>
       </c>
       <c r="E33">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="F33">
-        <v>2.99990996351546</v>
+        <v>4.413812805984354</v>
       </c>
       <c r="G33">
-        <v>5.418800331893085</v>
+        <v>7.97276271250289</v>
       </c>
       <c r="H33">
-        <v>0.2471329502784351</v>
+        <v>0.3636104396417929</v>
       </c>
       <c r="I33">
-        <v>1.8316543676786</v>
+        <v>2.694940715728355</v>
       </c>
       <c r="J33">
-        <v>2.725236035543413</v>
+        <v>4.009680910194943</v>
       </c>
       <c r="K33">
-        <v>3.609386050189678</v>
+        <v>5.310544170932208</v>
       </c>
       <c r="L33">
-        <v>4.798619657554911</v>
+        <v>7.0602815261642</v>
       </c>
       <c r="M33">
-        <v>3.019544329337613</v>
+        <v>4.442701144753576</v>
       </c>
       <c r="N33">
-        <v>0.1184640895254793</v>
+        <v>0.174298002858759</v>
       </c>
       <c r="O33">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="P33">
-        <v>40.40693821005807</v>
+        <v>59.45133803721694</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.946903405769395</v>
+        <v>2.864508364887539</v>
       </c>
       <c r="C34">
-        <v>14.85327665582096</v>
+        <v>21.85385011937647</v>
       </c>
       <c r="D34">
-        <v>0.009590644568018839</v>
+        <v>0.01411086010140106</v>
       </c>
       <c r="E34">
-        <v>0.9122411202912521</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="F34">
-        <v>2.61530612203912</v>
+        <v>3.847939369319693</v>
       </c>
       <c r="G34">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H34">
-        <v>0.5037710140291178</v>
+        <v>0.7412058961928859</v>
       </c>
       <c r="I34">
-        <v>3.733756980267916</v>
+        <v>5.493532997446263</v>
       </c>
       <c r="J34">
-        <v>2.273458938742099</v>
+        <v>3.344974449146583</v>
       </c>
       <c r="K34">
-        <v>3.011038630104757</v>
+        <v>4.430186581098527</v>
       </c>
       <c r="L34">
-        <v>2.706913652979695</v>
+        <v>3.98272291219519</v>
       </c>
       <c r="M34">
-        <v>1.703332698600705</v>
+        <v>2.506139107296889</v>
       </c>
       <c r="N34">
-        <v>0.09112622271190718</v>
+        <v>0.13407538681443</v>
       </c>
       <c r="O34">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="P34">
-        <v>39.46352438165454</v>
+        <v>58.06327903284917</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.032426294394924</v>
+        <v>2.990339481691383</v>
       </c>
       <c r="C35">
-        <v>15.50574617300173</v>
+        <v>22.81383836751447</v>
       </c>
       <c r="D35">
-        <v>0.007360262110340037</v>
+        <v>0.01082926472898221</v>
       </c>
       <c r="E35">
-        <v>0.7000920225491005</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="F35">
-        <v>2.15378151226751</v>
+        <v>3.1688912453221</v>
       </c>
       <c r="G35">
-        <v>3.890420751102728</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="H35">
-        <v>0.5608016948626028</v>
+        <v>0.8251159976486838</v>
       </c>
       <c r="I35">
-        <v>4.156446449732207</v>
+        <v>6.115442393383575</v>
       </c>
       <c r="J35">
-        <v>1.76338802299868</v>
+        <v>2.59449941247908</v>
       </c>
       <c r="K35">
-        <v>2.335485091299203</v>
+        <v>3.43623446354437</v>
       </c>
       <c r="L35">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M35">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="N35">
-        <v>0.07290097816952569</v>
+        <v>0.107260309451544</v>
       </c>
       <c r="O35">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="P35">
-        <v>36.2883504221236</v>
+        <v>53.39159766432483</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.529350478950635</v>
+        <v>2.250156441668765</v>
       </c>
       <c r="C36">
-        <v>11.66769018958546</v>
+        <v>17.16684867258513</v>
       </c>
       <c r="D36">
-        <v>0.006022032635732758</v>
+        <v>0.008860307505530896</v>
       </c>
       <c r="E36">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="F36">
-        <v>2.192241896415144</v>
+        <v>3.225478588988566</v>
       </c>
       <c r="G36">
-        <v>3.959892550229562</v>
+        <v>5.826249674521343</v>
       </c>
       <c r="H36">
-        <v>0.5893170352793455</v>
+        <v>0.8670710483765831</v>
       </c>
       <c r="I36">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="J36">
-        <v>1.09300910516447</v>
+        <v>1.608160792858934</v>
       </c>
       <c r="K36">
-        <v>1.447614726011903</v>
+        <v>2.129897394758907</v>
       </c>
       <c r="L36">
-        <v>1.599539885851638</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M36">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N36">
-        <v>0.04556311135595359</v>
+        <v>0.06703769340721499</v>
       </c>
       <c r="O36">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="P36">
-        <v>30.26671251384631</v>
+        <v>44.53187092725665</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.419679951183781</v>
+        <v>2.088796538943831</v>
       </c>
       <c r="C37">
-        <v>10.83099398520071</v>
+        <v>15.93580491909055</v>
       </c>
       <c r="D37">
-        <v>0.005575956144196998</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E37">
-        <v>0.5303727443553792</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="F37">
-        <v>1.269192676871926</v>
+        <v>1.867382340993381</v>
       </c>
       <c r="G37">
-        <v>2.292569371185536</v>
+        <v>3.373091916828145</v>
       </c>
       <c r="H37">
-        <v>0.5798119218070978</v>
+        <v>0.8530860314672839</v>
       </c>
       <c r="I37">
-        <v>4.297342939553638</v>
+        <v>6.322745525362682</v>
       </c>
       <c r="J37">
-        <v>0.947274557809208</v>
+        <v>1.393739353811076</v>
       </c>
       <c r="K37">
-        <v>1.254599429210316</v>
+        <v>1.845911075457719</v>
       </c>
       <c r="L37">
-        <v>2.091706004575218</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M37">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N37">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O37">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P37">
-        <v>26.92930160419727</v>
+        <v>39.62148788543411</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.128902129856983</v>
+        <v>1.660970741810758</v>
       </c>
       <c r="C38">
-        <v>8.612597626786108</v>
+        <v>12.6718448754214</v>
       </c>
       <c r="D38">
-        <v>0.003345573686518199</v>
+        <v>0.004922393058628276</v>
       </c>
       <c r="E38">
-        <v>0.3182236466132276</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="F38">
-        <v>1.038430371986121</v>
+        <v>1.527858278994585</v>
       </c>
       <c r="G38">
-        <v>1.875738576424529</v>
+        <v>2.759802477404846</v>
       </c>
       <c r="H38">
-        <v>0.3992147658343952</v>
+        <v>0.5873707101905887</v>
       </c>
       <c r="I38">
-        <v>2.958826286250047</v>
+        <v>4.353365771561188</v>
       </c>
       <c r="J38">
-        <v>0.6120850988921035</v>
+        <v>0.9005700440010034</v>
       </c>
       <c r="K38">
-        <v>0.8106642465666654</v>
+        <v>1.192742541064988</v>
       </c>
       <c r="L38">
-        <v>2.091706004575218</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M38">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="N38">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O38">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P38">
-        <v>21.25991639377218</v>
+        <v>31.28003585915112</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.8079397596035268</v>
+        <v>1.188733962276328</v>
       </c>
       <c r="C39">
-        <v>6.163917909366529</v>
+        <v>9.069065450056495</v>
       </c>
       <c r="D39">
-        <v>0.004683803161125477</v>
+        <v>0.006891350282079589</v>
       </c>
       <c r="E39">
-        <v>0.4455131052585184</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="F39">
-        <v>0.4999849939192434</v>
+        <v>0.7356354676640586</v>
       </c>
       <c r="G39">
-        <v>0.9031333886488474</v>
+        <v>1.328793785417148</v>
       </c>
       <c r="H39">
-        <v>0.1710920425004551</v>
+        <v>0.2517303043673952</v>
       </c>
       <c r="I39">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="J39">
-        <v>0.4372036420657882</v>
+        <v>0.6432643171435738</v>
       </c>
       <c r="K39">
-        <v>0.5790458904047612</v>
+        <v>0.8519589579035627</v>
       </c>
       <c r="L39">
-        <v>1.230415296808952</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M39">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N39">
-        <v>0.02733786681357215</v>
+        <v>0.04022261604432901</v>
       </c>
       <c r="O39">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="P39">
-        <v>13.42619602920325</v>
+        <v>19.75416485497071</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,43 +2350,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.4759097214102966</v>
+        <v>0.7002131558613988</v>
       </c>
       <c r="C40">
-        <v>3.63080096031179</v>
+        <v>5.342052251403136</v>
       </c>
       <c r="D40">
-        <v>0.005352917898429118</v>
+        <v>0.007875828893805243</v>
       </c>
       <c r="E40">
-        <v>0.509157834581164</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="F40">
-        <v>0.5384453780668775</v>
+        <v>0.7922228113305251</v>
       </c>
       <c r="G40">
-        <v>0.9726051877756821</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="H40">
-        <v>0.07604090777798005</v>
+        <v>0.1118801352743979</v>
       </c>
       <c r="I40">
-        <v>0.5635859592857231</v>
+        <v>0.8292125279164169</v>
       </c>
       <c r="J40">
-        <v>0.3497629136526306</v>
+        <v>0.5146114537148591</v>
       </c>
       <c r="K40">
-        <v>0.4632367123238089</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="L40">
-        <v>1.722581415532533</v>
+        <v>2.534460035033303</v>
       </c>
       <c r="M40">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="P40">
-        <v>10.39141889863555</v>
+        <v>15.28905145986359</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2394,43 +2394,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.3672453452743301</v>
+        <v>0.5403336192165122</v>
       </c>
       <c r="C41">
-        <v>2.801780867893876</v>
+        <v>4.122302477298405</v>
       </c>
       <c r="D41">
-        <v>0.005575956144196998</v>
+        <v>0.008203988431047126</v>
       </c>
       <c r="E41">
-        <v>0.5303727443553792</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="F41">
-        <v>0.1923019207381706</v>
+        <v>0.2829367183323304</v>
       </c>
       <c r="G41">
-        <v>0.3473589956341721</v>
+        <v>0.5110745328527493</v>
       </c>
       <c r="H41">
-        <v>0.03802045388899002</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I41">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J41">
-        <v>0.2768956399749992</v>
+        <v>0.4074007341909299</v>
       </c>
       <c r="K41">
-        <v>0.3667290639230154</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="L41">
-        <v>2.091706004575218</v>
+        <v>3.07755861396901</v>
       </c>
       <c r="M41">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="P41">
-        <v>8.615991602782117</v>
+        <v>12.6768384835285</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,43 +2438,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.2384579365205927</v>
+        <v>0.350846760970722</v>
       </c>
       <c r="C42">
-        <v>1.819238536139313</v>
+        <v>2.676673115396497</v>
       </c>
       <c r="D42">
-        <v>0.006245070881500637</v>
+        <v>0.009188467042772781</v>
       </c>
       <c r="E42">
-        <v>0.5940174736780247</v>
+        <v>0.8739868743347459</v>
       </c>
       <c r="F42">
-        <v>0.3076830731810729</v>
+        <v>0.4526987493317287</v>
       </c>
       <c r="G42">
-        <v>0.5557743930146755</v>
+        <v>0.8177192525643989</v>
       </c>
       <c r="H42">
-        <v>0.04752556736123754</v>
+        <v>0.06992508454649866</v>
       </c>
       <c r="I42">
-        <v>0.352241224553577</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="J42">
-        <v>0.2914690947105254</v>
+        <v>0.4288428780957158</v>
       </c>
       <c r="K42">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="L42">
-        <v>1.845622945213428</v>
+        <v>2.715492894678539</v>
       </c>
       <c r="M42">
-        <v>1.16136320359139</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="P42">
-        <v>7.605669112448511</v>
+        <v>11.19033575503236</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,49 +2482,49 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.1670211707275036</v>
+        <v>0.2457407692875098</v>
       </c>
       <c r="C43">
-        <v>1.274234586494202</v>
+        <v>1.874800578716535</v>
       </c>
       <c r="D43">
-        <v>0.006914185618804277</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E43">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F43">
-        <v>0.5769057622145118</v>
+        <v>0.8488101549969913</v>
       </c>
       <c r="G43">
-        <v>1.042076986902516</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="H43">
-        <v>0.01901022694449501</v>
+        <v>0.02797003381859946</v>
       </c>
       <c r="I43">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="J43">
-        <v>0.2331752757684204</v>
+        <v>0.3430743024765726</v>
       </c>
       <c r="K43">
-        <v>0.3088244748825393</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="L43">
-        <v>1.230415296808952</v>
+        <v>1.810328596452359</v>
       </c>
       <c r="M43">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="N43">
-        <v>0.009112622271190711</v>
+        <v>0.013407538681443</v>
       </c>
       <c r="O43">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="P43">
-        <v>6.478364012693316</v>
+        <v>9.531714747713817</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2532,43 +2532,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.185131900083498</v>
+        <v>0.2723873587283241</v>
       </c>
       <c r="C44">
-        <v>1.412404601897187</v>
+        <v>2.078092207733991</v>
       </c>
       <c r="D44">
-        <v>0.006914185618804277</v>
+        <v>0.01017294565449844</v>
       </c>
       <c r="E44">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="F44">
-        <v>0.3846038414763411</v>
+        <v>0.5658734366646607</v>
       </c>
       <c r="G44">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="H44">
-        <v>0.03802045388899002</v>
+        <v>0.05594006763719893</v>
       </c>
       <c r="I44">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="J44">
-        <v>0.320616004181578</v>
+        <v>0.4717271659052875</v>
       </c>
       <c r="K44">
-        <v>0.4246336529634914</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="L44">
-        <v>0.7382491780853713</v>
+        <v>1.086197157871415</v>
       </c>
       <c r="M44">
-        <v>0.4645452814365559</v>
+        <v>0.6834924838082423</v>
       </c>
       <c r="P44">
-        <v>5.609292273543693</v>
+        <v>8.253036381286263</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2576,49 +2576,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.249525604460367</v>
+        <v>0.3671307878512193</v>
       </c>
       <c r="C45">
-        <v>1.903675767774468</v>
+        <v>2.800906888684943</v>
       </c>
       <c r="D45">
-        <v>0.002230382457678799</v>
+        <v>0.003281595372418851</v>
       </c>
       <c r="E45">
-        <v>0.2121490977421517</v>
+        <v>0.3121381694052664</v>
       </c>
       <c r="F45">
-        <v>0.7307472988050481</v>
+        <v>1.075159529662856</v>
       </c>
       <c r="G45">
-        <v>1.319964183409854</v>
+        <v>1.942083224840448</v>
       </c>
       <c r="H45">
-        <v>0.05703068083348502</v>
+        <v>0.08391010145579837</v>
       </c>
       <c r="I45">
-        <v>0.4226894694642921</v>
+        <v>0.6219093959373129</v>
       </c>
       <c r="J45">
-        <v>0.5392178252144719</v>
+        <v>0.793359324477074</v>
       </c>
       <c r="K45">
-        <v>0.7141565981658721</v>
+        <v>1.050749381414394</v>
       </c>
       <c r="L45">
-        <v>1.599539885851638</v>
+        <v>2.353427175388068</v>
       </c>
       <c r="M45">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="N45">
-        <v>0.03645048908476285</v>
+        <v>0.05363015472577201</v>
       </c>
       <c r="O45">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="P45">
-        <v>8.945382441751901</v>
+        <v>13.1614761962934</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2626,49 +2626,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.5795433393918197</v>
+        <v>0.8526908621060586</v>
       </c>
       <c r="C46">
-        <v>4.42144049289554</v>
+        <v>6.505332128558578</v>
       </c>
       <c r="D46">
-        <v>0.001784305966143039</v>
+        <v>0.002625276297935081</v>
       </c>
       <c r="E46">
-        <v>0.1697192781937213</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="F46">
-        <v>1.153811524429024</v>
+        <v>1.697620309993983</v>
       </c>
       <c r="G46">
-        <v>2.084153973805033</v>
+        <v>3.066447197116496</v>
       </c>
       <c r="H46">
-        <v>0.2851534041674252</v>
+        <v>0.4195505072789919</v>
       </c>
       <c r="I46">
-        <v>2.113447347321462</v>
+        <v>3.109546979686563</v>
       </c>
       <c r="J46">
-        <v>1.661373839849995</v>
+        <v>2.44440440514558</v>
       </c>
       <c r="K46">
-        <v>2.200374383538092</v>
+        <v>3.237444040033539</v>
       </c>
       <c r="L46">
-        <v>5.413827305959391</v>
+        <v>7.965445824390381</v>
       </c>
       <c r="M46">
-        <v>3.40666539720141</v>
+        <v>5.012278214593779</v>
       </c>
       <c r="N46">
-        <v>0.01822524454238142</v>
+        <v>0.02681507736288601</v>
       </c>
       <c r="O46">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="P46">
-        <v>23.58526502828241</v>
+        <v>34.70135640083563</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2676,49 +2676,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.101736035822991</v>
+        <v>1.621000857649538</v>
       </c>
       <c r="C47">
-        <v>8.405342603681632</v>
+        <v>12.36690743189521</v>
       </c>
       <c r="D47">
-        <v>0.003791650178053958</v>
+        <v>0.005578712133112046</v>
       </c>
       <c r="E47">
-        <v>0.3606534661616579</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="F47">
-        <v>1.96147959152934</v>
+        <v>2.885954526989769</v>
       </c>
       <c r="G47">
-        <v>3.543061755468556</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="H47">
-        <v>0.8269448720855329</v>
+        <v>1.216696471109077</v>
       </c>
       <c r="I47">
-        <v>6.128997307232238</v>
+        <v>9.017686241091033</v>
       </c>
       <c r="J47">
-        <v>2.448340395568414</v>
+        <v>3.602280176004014</v>
       </c>
       <c r="K47">
-        <v>3.242656986266661</v>
+        <v>4.770970164259952</v>
       </c>
       <c r="L47">
-        <v>7.628574840215503</v>
+        <v>11.22403729800463</v>
       </c>
       <c r="M47">
-        <v>4.800301241511078</v>
+        <v>7.062755666018506</v>
       </c>
       <c r="N47">
-        <v>0.1002388449830978</v>
+        <v>0.147482925495873</v>
       </c>
       <c r="O47">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="P47">
-        <v>40.9687181413201</v>
+        <v>60.27789332884429</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2726,49 +2726,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.584688818649508</v>
+        <v>2.331576576071251</v>
       </c>
       <c r="C48">
-        <v>12.08987634776125</v>
+        <v>17.78801753902736</v>
       </c>
       <c r="D48">
-        <v>0.005798994389964877</v>
+        <v>0.00853214796828901</v>
       </c>
       <c r="E48">
-        <v>0.5515876541295943</v>
+        <v>0.811559240453693</v>
       </c>
       <c r="F48">
-        <v>2.076860743972242</v>
+        <v>3.055716557989169</v>
       </c>
       <c r="G48">
-        <v>3.751477152849059</v>
+        <v>5.519604954809692</v>
       </c>
       <c r="H48">
-        <v>0.902985779863513</v>
+        <v>1.328576606383474</v>
       </c>
       <c r="I48">
-        <v>6.692583266517961</v>
+        <v>9.846898769007453</v>
       </c>
       <c r="J48">
-        <v>2.57950148818815</v>
+        <v>3.795259471147085</v>
       </c>
       <c r="K48">
-        <v>3.41637075338809</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="L48">
-        <v>9.72028084479072</v>
+        <v>14.30159591197364</v>
       </c>
       <c r="M48">
-        <v>6.116512872247986</v>
+        <v>8.999317703475191</v>
       </c>
       <c r="N48">
-        <v>0.154914578610242</v>
+        <v>0.2279281575845311</v>
       </c>
       <c r="O48">
-        <v>0.6438341236782484</v>
+        <v>0.9472828633465497</v>
       </c>
       <c r="P48">
-        <v>50.28727341903653</v>
+        <v>73.98842435086839</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2776,49 +2776,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.723537743712131</v>
+        <v>2.535867095117496</v>
       </c>
       <c r="C49">
-        <v>13.14917979918414</v>
+        <v>19.34658669482786</v>
       </c>
       <c r="D49">
-        <v>0.0100367210595546</v>
+        <v>0.01476717917588483</v>
       </c>
       <c r="E49">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="F49">
-        <v>2.61530612203912</v>
+        <v>3.847939369319693</v>
       </c>
       <c r="G49">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="H49">
-        <v>0.4277301062511379</v>
+        <v>0.6293257609184878</v>
       </c>
       <c r="I49">
-        <v>3.170171020982193</v>
+        <v>4.664320469529844</v>
       </c>
       <c r="J49">
-        <v>2.637795307130256</v>
+        <v>3.881028046766228</v>
       </c>
       <c r="K49">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="L49">
-        <v>6.64424260276834</v>
+        <v>9.77577442084274</v>
       </c>
       <c r="M49">
-        <v>4.180907532929003</v>
+        <v>6.15143235427418</v>
       </c>
       <c r="N49">
-        <v>0.06378835589833501</v>
+        <v>0.09385277077010104</v>
       </c>
       <c r="O49">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="P49">
-        <v>44.06013363310076</v>
+        <v>64.8263395996284</v>
       </c>
     </row>
   </sheetData>
